--- a/ISSC/4. Model/ISSC_Valuation_Model_20240522_v1.xlsx
+++ b/ISSC/4. Model/ISSC_Valuation_Model_20240522_v1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndrewChen\Downloads\ISSC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Desktop\ER\ISSC\4. Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3CCE39-27CC-4B53-A084-13BA4C6DE1D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A32A26-563B-4C05-819D-B07CC6CE4C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15264" yWindow="0" windowWidth="15552" windowHeight="16656" xr2:uid="{81AE2BAB-5DCF-4ACF-AB76-A5C9ECDD0E8C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{81AE2BAB-5DCF-4ACF-AB76-A5C9ECDD0E8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Earnings Model" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
   <si>
     <t>Product</t>
   </si>
@@ -192,9 +192,6 @@
     <t>EPS:</t>
   </si>
   <si>
-    <t>Drivers</t>
-  </si>
-  <si>
     <t>(+) Interest</t>
   </si>
   <si>
@@ -208,6 +205,57 @@
   </si>
   <si>
     <t>EBITDA margin %</t>
+  </si>
+  <si>
+    <t>OEM CapEx</t>
+  </si>
+  <si>
+    <t>Unit Economics</t>
+  </si>
+  <si>
+    <t>Pilatus CapEx</t>
+  </si>
+  <si>
+    <t>Textron CapEx</t>
+  </si>
+  <si>
+    <t>Challenge Airlines CapEx</t>
+  </si>
+  <si>
+    <t>Air Transport Services Group CapEx</t>
+  </si>
+  <si>
+    <t>% of net sales</t>
+  </si>
+  <si>
+    <t>ISSC - Pilatus Revenue</t>
+  </si>
+  <si>
+    <t>ISSC - Textron Revenue</t>
+  </si>
+  <si>
+    <t>ISSC - Challenge Airlines Revenue</t>
+  </si>
+  <si>
+    <t>ISSC - ATSG Revenue</t>
+  </si>
+  <si>
+    <t>ISSC - Cargojet Inc. Revenue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">think the build would be </t>
+  </si>
+  <si>
+    <t>OEM Aviation related rev -&gt; % CapEx of revenue -&gt; ISSC % of CapEx = ISSC XOEM revenue</t>
+  </si>
+  <si>
+    <t>OEM backlog -&gt; project OEM revenues (Backlog + % of new orders, perhaps use TAM CAGR) -&gt; % CapEx should be relatively stable going forward</t>
+  </si>
+  <si>
+    <t>Regress to find corr</t>
+  </si>
+  <si>
+    <t>project for each, then sum and subdivide between EDCs/service/product</t>
   </si>
 </sst>
 </file>
@@ -323,7 +371,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -366,6 +414,10 @@
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -718,47 +770,47 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A2:BJ63"/>
+  <dimension ref="B2:BJ80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="12" topLeftCell="O13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="E67" sqref="E67"/>
+      <selection pane="bottomRight" activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="25" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.6640625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.6640625" style="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.6640625" style="1"/>
+    <col min="1" max="1" width="9.7109375" style="1"/>
+    <col min="2" max="2" width="36.42578125" style="1" customWidth="1"/>
+    <col min="3" max="25" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.7109375" style="1" customWidth="1"/>
+    <col min="27" max="27" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.7109375" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B5" s="7">
         <v>45434</v>
       </c>
     </row>
-    <row r="7" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
@@ -823,7 +875,7 @@
       <c r="BI7" s="3"/>
       <c r="BJ7" s="3"/>
     </row>
-    <row r="9" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1067,7 +1119,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1308,7 +1360,7 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="11" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:62" x14ac:dyDescent="0.25">
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -1370,7 +1422,7 @@
       <c r="BI11" s="6"/>
       <c r="BJ11" s="6"/>
     </row>
-    <row r="12" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:62" x14ac:dyDescent="0.25">
       <c r="C12" s="13">
         <v>43100</v>
       </c>
@@ -1611,12 +1663,12 @@
         <v>48487</v>
       </c>
     </row>
-    <row r="14" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>0</v>
       </c>
@@ -1721,7 +1773,7 @@
         <v>4895.5889999999999</v>
       </c>
     </row>
-    <row r="16" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>1</v>
       </c>
@@ -1810,7 +1862,7 @@
         <v>5098.2219999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>2</v>
       </c>
@@ -1897,7 +1949,7 @@
         <v>745.70500000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>3</v>
       </c>
@@ -2142,7 +2194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:62" x14ac:dyDescent="0.25">
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -2170,7 +2222,7 @@
       <c r="AA19" s="8"/>
       <c r="AB19" s="8"/>
     </row>
-    <row r="20" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>10</v>
       </c>
@@ -2201,8 +2253,7 @@
       <c r="AA20" s="8"/>
       <c r="AB20" s="8"/>
     </row>
-    <row r="21" spans="1:62" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
+    <row r="21" spans="2:62" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>0</v>
       </c>
@@ -2307,8 +2358,7 @@
         <v>2347.6950000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:62" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
+    <row r="22" spans="2:62" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>1</v>
       </c>
@@ -2397,8 +2447,7 @@
         <v>2462.2600000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:62" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
+    <row r="23" spans="2:62" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>2</v>
       </c>
@@ -2486,8 +2535,7 @@
         <v>347.19900000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:62" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
+    <row r="24" spans="2:62" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>12</v>
       </c>
@@ -2732,7 +2780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:62" x14ac:dyDescent="0.25">
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -2760,7 +2808,7 @@
       <c r="AA25" s="8"/>
       <c r="AB25" s="8"/>
     </row>
-    <row r="26" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
         <v>13</v>
       </c>
@@ -3005,7 +3053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B27" s="9" t="s">
         <v>14</v>
       </c>
@@ -3250,7 +3298,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>15</v>
       </c>
@@ -3495,7 +3543,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>16</v>
       </c>
@@ -3740,7 +3788,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>17</v>
       </c>
@@ -3985,13 +4033,12 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:62" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
+    <row r="33" spans="2:62" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>19</v>
       </c>
@@ -4074,8 +4121,7 @@
         <v>1031.1189999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:62" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
+    <row r="34" spans="2:62" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>20</v>
       </c>
@@ -4158,8 +4204,7 @@
         <v>2908.1930000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:62" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
+    <row r="35" spans="2:62" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>21</v>
       </c>
@@ -4404,7 +4449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
         <v>22</v>
       </c>
@@ -4649,7 +4694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B38" s="9" t="s">
         <v>23</v>
       </c>
@@ -4894,8 +4939,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:62" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
+    <row r="40" spans="2:62" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>24</v>
       </c>
@@ -4978,8 +5022,7 @@
         <v>-171.47</v>
       </c>
     </row>
-    <row r="41" spans="1:62" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
+    <row r="41" spans="2:62" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>25</v>
       </c>
@@ -5062,8 +5105,7 @@
         <v>36.200000000000003</v>
       </c>
     </row>
-    <row r="42" spans="1:62" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
+    <row r="42" spans="2:62" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>26</v>
       </c>
@@ -5146,8 +5188,7 @@
         <v>26.472000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:62" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
+    <row r="43" spans="2:62" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>27</v>
       </c>
@@ -5392,8 +5433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:62" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1"/>
+    <row r="45" spans="2:62" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
         <v>28</v>
       </c>
@@ -5477,8 +5517,7 @@
         <v>325.93599999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:62" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
+    <row r="46" spans="2:62" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="12" t="s">
         <v>29</v>
       </c>
@@ -5723,8 +5762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:62" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="1"/>
+    <row r="47" spans="2:62" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="22"/>
       <c r="C47" s="23"/>
       <c r="D47" s="23"/>
@@ -5787,10 +5825,9 @@
       <c r="BI47" s="23"/>
       <c r="BJ47" s="23"/>
     </row>
-    <row r="48" spans="1:62" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
+    <row r="48" spans="2:62" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C48" s="17">
         <f>C40-C41</f>
@@ -5897,10 +5934,9 @@
         <v>-207.67000000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:62" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1"/>
+    <row r="49" spans="2:62" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C49" s="17">
         <f>C45</f>
@@ -6007,10 +6043,9 @@
         <v>325.93599999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:62" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1"/>
+    <row r="50" spans="2:62" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C50" s="25">
         <v>103.36799999999999</v>
@@ -6111,10 +6146,9 @@
         <v>414.65600000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:62" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1"/>
+    <row r="51" spans="2:62" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C51" s="18">
         <f>C46+SUM(C48:C50)</f>
@@ -6357,10 +6391,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:62" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1"/>
+    <row r="52" spans="2:62" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C52" s="11">
         <f>C51/C18</f>
@@ -6603,185 +6636,183 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="54" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:62" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="1"/>
+    <row r="55" spans="2:62" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C55" s="21">
+      <c r="C55" s="29">
         <v>16783.129000000001</v>
       </c>
-      <c r="D55" s="21">
+      <c r="D55" s="29">
         <v>16800.243999999999</v>
       </c>
-      <c r="E55" s="21">
+      <c r="E55" s="29">
         <v>16816.838</v>
       </c>
-      <c r="F55" s="21">
+      <c r="F55" s="29">
         <v>16823.754000000001</v>
       </c>
-      <c r="G55" s="21">
+      <c r="G55" s="29">
         <v>16840.598999999998</v>
       </c>
-      <c r="H55" s="21">
+      <c r="H55" s="29">
         <v>16860.567999999999</v>
       </c>
-      <c r="I55" s="21">
+      <c r="I55" s="29">
         <v>16880.341</v>
       </c>
-      <c r="J55" s="21">
+      <c r="J55" s="29">
         <v>16888.691999999999</v>
       </c>
-      <c r="K55" s="21">
+      <c r="K55" s="29">
         <v>16909.036</v>
       </c>
-      <c r="L55" s="21">
+      <c r="L55" s="29">
         <v>16931.137999999999</v>
       </c>
-      <c r="M55" s="21">
+      <c r="M55" s="29">
         <v>16952.973000000002</v>
       </c>
-      <c r="N55" s="21">
+      <c r="N55" s="29">
         <v>16964.059000000001</v>
       </c>
-      <c r="O55" s="21">
+      <c r="O55" s="29">
         <v>17214.383999999998</v>
       </c>
-      <c r="P55" s="21">
+      <c r="P55" s="29">
         <v>17222.165000000001</v>
       </c>
-      <c r="Q55" s="21">
+      <c r="Q55" s="29">
         <v>17230.386999999999</v>
       </c>
-      <c r="R55" s="21">
+      <c r="R55" s="29">
         <v>17225.422999999999</v>
       </c>
-      <c r="S55" s="21">
+      <c r="S55" s="29">
         <v>17246.371999999999</v>
       </c>
-      <c r="T55" s="21">
+      <c r="T55" s="29">
         <v>17253.745999999999</v>
       </c>
-      <c r="U55" s="21">
+      <c r="U55" s="29">
         <v>17261.348999999998</v>
       </c>
-      <c r="V55" s="21">
+      <c r="V55" s="29">
         <v>17256.75</v>
       </c>
-      <c r="W55" s="21">
+      <c r="W55" s="29">
         <v>17316.766</v>
       </c>
-      <c r="X55" s="21">
+      <c r="X55" s="29">
         <v>17352.34</v>
       </c>
-      <c r="Y55" s="21">
+      <c r="Y55" s="29">
         <v>17576.969000000001</v>
       </c>
-      <c r="Z55" s="21">
+      <c r="Z55" s="29">
         <v>17400.659</v>
       </c>
-      <c r="AA55" s="21">
+      <c r="AA55" s="29">
         <v>17451.362000000001</v>
       </c>
-      <c r="AB55" s="21">
+      <c r="AB55" s="29">
         <v>17456.12</v>
       </c>
     </row>
-    <row r="56" spans="1:62" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1"/>
+    <row r="56" spans="2:62" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C56" s="21">
+      <c r="C56" s="29">
         <v>16783.129000000001</v>
       </c>
-      <c r="D56" s="21">
+      <c r="D56" s="29">
         <v>16800.243999999999</v>
       </c>
-      <c r="E56" s="21">
+      <c r="E56" s="29">
         <v>16816.838</v>
       </c>
-      <c r="F56" s="21">
+      <c r="F56" s="29">
         <v>16823.754000000001</v>
       </c>
-      <c r="G56" s="21">
+      <c r="G56" s="29">
         <v>16840.598999999998</v>
       </c>
-      <c r="H56" s="21">
+      <c r="H56" s="29">
         <v>16875.72</v>
       </c>
-      <c r="I56" s="21">
+      <c r="I56" s="29">
         <v>16978.643</v>
       </c>
-      <c r="J56" s="21">
+      <c r="J56" s="29">
         <v>17074.825000000001</v>
       </c>
-      <c r="K56" s="21">
+      <c r="K56" s="29">
         <v>17081.578000000001</v>
       </c>
-      <c r="L56" s="21">
+      <c r="L56" s="29">
         <v>17123.387999999999</v>
       </c>
-      <c r="M56" s="21">
+      <c r="M56" s="29">
         <v>17087.275000000001</v>
       </c>
-      <c r="N56" s="21">
+      <c r="N56" s="29">
         <v>17164.525000000001</v>
       </c>
-      <c r="O56" s="21">
+      <c r="O56" s="29">
         <v>17216.287</v>
       </c>
-      <c r="P56" s="21">
+      <c r="P56" s="29">
         <v>17223.998</v>
       </c>
-      <c r="Q56" s="21">
+      <c r="Q56" s="29">
         <v>17231.437999999998</v>
       </c>
-      <c r="R56" s="21">
+      <c r="R56" s="29">
         <v>17226.62</v>
       </c>
-      <c r="S56" s="21">
+      <c r="S56" s="29">
         <v>17246.371999999999</v>
       </c>
-      <c r="T56" s="21">
+      <c r="T56" s="29">
         <v>17253.745999999999</v>
       </c>
-      <c r="U56" s="21">
+      <c r="U56" s="29">
         <v>17265.797999999999</v>
       </c>
-      <c r="V56" s="21">
+      <c r="V56" s="29">
         <v>17257.870999999999</v>
       </c>
-      <c r="W56" s="21">
+      <c r="W56" s="29">
         <v>17326.177</v>
       </c>
-      <c r="X56" s="21">
+      <c r="X56" s="29">
         <v>17354.03</v>
       </c>
-      <c r="Y56" s="21">
+      <c r="Y56" s="29">
         <v>17577.588</v>
       </c>
-      <c r="Z56" s="21">
+      <c r="Z56" s="29">
         <v>17451.313999999998</v>
       </c>
-      <c r="AA56" s="21">
+      <c r="AA56" s="29">
         <v>17474.905999999999</v>
       </c>
-      <c r="AB56" s="21">
+      <c r="AB56" s="29">
         <v>17487.526999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="59" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B59" s="16" t="s">
         <v>31</v>
       </c>
@@ -7026,7 +7057,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="60" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B60" s="16" t="s">
         <v>32</v>
       </c>
@@ -7271,9 +7302,797 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="63" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B63" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
+      </c>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3"/>
+      <c r="R63" s="3"/>
+      <c r="S63" s="3"/>
+      <c r="T63" s="3"/>
+      <c r="U63" s="3"/>
+      <c r="V63" s="3"/>
+      <c r="W63" s="3"/>
+      <c r="X63" s="3"/>
+      <c r="Y63" s="3"/>
+      <c r="Z63" s="3"/>
+      <c r="AA63" s="3"/>
+      <c r="AB63" s="3"/>
+      <c r="AC63" s="3"/>
+      <c r="AD63" s="3"/>
+      <c r="AE63" s="3"/>
+      <c r="AF63" s="3"/>
+      <c r="AG63" s="3"/>
+      <c r="AH63" s="3"/>
+      <c r="AI63" s="3"/>
+      <c r="AJ63" s="3"/>
+      <c r="AK63" s="3"/>
+      <c r="AL63" s="3"/>
+      <c r="AM63" s="3"/>
+      <c r="AN63" s="3"/>
+      <c r="AO63" s="3"/>
+      <c r="AP63" s="3"/>
+      <c r="AQ63" s="3"/>
+      <c r="AR63" s="3"/>
+      <c r="AS63" s="3"/>
+      <c r="AT63" s="3"/>
+      <c r="AU63" s="3"/>
+      <c r="AV63" s="3"/>
+      <c r="AW63" s="3"/>
+      <c r="AX63" s="3"/>
+      <c r="AY63" s="3"/>
+      <c r="AZ63" s="3"/>
+      <c r="BA63" s="3"/>
+      <c r="BB63" s="3"/>
+      <c r="BC63" s="3"/>
+      <c r="BD63" s="3"/>
+      <c r="BE63" s="3"/>
+      <c r="BF63" s="3"/>
+      <c r="BG63" s="3"/>
+      <c r="BH63" s="3"/>
+      <c r="BI63" s="3"/>
+      <c r="BJ63" s="3"/>
+    </row>
+    <row r="64" spans="2:62" x14ac:dyDescent="0.25">
+      <c r="B64" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="12"/>
+      <c r="M64" s="12"/>
+      <c r="N64" s="12"/>
+      <c r="O64" s="12"/>
+      <c r="P64" s="12"/>
+      <c r="Q64" s="12"/>
+      <c r="R64" s="12"/>
+      <c r="S64" s="12"/>
+      <c r="T64" s="12"/>
+      <c r="U64" s="12"/>
+      <c r="V64" s="12"/>
+      <c r="W64" s="12"/>
+      <c r="X64" s="12"/>
+      <c r="Y64" s="12"/>
+      <c r="Z64" s="12"/>
+      <c r="AA64" s="12"/>
+      <c r="AB64" s="12"/>
+      <c r="AC64" s="12"/>
+      <c r="AD64" s="12"/>
+      <c r="AE64" s="12"/>
+      <c r="AF64" s="12"/>
+      <c r="AG64" s="12"/>
+      <c r="AH64" s="12"/>
+      <c r="AI64" s="12"/>
+      <c r="AJ64" s="12"/>
+      <c r="AK64" s="12"/>
+      <c r="AL64" s="12"/>
+      <c r="AM64" s="12"/>
+      <c r="AN64" s="12"/>
+      <c r="AO64" s="12"/>
+      <c r="AP64" s="12"/>
+      <c r="AQ64" s="12"/>
+      <c r="AR64" s="12"/>
+      <c r="AS64" s="12"/>
+      <c r="AT64" s="12"/>
+      <c r="AU64" s="12"/>
+      <c r="AV64" s="12"/>
+      <c r="AW64" s="12"/>
+      <c r="AX64" s="12"/>
+      <c r="AY64" s="12"/>
+      <c r="AZ64" s="12"/>
+      <c r="BA64" s="12"/>
+      <c r="BB64" s="12"/>
+      <c r="BC64" s="12"/>
+      <c r="BD64" s="12"/>
+      <c r="BE64" s="12"/>
+      <c r="BF64" s="12"/>
+      <c r="BG64" s="12"/>
+      <c r="BH64" s="12"/>
+      <c r="BI64" s="12"/>
+      <c r="BJ64" s="12"/>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X65" s="26"/>
+      <c r="AA65" s="26"/>
+      <c r="AB65" s="26"/>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X66" s="26"/>
+      <c r="AB66" s="26"/>
+      <c r="AE66" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X67" s="26"/>
+      <c r="AA67" s="26"/>
+      <c r="AE67" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X68" s="26"/>
+      <c r="AE68" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AE69" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B71" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C71" s="8">
+        <f t="shared" ref="C71:AB71" si="176">C72*C18</f>
+        <v>0</v>
+      </c>
+      <c r="D71" s="8">
+        <f t="shared" si="176"/>
+        <v>0</v>
+      </c>
+      <c r="E71" s="8">
+        <f t="shared" si="176"/>
+        <v>0</v>
+      </c>
+      <c r="F71" s="8">
+        <f t="shared" si="176"/>
+        <v>0</v>
+      </c>
+      <c r="G71" s="8">
+        <f t="shared" si="176"/>
+        <v>0</v>
+      </c>
+      <c r="H71" s="8">
+        <f t="shared" si="176"/>
+        <v>0</v>
+      </c>
+      <c r="I71" s="8">
+        <f t="shared" si="176"/>
+        <v>0</v>
+      </c>
+      <c r="J71" s="8">
+        <f t="shared" si="176"/>
+        <v>0</v>
+      </c>
+      <c r="K71" s="8">
+        <f t="shared" si="176"/>
+        <v>0</v>
+      </c>
+      <c r="L71" s="8">
+        <f t="shared" si="176"/>
+        <v>0</v>
+      </c>
+      <c r="M71" s="8">
+        <f t="shared" si="176"/>
+        <v>0</v>
+      </c>
+      <c r="N71" s="8">
+        <f t="shared" si="176"/>
+        <v>0</v>
+      </c>
+      <c r="O71" s="8">
+        <f t="shared" si="176"/>
+        <v>0</v>
+      </c>
+      <c r="P71" s="8">
+        <f t="shared" si="176"/>
+        <v>0</v>
+      </c>
+      <c r="Q71" s="8">
+        <f t="shared" si="176"/>
+        <v>0</v>
+      </c>
+      <c r="R71" s="8">
+        <f t="shared" si="176"/>
+        <v>0</v>
+      </c>
+      <c r="S71" s="8">
+        <f t="shared" si="176"/>
+        <v>0</v>
+      </c>
+      <c r="T71" s="8">
+        <f t="shared" si="176"/>
+        <v>0</v>
+      </c>
+      <c r="U71" s="8">
+        <f t="shared" si="176"/>
+        <v>1872.71352</v>
+      </c>
+      <c r="V71" s="8">
+        <f t="shared" si="176"/>
+        <v>0</v>
+      </c>
+      <c r="W71" s="8">
+        <f t="shared" si="176"/>
+        <v>2476.1772800000003</v>
+      </c>
+      <c r="X71" s="8">
+        <f t="shared" si="176"/>
+        <v>1541.4953399999999</v>
+      </c>
+      <c r="Y71" s="8">
+        <f t="shared" si="176"/>
+        <v>1989.8019999999999</v>
+      </c>
+      <c r="Z71" s="8">
+        <f t="shared" si="176"/>
+        <v>0</v>
+      </c>
+      <c r="AA71" s="8">
+        <f t="shared" si="176"/>
+        <v>2699.3382699999997</v>
+      </c>
+      <c r="AB71" s="8">
+        <f t="shared" si="176"/>
+        <v>3007.06448</v>
+      </c>
+      <c r="AE71" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="U72" s="28">
+        <v>0.27</v>
+      </c>
+      <c r="W72" s="28">
+        <v>0.38</v>
+      </c>
+      <c r="X72" s="28">
+        <v>0.21</v>
+      </c>
+      <c r="Y72" s="28">
+        <v>0.25</v>
+      </c>
+      <c r="AA72" s="28">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AB72" s="28">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B73" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C73" s="8">
+        <f t="shared" ref="C73:AB73" si="177">C74*C18</f>
+        <v>0</v>
+      </c>
+      <c r="D73" s="8">
+        <f t="shared" si="177"/>
+        <v>0</v>
+      </c>
+      <c r="E73" s="8">
+        <f t="shared" si="177"/>
+        <v>0</v>
+      </c>
+      <c r="F73" s="8">
+        <f t="shared" si="177"/>
+        <v>0</v>
+      </c>
+      <c r="G73" s="8">
+        <f t="shared" si="177"/>
+        <v>0</v>
+      </c>
+      <c r="H73" s="8">
+        <f t="shared" si="177"/>
+        <v>0</v>
+      </c>
+      <c r="I73" s="8">
+        <f t="shared" si="177"/>
+        <v>0</v>
+      </c>
+      <c r="J73" s="8">
+        <f t="shared" si="177"/>
+        <v>0</v>
+      </c>
+      <c r="K73" s="8">
+        <f t="shared" si="177"/>
+        <v>0</v>
+      </c>
+      <c r="L73" s="8">
+        <f t="shared" si="177"/>
+        <v>0</v>
+      </c>
+      <c r="M73" s="8">
+        <f t="shared" si="177"/>
+        <v>0</v>
+      </c>
+      <c r="N73" s="8">
+        <f t="shared" si="177"/>
+        <v>0</v>
+      </c>
+      <c r="O73" s="8">
+        <f t="shared" si="177"/>
+        <v>0</v>
+      </c>
+      <c r="P73" s="8">
+        <f t="shared" si="177"/>
+        <v>0</v>
+      </c>
+      <c r="Q73" s="8">
+        <f t="shared" si="177"/>
+        <v>0</v>
+      </c>
+      <c r="R73" s="8">
+        <f t="shared" si="177"/>
+        <v>0</v>
+      </c>
+      <c r="S73" s="8">
+        <f t="shared" si="177"/>
+        <v>0</v>
+      </c>
+      <c r="T73" s="8">
+        <f t="shared" si="177"/>
+        <v>0</v>
+      </c>
+      <c r="U73" s="8">
+        <f t="shared" si="177"/>
+        <v>1109.7561599999999</v>
+      </c>
+      <c r="V73" s="8">
+        <f t="shared" si="177"/>
+        <v>0</v>
+      </c>
+      <c r="W73" s="8">
+        <f t="shared" si="177"/>
+        <v>716.78816000000006</v>
+      </c>
+      <c r="X73" s="8">
+        <f t="shared" si="177"/>
+        <v>734.04539999999997</v>
+      </c>
+      <c r="Y73" s="8">
+        <f t="shared" si="177"/>
+        <v>795.92079999999999</v>
+      </c>
+      <c r="Z73" s="8">
+        <f t="shared" si="177"/>
+        <v>0</v>
+      </c>
+      <c r="AA73" s="8">
+        <f t="shared" si="177"/>
+        <v>0</v>
+      </c>
+      <c r="AB73" s="8">
+        <f t="shared" si="177"/>
+        <v>1825.7177200000001</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="U74" s="28">
+        <v>0.16</v>
+      </c>
+      <c r="W74" s="28">
+        <v>0.11</v>
+      </c>
+      <c r="X74" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="Y74" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="AB74" s="28">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B75" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C75" s="8">
+        <f t="shared" ref="C75:AB75" si="178">C76*C18</f>
+        <v>0</v>
+      </c>
+      <c r="D75" s="8">
+        <f t="shared" si="178"/>
+        <v>0</v>
+      </c>
+      <c r="E75" s="8">
+        <f t="shared" si="178"/>
+        <v>0</v>
+      </c>
+      <c r="F75" s="8">
+        <f t="shared" si="178"/>
+        <v>0</v>
+      </c>
+      <c r="G75" s="8">
+        <f t="shared" si="178"/>
+        <v>0</v>
+      </c>
+      <c r="H75" s="8">
+        <f t="shared" si="178"/>
+        <v>0</v>
+      </c>
+      <c r="I75" s="8">
+        <f t="shared" si="178"/>
+        <v>0</v>
+      </c>
+      <c r="J75" s="8">
+        <f t="shared" si="178"/>
+        <v>0</v>
+      </c>
+      <c r="K75" s="8">
+        <f t="shared" si="178"/>
+        <v>0</v>
+      </c>
+      <c r="L75" s="8">
+        <f t="shared" si="178"/>
+        <v>0</v>
+      </c>
+      <c r="M75" s="8">
+        <f t="shared" si="178"/>
+        <v>0</v>
+      </c>
+      <c r="N75" s="8">
+        <f t="shared" si="178"/>
+        <v>0</v>
+      </c>
+      <c r="O75" s="8">
+        <f t="shared" si="178"/>
+        <v>0</v>
+      </c>
+      <c r="P75" s="8">
+        <f t="shared" si="178"/>
+        <v>0</v>
+      </c>
+      <c r="Q75" s="8">
+        <f t="shared" si="178"/>
+        <v>0</v>
+      </c>
+      <c r="R75" s="8">
+        <f t="shared" si="178"/>
+        <v>0</v>
+      </c>
+      <c r="S75" s="8">
+        <f t="shared" si="178"/>
+        <v>0</v>
+      </c>
+      <c r="T75" s="8">
+        <f t="shared" si="178"/>
+        <v>0</v>
+      </c>
+      <c r="U75" s="8">
+        <f t="shared" si="178"/>
+        <v>0</v>
+      </c>
+      <c r="V75" s="8">
+        <f t="shared" si="178"/>
+        <v>0</v>
+      </c>
+      <c r="W75" s="8">
+        <f t="shared" si="178"/>
+        <v>0</v>
+      </c>
+      <c r="X75" s="8">
+        <f t="shared" si="178"/>
+        <v>1321.28172</v>
+      </c>
+      <c r="Y75" s="8">
+        <f t="shared" si="178"/>
+        <v>0</v>
+      </c>
+      <c r="Z75" s="8">
+        <f t="shared" si="178"/>
+        <v>0</v>
+      </c>
+      <c r="AA75" s="8">
+        <f t="shared" si="178"/>
+        <v>0</v>
+      </c>
+      <c r="AB75" s="8">
+        <f t="shared" si="178"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="X76" s="28">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B77" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C77" s="8">
+        <f t="shared" ref="C77:AB77" si="179">C78*C18</f>
+        <v>0</v>
+      </c>
+      <c r="D77" s="8">
+        <f t="shared" si="179"/>
+        <v>0</v>
+      </c>
+      <c r="E77" s="8">
+        <f t="shared" si="179"/>
+        <v>0</v>
+      </c>
+      <c r="F77" s="8">
+        <f t="shared" si="179"/>
+        <v>0</v>
+      </c>
+      <c r="G77" s="8">
+        <f t="shared" si="179"/>
+        <v>0</v>
+      </c>
+      <c r="H77" s="8">
+        <f t="shared" si="179"/>
+        <v>0</v>
+      </c>
+      <c r="I77" s="8">
+        <f t="shared" si="179"/>
+        <v>0</v>
+      </c>
+      <c r="J77" s="8">
+        <f t="shared" si="179"/>
+        <v>0</v>
+      </c>
+      <c r="K77" s="8">
+        <f t="shared" si="179"/>
+        <v>0</v>
+      </c>
+      <c r="L77" s="8">
+        <f t="shared" si="179"/>
+        <v>0</v>
+      </c>
+      <c r="M77" s="8">
+        <f t="shared" si="179"/>
+        <v>0</v>
+      </c>
+      <c r="N77" s="8">
+        <f t="shared" si="179"/>
+        <v>0</v>
+      </c>
+      <c r="O77" s="8">
+        <f t="shared" si="179"/>
+        <v>0</v>
+      </c>
+      <c r="P77" s="8">
+        <f t="shared" si="179"/>
+        <v>0</v>
+      </c>
+      <c r="Q77" s="8">
+        <f t="shared" si="179"/>
+        <v>0</v>
+      </c>
+      <c r="R77" s="8">
+        <f t="shared" si="179"/>
+        <v>0</v>
+      </c>
+      <c r="S77" s="8">
+        <f t="shared" si="179"/>
+        <v>0</v>
+      </c>
+      <c r="T77" s="8">
+        <f t="shared" si="179"/>
+        <v>0</v>
+      </c>
+      <c r="U77" s="8">
+        <f t="shared" si="179"/>
+        <v>0</v>
+      </c>
+      <c r="V77" s="8">
+        <f t="shared" si="179"/>
+        <v>0</v>
+      </c>
+      <c r="W77" s="8">
+        <f t="shared" si="179"/>
+        <v>847.11328000000003</v>
+      </c>
+      <c r="X77" s="8">
+        <f t="shared" si="179"/>
+        <v>1174.47264</v>
+      </c>
+      <c r="Y77" s="8">
+        <f t="shared" si="179"/>
+        <v>1910.2099199999998</v>
+      </c>
+      <c r="Z77" s="8">
+        <f t="shared" si="179"/>
+        <v>0</v>
+      </c>
+      <c r="AA77" s="8">
+        <f t="shared" si="179"/>
+        <v>0</v>
+      </c>
+      <c r="AB77" s="8">
+        <f t="shared" si="179"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:31" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="W78" s="28">
+        <v>0.13</v>
+      </c>
+      <c r="X78" s="28">
+        <v>0.16</v>
+      </c>
+      <c r="Y78" s="28">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B79" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C79" s="8">
+        <f t="shared" ref="C79:AB79" si="180">C80*C18</f>
+        <v>0</v>
+      </c>
+      <c r="D79" s="8">
+        <f t="shared" si="180"/>
+        <v>0</v>
+      </c>
+      <c r="E79" s="8">
+        <f t="shared" si="180"/>
+        <v>0</v>
+      </c>
+      <c r="F79" s="8">
+        <f t="shared" si="180"/>
+        <v>0</v>
+      </c>
+      <c r="G79" s="8">
+        <f t="shared" si="180"/>
+        <v>0</v>
+      </c>
+      <c r="H79" s="8">
+        <f t="shared" si="180"/>
+        <v>0</v>
+      </c>
+      <c r="I79" s="8">
+        <f t="shared" si="180"/>
+        <v>0</v>
+      </c>
+      <c r="J79" s="8">
+        <f t="shared" si="180"/>
+        <v>0</v>
+      </c>
+      <c r="K79" s="8">
+        <f t="shared" si="180"/>
+        <v>0</v>
+      </c>
+      <c r="L79" s="8">
+        <f t="shared" si="180"/>
+        <v>0</v>
+      </c>
+      <c r="M79" s="8">
+        <f t="shared" si="180"/>
+        <v>0</v>
+      </c>
+      <c r="N79" s="8">
+        <f t="shared" si="180"/>
+        <v>0</v>
+      </c>
+      <c r="O79" s="8">
+        <f t="shared" si="180"/>
+        <v>0</v>
+      </c>
+      <c r="P79" s="8">
+        <f t="shared" si="180"/>
+        <v>0</v>
+      </c>
+      <c r="Q79" s="8">
+        <f t="shared" si="180"/>
+        <v>0</v>
+      </c>
+      <c r="R79" s="8">
+        <f t="shared" si="180"/>
+        <v>0</v>
+      </c>
+      <c r="S79" s="8">
+        <f t="shared" si="180"/>
+        <v>0</v>
+      </c>
+      <c r="T79" s="8">
+        <f t="shared" si="180"/>
+        <v>0</v>
+      </c>
+      <c r="U79" s="8">
+        <f t="shared" si="180"/>
+        <v>971.03664000000003</v>
+      </c>
+      <c r="V79" s="8">
+        <f t="shared" si="180"/>
+        <v>0</v>
+      </c>
+      <c r="W79" s="8">
+        <f t="shared" si="180"/>
+        <v>0</v>
+      </c>
+      <c r="X79" s="8">
+        <f t="shared" si="180"/>
+        <v>0</v>
+      </c>
+      <c r="Y79" s="8">
+        <f t="shared" si="180"/>
+        <v>0</v>
+      </c>
+      <c r="Z79" s="8">
+        <f t="shared" si="180"/>
+        <v>0</v>
+      </c>
+      <c r="AA79" s="8">
+        <f t="shared" si="180"/>
+        <v>0</v>
+      </c>
+      <c r="AB79" s="8">
+        <f t="shared" si="180"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:31" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="U80" s="28">
+        <v>0.14000000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/ISSC/4. Model/ISSC_Valuation_Model_20240522_v1.xlsx
+++ b/ISSC/4. Model/ISSC_Valuation_Model_20240522_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Desktop\ER\ISSC\4. Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A32A26-563B-4C05-819D-B07CC6CE4C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263C1CDD-6B50-477E-80BA-34C7CA41469E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{81AE2BAB-5DCF-4ACF-AB76-A5C9ECDD0E8C}"/>
   </bookViews>
@@ -770,13 +770,13 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="B2:BJ80"/>
+  <dimension ref="B2:BJ83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="O13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="12" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="U14" sqref="U14"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7441,657 +7441,670 @@
       <c r="AB65" s="26"/>
     </row>
     <row r="66" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B66" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="X66" s="26"/>
+      <c r="AA66" s="26"/>
       <c r="AB66" s="26"/>
-      <c r="AE66" s="1" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="67" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="X67" s="26"/>
-      <c r="AA67" s="26"/>
+      <c r="AB67" s="26"/>
       <c r="AE67" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="68" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B68" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="X68" s="26"/>
-      <c r="AE68" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="AB68" s="26"/>
     </row>
     <row r="69" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X69" s="26"/>
+      <c r="AA69" s="26"/>
       <c r="AE69" s="1" t="s">
-        <v>54</v>
-      </c>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="X70" s="26"/>
+      <c r="AA70" s="26"/>
     </row>
     <row r="71" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X71" s="26"/>
+      <c r="AE71" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AE72" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B74" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C71" s="8">
-        <f t="shared" ref="C71:AB71" si="176">C72*C18</f>
-        <v>0</v>
-      </c>
-      <c r="D71" s="8">
-        <f t="shared" si="176"/>
-        <v>0</v>
-      </c>
-      <c r="E71" s="8">
-        <f t="shared" si="176"/>
-        <v>0</v>
-      </c>
-      <c r="F71" s="8">
-        <f t="shared" si="176"/>
-        <v>0</v>
-      </c>
-      <c r="G71" s="8">
-        <f t="shared" si="176"/>
-        <v>0</v>
-      </c>
-      <c r="H71" s="8">
-        <f t="shared" si="176"/>
-        <v>0</v>
-      </c>
-      <c r="I71" s="8">
-        <f t="shared" si="176"/>
-        <v>0</v>
-      </c>
-      <c r="J71" s="8">
-        <f t="shared" si="176"/>
-        <v>0</v>
-      </c>
-      <c r="K71" s="8">
-        <f t="shared" si="176"/>
-        <v>0</v>
-      </c>
-      <c r="L71" s="8">
-        <f t="shared" si="176"/>
-        <v>0</v>
-      </c>
-      <c r="M71" s="8">
-        <f t="shared" si="176"/>
-        <v>0</v>
-      </c>
-      <c r="N71" s="8">
-        <f t="shared" si="176"/>
-        <v>0</v>
-      </c>
-      <c r="O71" s="8">
-        <f t="shared" si="176"/>
-        <v>0</v>
-      </c>
-      <c r="P71" s="8">
-        <f t="shared" si="176"/>
-        <v>0</v>
-      </c>
-      <c r="Q71" s="8">
-        <f t="shared" si="176"/>
-        <v>0</v>
-      </c>
-      <c r="R71" s="8">
-        <f t="shared" si="176"/>
-        <v>0</v>
-      </c>
-      <c r="S71" s="8">
-        <f t="shared" si="176"/>
-        <v>0</v>
-      </c>
-      <c r="T71" s="8">
-        <f t="shared" si="176"/>
-        <v>0</v>
-      </c>
-      <c r="U71" s="8">
-        <f t="shared" si="176"/>
+      <c r="C74" s="8">
+        <f>C75*C18</f>
+        <v>0</v>
+      </c>
+      <c r="D74" s="8">
+        <f>D75*D18</f>
+        <v>0</v>
+      </c>
+      <c r="E74" s="8">
+        <f>E75*E18</f>
+        <v>0</v>
+      </c>
+      <c r="F74" s="8">
+        <f>F75*F18</f>
+        <v>0</v>
+      </c>
+      <c r="G74" s="8">
+        <f>G75*G18</f>
+        <v>0</v>
+      </c>
+      <c r="H74" s="8">
+        <f>H75*H18</f>
+        <v>0</v>
+      </c>
+      <c r="I74" s="8">
+        <f>I75*I18</f>
+        <v>0</v>
+      </c>
+      <c r="J74" s="8">
+        <f>J75*J18</f>
+        <v>0</v>
+      </c>
+      <c r="K74" s="8">
+        <f>K75*K18</f>
+        <v>0</v>
+      </c>
+      <c r="L74" s="8">
+        <f>L75*L18</f>
+        <v>0</v>
+      </c>
+      <c r="M74" s="8">
+        <f>M75*M18</f>
+        <v>0</v>
+      </c>
+      <c r="N74" s="8">
+        <f>N75*N18</f>
+        <v>0</v>
+      </c>
+      <c r="O74" s="8">
+        <f>O75*O18</f>
+        <v>0</v>
+      </c>
+      <c r="P74" s="8">
+        <f>P75*P18</f>
+        <v>0</v>
+      </c>
+      <c r="Q74" s="8">
+        <f>Q75*Q18</f>
+        <v>0</v>
+      </c>
+      <c r="R74" s="8">
+        <f>R75*R18</f>
+        <v>0</v>
+      </c>
+      <c r="S74" s="8">
+        <f>S75*S18</f>
+        <v>0</v>
+      </c>
+      <c r="T74" s="8">
+        <f>T75*T18</f>
+        <v>0</v>
+      </c>
+      <c r="U74" s="8">
+        <f>U75*U18</f>
         <v>1872.71352</v>
       </c>
-      <c r="V71" s="8">
-        <f t="shared" si="176"/>
-        <v>0</v>
-      </c>
-      <c r="W71" s="8">
-        <f t="shared" si="176"/>
+      <c r="V74" s="8">
+        <f>V75*V18</f>
+        <v>0</v>
+      </c>
+      <c r="W74" s="8">
+        <f>W75*W18</f>
         <v>2476.1772800000003</v>
       </c>
-      <c r="X71" s="8">
-        <f t="shared" si="176"/>
+      <c r="X74" s="8">
+        <f>X75*X18</f>
         <v>1541.4953399999999</v>
       </c>
-      <c r="Y71" s="8">
-        <f t="shared" si="176"/>
+      <c r="Y74" s="8">
+        <f>Y75*Y18</f>
         <v>1989.8019999999999</v>
       </c>
-      <c r="Z71" s="8">
-        <f t="shared" si="176"/>
-        <v>0</v>
-      </c>
-      <c r="AA71" s="8">
-        <f t="shared" si="176"/>
+      <c r="Z74" s="8">
+        <f>Z75*Z18</f>
+        <v>0</v>
+      </c>
+      <c r="AA74" s="8">
+        <f>AA75*AA18</f>
         <v>2699.3382699999997</v>
       </c>
-      <c r="AB71" s="8">
-        <f t="shared" si="176"/>
+      <c r="AB74" s="8">
+        <f>AB75*AB18</f>
         <v>3007.06448</v>
       </c>
-      <c r="AE71" s="1" t="s">
+      <c r="AE74" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="72" spans="2:31" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="9" t="s">
+    <row r="75" spans="2:31" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="U72" s="28">
+      <c r="U75" s="28">
         <v>0.27</v>
       </c>
-      <c r="W72" s="28">
+      <c r="W75" s="28">
         <v>0.38</v>
       </c>
-      <c r="X72" s="28">
+      <c r="X75" s="28">
         <v>0.21</v>
       </c>
-      <c r="Y72" s="28">
+      <c r="Y75" s="28">
         <v>0.25</v>
       </c>
-      <c r="AA72" s="28">
+      <c r="AA75" s="28">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AB72" s="28">
+      <c r="AB75" s="28">
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B73" s="1" t="s">
+    <row r="76" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B76" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C73" s="8">
-        <f t="shared" ref="C73:AB73" si="177">C74*C18</f>
-        <v>0</v>
-      </c>
-      <c r="D73" s="8">
-        <f t="shared" si="177"/>
-        <v>0</v>
-      </c>
-      <c r="E73" s="8">
-        <f t="shared" si="177"/>
-        <v>0</v>
-      </c>
-      <c r="F73" s="8">
-        <f t="shared" si="177"/>
-        <v>0</v>
-      </c>
-      <c r="G73" s="8">
-        <f t="shared" si="177"/>
-        <v>0</v>
-      </c>
-      <c r="H73" s="8">
-        <f t="shared" si="177"/>
-        <v>0</v>
-      </c>
-      <c r="I73" s="8">
-        <f t="shared" si="177"/>
-        <v>0</v>
-      </c>
-      <c r="J73" s="8">
-        <f t="shared" si="177"/>
-        <v>0</v>
-      </c>
-      <c r="K73" s="8">
-        <f t="shared" si="177"/>
-        <v>0</v>
-      </c>
-      <c r="L73" s="8">
-        <f t="shared" si="177"/>
-        <v>0</v>
-      </c>
-      <c r="M73" s="8">
-        <f t="shared" si="177"/>
-        <v>0</v>
-      </c>
-      <c r="N73" s="8">
-        <f t="shared" si="177"/>
-        <v>0</v>
-      </c>
-      <c r="O73" s="8">
-        <f t="shared" si="177"/>
-        <v>0</v>
-      </c>
-      <c r="P73" s="8">
-        <f t="shared" si="177"/>
-        <v>0</v>
-      </c>
-      <c r="Q73" s="8">
-        <f t="shared" si="177"/>
-        <v>0</v>
-      </c>
-      <c r="R73" s="8">
-        <f t="shared" si="177"/>
-        <v>0</v>
-      </c>
-      <c r="S73" s="8">
-        <f t="shared" si="177"/>
-        <v>0</v>
-      </c>
-      <c r="T73" s="8">
-        <f t="shared" si="177"/>
-        <v>0</v>
-      </c>
-      <c r="U73" s="8">
-        <f t="shared" si="177"/>
+      <c r="C76" s="8">
+        <f>C77*C18</f>
+        <v>0</v>
+      </c>
+      <c r="D76" s="8">
+        <f>D77*D18</f>
+        <v>0</v>
+      </c>
+      <c r="E76" s="8">
+        <f>E77*E18</f>
+        <v>0</v>
+      </c>
+      <c r="F76" s="8">
+        <f>F77*F18</f>
+        <v>0</v>
+      </c>
+      <c r="G76" s="8">
+        <f>G77*G18</f>
+        <v>0</v>
+      </c>
+      <c r="H76" s="8">
+        <f>H77*H18</f>
+        <v>0</v>
+      </c>
+      <c r="I76" s="8">
+        <f>I77*I18</f>
+        <v>0</v>
+      </c>
+      <c r="J76" s="8">
+        <f>J77*J18</f>
+        <v>0</v>
+      </c>
+      <c r="K76" s="8">
+        <f>K77*K18</f>
+        <v>0</v>
+      </c>
+      <c r="L76" s="8">
+        <f>L77*L18</f>
+        <v>0</v>
+      </c>
+      <c r="M76" s="8">
+        <f>M77*M18</f>
+        <v>0</v>
+      </c>
+      <c r="N76" s="8">
+        <f>N77*N18</f>
+        <v>0</v>
+      </c>
+      <c r="O76" s="8">
+        <f>O77*O18</f>
+        <v>0</v>
+      </c>
+      <c r="P76" s="8">
+        <f>P77*P18</f>
+        <v>0</v>
+      </c>
+      <c r="Q76" s="8">
+        <f>Q77*Q18</f>
+        <v>0</v>
+      </c>
+      <c r="R76" s="8">
+        <f>R77*R18</f>
+        <v>0</v>
+      </c>
+      <c r="S76" s="8">
+        <f>S77*S18</f>
+        <v>0</v>
+      </c>
+      <c r="T76" s="8">
+        <f>T77*T18</f>
+        <v>0</v>
+      </c>
+      <c r="U76" s="8">
+        <f>U77*U18</f>
         <v>1109.7561599999999</v>
       </c>
-      <c r="V73" s="8">
-        <f t="shared" si="177"/>
-        <v>0</v>
-      </c>
-      <c r="W73" s="8">
-        <f t="shared" si="177"/>
+      <c r="V76" s="8">
+        <f>V77*V18</f>
+        <v>0</v>
+      </c>
+      <c r="W76" s="8">
+        <f>W77*W18</f>
         <v>716.78816000000006</v>
       </c>
-      <c r="X73" s="8">
-        <f t="shared" si="177"/>
+      <c r="X76" s="8">
+        <f>X77*X18</f>
         <v>734.04539999999997</v>
       </c>
-      <c r="Y73" s="8">
-        <f t="shared" si="177"/>
+      <c r="Y76" s="8">
+        <f>Y77*Y18</f>
         <v>795.92079999999999</v>
       </c>
-      <c r="Z73" s="8">
-        <f t="shared" si="177"/>
-        <v>0</v>
-      </c>
-      <c r="AA73" s="8">
-        <f t="shared" si="177"/>
-        <v>0</v>
-      </c>
-      <c r="AB73" s="8">
-        <f t="shared" si="177"/>
+      <c r="Z76" s="8">
+        <f>Z77*Z18</f>
+        <v>0</v>
+      </c>
+      <c r="AA76" s="8">
+        <f>AA77*AA18</f>
+        <v>0</v>
+      </c>
+      <c r="AB76" s="8">
+        <f>AB77*AB18</f>
         <v>1825.7177200000001</v>
       </c>
     </row>
-    <row r="74" spans="2:31" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="9" t="s">
+    <row r="77" spans="2:31" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="U74" s="28">
+      <c r="U77" s="28">
         <v>0.16</v>
       </c>
-      <c r="W74" s="28">
+      <c r="W77" s="28">
         <v>0.11</v>
       </c>
-      <c r="X74" s="28">
+      <c r="X77" s="28">
         <v>0.1</v>
       </c>
-      <c r="Y74" s="28">
+      <c r="Y77" s="28">
         <v>0.1</v>
       </c>
-      <c r="AB74" s="28">
+      <c r="AB77" s="28">
         <v>0.17</v>
       </c>
     </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B75" s="1" t="s">
+    <row r="78" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B78" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C75" s="8">
-        <f t="shared" ref="C75:AB75" si="178">C76*C18</f>
-        <v>0</v>
-      </c>
-      <c r="D75" s="8">
-        <f t="shared" si="178"/>
-        <v>0</v>
-      </c>
-      <c r="E75" s="8">
-        <f t="shared" si="178"/>
-        <v>0</v>
-      </c>
-      <c r="F75" s="8">
-        <f t="shared" si="178"/>
-        <v>0</v>
-      </c>
-      <c r="G75" s="8">
-        <f t="shared" si="178"/>
-        <v>0</v>
-      </c>
-      <c r="H75" s="8">
-        <f t="shared" si="178"/>
-        <v>0</v>
-      </c>
-      <c r="I75" s="8">
-        <f t="shared" si="178"/>
-        <v>0</v>
-      </c>
-      <c r="J75" s="8">
-        <f t="shared" si="178"/>
-        <v>0</v>
-      </c>
-      <c r="K75" s="8">
-        <f t="shared" si="178"/>
-        <v>0</v>
-      </c>
-      <c r="L75" s="8">
-        <f t="shared" si="178"/>
-        <v>0</v>
-      </c>
-      <c r="M75" s="8">
-        <f t="shared" si="178"/>
-        <v>0</v>
-      </c>
-      <c r="N75" s="8">
-        <f t="shared" si="178"/>
-        <v>0</v>
-      </c>
-      <c r="O75" s="8">
-        <f t="shared" si="178"/>
-        <v>0</v>
-      </c>
-      <c r="P75" s="8">
-        <f t="shared" si="178"/>
-        <v>0</v>
-      </c>
-      <c r="Q75" s="8">
-        <f t="shared" si="178"/>
-        <v>0</v>
-      </c>
-      <c r="R75" s="8">
-        <f t="shared" si="178"/>
-        <v>0</v>
-      </c>
-      <c r="S75" s="8">
-        <f t="shared" si="178"/>
-        <v>0</v>
-      </c>
-      <c r="T75" s="8">
-        <f t="shared" si="178"/>
-        <v>0</v>
-      </c>
-      <c r="U75" s="8">
-        <f t="shared" si="178"/>
-        <v>0</v>
-      </c>
-      <c r="V75" s="8">
-        <f t="shared" si="178"/>
-        <v>0</v>
-      </c>
-      <c r="W75" s="8">
-        <f t="shared" si="178"/>
-        <v>0</v>
-      </c>
-      <c r="X75" s="8">
-        <f t="shared" si="178"/>
+      <c r="C78" s="8">
+        <f>C79*C18</f>
+        <v>0</v>
+      </c>
+      <c r="D78" s="8">
+        <f>D79*D18</f>
+        <v>0</v>
+      </c>
+      <c r="E78" s="8">
+        <f>E79*E18</f>
+        <v>0</v>
+      </c>
+      <c r="F78" s="8">
+        <f>F79*F18</f>
+        <v>0</v>
+      </c>
+      <c r="G78" s="8">
+        <f>G79*G18</f>
+        <v>0</v>
+      </c>
+      <c r="H78" s="8">
+        <f>H79*H18</f>
+        <v>0</v>
+      </c>
+      <c r="I78" s="8">
+        <f>I79*I18</f>
+        <v>0</v>
+      </c>
+      <c r="J78" s="8">
+        <f>J79*J18</f>
+        <v>0</v>
+      </c>
+      <c r="K78" s="8">
+        <f>K79*K18</f>
+        <v>0</v>
+      </c>
+      <c r="L78" s="8">
+        <f>L79*L18</f>
+        <v>0</v>
+      </c>
+      <c r="M78" s="8">
+        <f>M79*M18</f>
+        <v>0</v>
+      </c>
+      <c r="N78" s="8">
+        <f>N79*N18</f>
+        <v>0</v>
+      </c>
+      <c r="O78" s="8">
+        <f>O79*O18</f>
+        <v>0</v>
+      </c>
+      <c r="P78" s="8">
+        <f>P79*P18</f>
+        <v>0</v>
+      </c>
+      <c r="Q78" s="8">
+        <f>Q79*Q18</f>
+        <v>0</v>
+      </c>
+      <c r="R78" s="8">
+        <f>R79*R18</f>
+        <v>0</v>
+      </c>
+      <c r="S78" s="8">
+        <f>S79*S18</f>
+        <v>0</v>
+      </c>
+      <c r="T78" s="8">
+        <f>T79*T18</f>
+        <v>0</v>
+      </c>
+      <c r="U78" s="8">
+        <f>U79*U18</f>
+        <v>0</v>
+      </c>
+      <c r="V78" s="8">
+        <f>V79*V18</f>
+        <v>0</v>
+      </c>
+      <c r="W78" s="8">
+        <f>W79*W18</f>
+        <v>0</v>
+      </c>
+      <c r="X78" s="8">
+        <f>X79*X18</f>
         <v>1321.28172</v>
       </c>
-      <c r="Y75" s="8">
-        <f t="shared" si="178"/>
-        <v>0</v>
-      </c>
-      <c r="Z75" s="8">
-        <f t="shared" si="178"/>
-        <v>0</v>
-      </c>
-      <c r="AA75" s="8">
-        <f t="shared" si="178"/>
-        <v>0</v>
-      </c>
-      <c r="AB75" s="8">
-        <f t="shared" si="178"/>
+      <c r="Y78" s="8">
+        <f>Y79*Y18</f>
+        <v>0</v>
+      </c>
+      <c r="Z78" s="8">
+        <f>Z79*Z18</f>
+        <v>0</v>
+      </c>
+      <c r="AA78" s="8">
+        <f>AA79*AA18</f>
+        <v>0</v>
+      </c>
+      <c r="AB78" s="8">
+        <f>AB79*AB18</f>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:31" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="9" t="s">
+    <row r="79" spans="2:31" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="X76" s="28">
+      <c r="X79" s="28">
         <v>0.18</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B77" s="1" t="s">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B80" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C77" s="8">
-        <f t="shared" ref="C77:AB77" si="179">C78*C18</f>
-        <v>0</v>
-      </c>
-      <c r="D77" s="8">
-        <f t="shared" si="179"/>
-        <v>0</v>
-      </c>
-      <c r="E77" s="8">
-        <f t="shared" si="179"/>
-        <v>0</v>
-      </c>
-      <c r="F77" s="8">
-        <f t="shared" si="179"/>
-        <v>0</v>
-      </c>
-      <c r="G77" s="8">
-        <f t="shared" si="179"/>
-        <v>0</v>
-      </c>
-      <c r="H77" s="8">
-        <f t="shared" si="179"/>
-        <v>0</v>
-      </c>
-      <c r="I77" s="8">
-        <f t="shared" si="179"/>
-        <v>0</v>
-      </c>
-      <c r="J77" s="8">
-        <f t="shared" si="179"/>
-        <v>0</v>
-      </c>
-      <c r="K77" s="8">
-        <f t="shared" si="179"/>
-        <v>0</v>
-      </c>
-      <c r="L77" s="8">
-        <f t="shared" si="179"/>
-        <v>0</v>
-      </c>
-      <c r="M77" s="8">
-        <f t="shared" si="179"/>
-        <v>0</v>
-      </c>
-      <c r="N77" s="8">
-        <f t="shared" si="179"/>
-        <v>0</v>
-      </c>
-      <c r="O77" s="8">
-        <f t="shared" si="179"/>
-        <v>0</v>
-      </c>
-      <c r="P77" s="8">
-        <f t="shared" si="179"/>
-        <v>0</v>
-      </c>
-      <c r="Q77" s="8">
-        <f t="shared" si="179"/>
-        <v>0</v>
-      </c>
-      <c r="R77" s="8">
-        <f t="shared" si="179"/>
-        <v>0</v>
-      </c>
-      <c r="S77" s="8">
-        <f t="shared" si="179"/>
-        <v>0</v>
-      </c>
-      <c r="T77" s="8">
-        <f t="shared" si="179"/>
-        <v>0</v>
-      </c>
-      <c r="U77" s="8">
-        <f t="shared" si="179"/>
-        <v>0</v>
-      </c>
-      <c r="V77" s="8">
-        <f t="shared" si="179"/>
-        <v>0</v>
-      </c>
-      <c r="W77" s="8">
-        <f t="shared" si="179"/>
+      <c r="C80" s="8">
+        <f>C81*C18</f>
+        <v>0</v>
+      </c>
+      <c r="D80" s="8">
+        <f>D81*D18</f>
+        <v>0</v>
+      </c>
+      <c r="E80" s="8">
+        <f>E81*E18</f>
+        <v>0</v>
+      </c>
+      <c r="F80" s="8">
+        <f>F81*F18</f>
+        <v>0</v>
+      </c>
+      <c r="G80" s="8">
+        <f>G81*G18</f>
+        <v>0</v>
+      </c>
+      <c r="H80" s="8">
+        <f>H81*H18</f>
+        <v>0</v>
+      </c>
+      <c r="I80" s="8">
+        <f>I81*I18</f>
+        <v>0</v>
+      </c>
+      <c r="J80" s="8">
+        <f>J81*J18</f>
+        <v>0</v>
+      </c>
+      <c r="K80" s="8">
+        <f>K81*K18</f>
+        <v>0</v>
+      </c>
+      <c r="L80" s="8">
+        <f>L81*L18</f>
+        <v>0</v>
+      </c>
+      <c r="M80" s="8">
+        <f>M81*M18</f>
+        <v>0</v>
+      </c>
+      <c r="N80" s="8">
+        <f>N81*N18</f>
+        <v>0</v>
+      </c>
+      <c r="O80" s="8">
+        <f>O81*O18</f>
+        <v>0</v>
+      </c>
+      <c r="P80" s="8">
+        <f>P81*P18</f>
+        <v>0</v>
+      </c>
+      <c r="Q80" s="8">
+        <f>Q81*Q18</f>
+        <v>0</v>
+      </c>
+      <c r="R80" s="8">
+        <f>R81*R18</f>
+        <v>0</v>
+      </c>
+      <c r="S80" s="8">
+        <f>S81*S18</f>
+        <v>0</v>
+      </c>
+      <c r="T80" s="8">
+        <f>T81*T18</f>
+        <v>0</v>
+      </c>
+      <c r="U80" s="8">
+        <f>U81*U18</f>
+        <v>0</v>
+      </c>
+      <c r="V80" s="8">
+        <f>V81*V18</f>
+        <v>0</v>
+      </c>
+      <c r="W80" s="8">
+        <f>W81*W18</f>
         <v>847.11328000000003</v>
       </c>
-      <c r="X77" s="8">
-        <f t="shared" si="179"/>
+      <c r="X80" s="8">
+        <f>X81*X18</f>
         <v>1174.47264</v>
       </c>
-      <c r="Y77" s="8">
-        <f t="shared" si="179"/>
+      <c r="Y80" s="8">
+        <f>Y81*Y18</f>
         <v>1910.2099199999998</v>
       </c>
-      <c r="Z77" s="8">
-        <f t="shared" si="179"/>
-        <v>0</v>
-      </c>
-      <c r="AA77" s="8">
-        <f t="shared" si="179"/>
-        <v>0</v>
-      </c>
-      <c r="AB77" s="8">
-        <f t="shared" si="179"/>
+      <c r="Z80" s="8">
+        <f>Z81*Z18</f>
+        <v>0</v>
+      </c>
+      <c r="AA80" s="8">
+        <f>AA81*AA18</f>
+        <v>0</v>
+      </c>
+      <c r="AB80" s="8">
+        <f>AB81*AB18</f>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:31" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="9" t="s">
+    <row r="81" spans="2:28" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="W78" s="28">
+      <c r="W81" s="28">
         <v>0.13</v>
       </c>
-      <c r="X78" s="28">
+      <c r="X81" s="28">
         <v>0.16</v>
       </c>
-      <c r="Y78" s="28">
+      <c r="Y81" s="28">
         <v>0.24</v>
       </c>
     </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B79" s="1" t="s">
+    <row r="82" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B82" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C79" s="8">
-        <f t="shared" ref="C79:AB79" si="180">C80*C18</f>
-        <v>0</v>
-      </c>
-      <c r="D79" s="8">
-        <f t="shared" si="180"/>
-        <v>0</v>
-      </c>
-      <c r="E79" s="8">
-        <f t="shared" si="180"/>
-        <v>0</v>
-      </c>
-      <c r="F79" s="8">
-        <f t="shared" si="180"/>
-        <v>0</v>
-      </c>
-      <c r="G79" s="8">
-        <f t="shared" si="180"/>
-        <v>0</v>
-      </c>
-      <c r="H79" s="8">
-        <f t="shared" si="180"/>
-        <v>0</v>
-      </c>
-      <c r="I79" s="8">
-        <f t="shared" si="180"/>
-        <v>0</v>
-      </c>
-      <c r="J79" s="8">
-        <f t="shared" si="180"/>
-        <v>0</v>
-      </c>
-      <c r="K79" s="8">
-        <f t="shared" si="180"/>
-        <v>0</v>
-      </c>
-      <c r="L79" s="8">
-        <f t="shared" si="180"/>
-        <v>0</v>
-      </c>
-      <c r="M79" s="8">
-        <f t="shared" si="180"/>
-        <v>0</v>
-      </c>
-      <c r="N79" s="8">
-        <f t="shared" si="180"/>
-        <v>0</v>
-      </c>
-      <c r="O79" s="8">
-        <f t="shared" si="180"/>
-        <v>0</v>
-      </c>
-      <c r="P79" s="8">
-        <f t="shared" si="180"/>
-        <v>0</v>
-      </c>
-      <c r="Q79" s="8">
-        <f t="shared" si="180"/>
-        <v>0</v>
-      </c>
-      <c r="R79" s="8">
-        <f t="shared" si="180"/>
-        <v>0</v>
-      </c>
-      <c r="S79" s="8">
-        <f t="shared" si="180"/>
-        <v>0</v>
-      </c>
-      <c r="T79" s="8">
-        <f t="shared" si="180"/>
-        <v>0</v>
-      </c>
-      <c r="U79" s="8">
-        <f t="shared" si="180"/>
+      <c r="C82" s="8">
+        <f>C83*C18</f>
+        <v>0</v>
+      </c>
+      <c r="D82" s="8">
+        <f>D83*D18</f>
+        <v>0</v>
+      </c>
+      <c r="E82" s="8">
+        <f>E83*E18</f>
+        <v>0</v>
+      </c>
+      <c r="F82" s="8">
+        <f>F83*F18</f>
+        <v>0</v>
+      </c>
+      <c r="G82" s="8">
+        <f>G83*G18</f>
+        <v>0</v>
+      </c>
+      <c r="H82" s="8">
+        <f>H83*H18</f>
+        <v>0</v>
+      </c>
+      <c r="I82" s="8">
+        <f>I83*I18</f>
+        <v>0</v>
+      </c>
+      <c r="J82" s="8">
+        <f>J83*J18</f>
+        <v>0</v>
+      </c>
+      <c r="K82" s="8">
+        <f>K83*K18</f>
+        <v>0</v>
+      </c>
+      <c r="L82" s="8">
+        <f>L83*L18</f>
+        <v>0</v>
+      </c>
+      <c r="M82" s="8">
+        <f>M83*M18</f>
+        <v>0</v>
+      </c>
+      <c r="N82" s="8">
+        <f>N83*N18</f>
+        <v>0</v>
+      </c>
+      <c r="O82" s="8">
+        <f>O83*O18</f>
+        <v>0</v>
+      </c>
+      <c r="P82" s="8">
+        <f>P83*P18</f>
+        <v>0</v>
+      </c>
+      <c r="Q82" s="8">
+        <f>Q83*Q18</f>
+        <v>0</v>
+      </c>
+      <c r="R82" s="8">
+        <f>R83*R18</f>
+        <v>0</v>
+      </c>
+      <c r="S82" s="8">
+        <f>S83*S18</f>
+        <v>0</v>
+      </c>
+      <c r="T82" s="8">
+        <f>T83*T18</f>
+        <v>0</v>
+      </c>
+      <c r="U82" s="8">
+        <f>U83*U18</f>
         <v>971.03664000000003</v>
       </c>
-      <c r="V79" s="8">
-        <f t="shared" si="180"/>
-        <v>0</v>
-      </c>
-      <c r="W79" s="8">
-        <f t="shared" si="180"/>
-        <v>0</v>
-      </c>
-      <c r="X79" s="8">
-        <f t="shared" si="180"/>
-        <v>0</v>
-      </c>
-      <c r="Y79" s="8">
-        <f t="shared" si="180"/>
-        <v>0</v>
-      </c>
-      <c r="Z79" s="8">
-        <f t="shared" si="180"/>
-        <v>0</v>
-      </c>
-      <c r="AA79" s="8">
-        <f t="shared" si="180"/>
-        <v>0</v>
-      </c>
-      <c r="AB79" s="8">
-        <f t="shared" si="180"/>
+      <c r="V82" s="8">
+        <f>V83*V18</f>
+        <v>0</v>
+      </c>
+      <c r="W82" s="8">
+        <f>W83*W18</f>
+        <v>0</v>
+      </c>
+      <c r="X82" s="8">
+        <f>X83*X18</f>
+        <v>0</v>
+      </c>
+      <c r="Y82" s="8">
+        <f>Y83*Y18</f>
+        <v>0</v>
+      </c>
+      <c r="Z82" s="8">
+        <f>Z83*Z18</f>
+        <v>0</v>
+      </c>
+      <c r="AA82" s="8">
+        <f>AA83*AA18</f>
+        <v>0</v>
+      </c>
+      <c r="AB82" s="8">
+        <f>AB83*AB18</f>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:31" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="9" t="s">
+    <row r="83" spans="2:28" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="U80" s="28">
+      <c r="U83" s="28">
         <v>0.14000000000000001</v>
       </c>
     </row>

--- a/ISSC/4. Model/ISSC_Valuation_Model_20240522_v1.xlsx
+++ b/ISSC/4. Model/ISSC_Valuation_Model_20240522_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Desktop\ER\ISSC\4. Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263C1CDD-6B50-477E-80BA-34C7CA41469E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328E5903-6A71-4198-A2A1-88646BB884CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{81AE2BAB-5DCF-4ACF-AB76-A5C9ECDD0E8C}"/>
   </bookViews>
@@ -262,7 +262,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-409]mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="0.00_);\(0.00\)"/>
     <numFmt numFmtId="166" formatCode="0_);\(0\)"/>
@@ -367,11 +368,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -418,8 +420,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -773,10 +777,10 @@
   <dimension ref="B2:BJ83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="12" topLeftCell="N61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="AB3" sqref="AB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7450,7 +7454,9 @@
         <v>42</v>
       </c>
       <c r="X67" s="26"/>
-      <c r="AB67" s="26"/>
+      <c r="AB67" s="30">
+        <v>66000</v>
+      </c>
       <c r="AE67" s="1" t="s">
         <v>51</v>
       </c>

--- a/ISSC/4. Model/ISSC_Valuation_Model_20240522_v1.xlsx
+++ b/ISSC/4. Model/ISSC_Valuation_Model_20240522_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Desktop\ER\ISSC\4. Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328E5903-6A71-4198-A2A1-88646BB884CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC64CA24-C7FC-4ED2-A167-D919733A3491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{81AE2BAB-5DCF-4ACF-AB76-A5C9ECDD0E8C}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
   <si>
     <t>Product</t>
   </si>
@@ -256,6 +256,9 @@
   </si>
   <si>
     <t>project for each, then sum and subdivide between EDCs/service/product</t>
+  </si>
+  <si>
+    <t>ISSC - Amazon Revenue</t>
   </si>
 </sst>
 </file>
@@ -774,13 +777,13 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="B2:BJ83"/>
+  <dimension ref="B2:BJ85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="N61" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="12" topLeftCell="C63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="AB3" sqref="AB3"/>
+      <selection pane="bottomRight" activeCell="K69" sqref="K68:K69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7498,107 +7501,107 @@
         <v>46</v>
       </c>
       <c r="C74" s="8">
-        <f>C75*C18</f>
+        <f t="shared" ref="C74:AB74" si="176">C75*C18</f>
         <v>0</v>
       </c>
       <c r="D74" s="8">
-        <f>D75*D18</f>
+        <f t="shared" si="176"/>
         <v>0</v>
       </c>
       <c r="E74" s="8">
-        <f>E75*E18</f>
+        <f t="shared" si="176"/>
         <v>0</v>
       </c>
       <c r="F74" s="8">
-        <f>F75*F18</f>
+        <f t="shared" si="176"/>
         <v>0</v>
       </c>
       <c r="G74" s="8">
-        <f>G75*G18</f>
+        <f t="shared" si="176"/>
         <v>0</v>
       </c>
       <c r="H74" s="8">
-        <f>H75*H18</f>
+        <f t="shared" si="176"/>
         <v>0</v>
       </c>
       <c r="I74" s="8">
-        <f>I75*I18</f>
+        <f t="shared" si="176"/>
         <v>0</v>
       </c>
       <c r="J74" s="8">
-        <f>J75*J18</f>
+        <f t="shared" si="176"/>
         <v>0</v>
       </c>
       <c r="K74" s="8">
-        <f>K75*K18</f>
+        <f t="shared" si="176"/>
         <v>0</v>
       </c>
       <c r="L74" s="8">
-        <f>L75*L18</f>
+        <f t="shared" si="176"/>
         <v>0</v>
       </c>
       <c r="M74" s="8">
-        <f>M75*M18</f>
+        <f t="shared" si="176"/>
         <v>0</v>
       </c>
       <c r="N74" s="8">
-        <f>N75*N18</f>
+        <f t="shared" si="176"/>
         <v>0</v>
       </c>
       <c r="O74" s="8">
-        <f>O75*O18</f>
+        <f t="shared" si="176"/>
         <v>0</v>
       </c>
       <c r="P74" s="8">
-        <f>P75*P18</f>
-        <v>0</v>
+        <f t="shared" si="176"/>
+        <v>1280.4612500000001</v>
       </c>
       <c r="Q74" s="8">
-        <f>Q75*Q18</f>
+        <f t="shared" si="176"/>
         <v>0</v>
       </c>
       <c r="R74" s="8">
-        <f>R75*R18</f>
+        <f t="shared" si="176"/>
         <v>0</v>
       </c>
       <c r="S74" s="8">
-        <f>S75*S18</f>
-        <v>0</v>
+        <f t="shared" si="176"/>
+        <v>1606.9867200000001</v>
       </c>
       <c r="T74" s="8">
-        <f>T75*T18</f>
-        <v>0</v>
+        <f t="shared" si="176"/>
+        <v>1985.2878000000001</v>
       </c>
       <c r="U74" s="8">
-        <f>U75*U18</f>
+        <f t="shared" si="176"/>
         <v>1872.71352</v>
       </c>
       <c r="V74" s="8">
-        <f>V75*V18</f>
-        <v>0</v>
+        <f>(0.22*(SUM(S18:V18))-SUM(S74:U74))</f>
+        <v>637.96486000000004</v>
       </c>
       <c r="W74" s="8">
-        <f>W75*W18</f>
+        <f t="shared" si="176"/>
         <v>2476.1772800000003</v>
       </c>
       <c r="X74" s="8">
-        <f>X75*X18</f>
+        <f t="shared" si="176"/>
         <v>1541.4953399999999</v>
       </c>
       <c r="Y74" s="8">
-        <f>Y75*Y18</f>
+        <f t="shared" si="176"/>
         <v>1989.8019999999999</v>
       </c>
       <c r="Z74" s="8">
-        <f>Z75*Z18</f>
-        <v>0</v>
+        <f>(0.23*SUM(W18:Z18))-SUM(W74:Y74)</f>
+        <v>1998.4833699999999</v>
       </c>
       <c r="AA74" s="8">
-        <f>AA75*AA18</f>
+        <f t="shared" si="176"/>
         <v>2699.3382699999997</v>
       </c>
       <c r="AB74" s="8">
-        <f>AB75*AB18</f>
+        <f t="shared" si="176"/>
         <v>3007.06448</v>
       </c>
       <c r="AE74" s="1" t="s">
@@ -7609,9 +7612,22 @@
       <c r="B75" s="9" t="s">
         <v>45</v>
       </c>
+      <c r="P75" s="28">
+        <v>0.25</v>
+      </c>
+      <c r="S75" s="28">
+        <v>0.24</v>
+      </c>
+      <c r="T75" s="28">
+        <v>0.28999999999999998</v>
+      </c>
       <c r="U75" s="28">
         <v>0.27</v>
       </c>
+      <c r="V75" s="28">
+        <f>V74/V18</f>
+        <v>8.7836187776577035E-2</v>
+      </c>
       <c r="W75" s="28">
         <v>0.38</v>
       </c>
@@ -7620,6 +7636,10 @@
       </c>
       <c r="Y75" s="28">
         <v>0.25</v>
+      </c>
+      <c r="Z75" s="11">
+        <f>Z74/Z18</f>
+        <v>0.15381710659033088</v>
       </c>
       <c r="AA75" s="28">
         <v>0.28999999999999998</v>
@@ -7633,107 +7653,107 @@
         <v>47</v>
       </c>
       <c r="C76" s="8">
-        <f>C77*C18</f>
+        <f t="shared" ref="C76:AB76" si="177">C77*C18</f>
         <v>0</v>
       </c>
       <c r="D76" s="8">
-        <f>D77*D18</f>
+        <f t="shared" si="177"/>
         <v>0</v>
       </c>
       <c r="E76" s="8">
-        <f>E77*E18</f>
+        <f t="shared" si="177"/>
         <v>0</v>
       </c>
       <c r="F76" s="8">
-        <f>F77*F18</f>
+        <f t="shared" si="177"/>
         <v>0</v>
       </c>
       <c r="G76" s="8">
-        <f>G77*G18</f>
+        <f t="shared" si="177"/>
         <v>0</v>
       </c>
       <c r="H76" s="8">
-        <f>H77*H18</f>
+        <f t="shared" si="177"/>
         <v>0</v>
       </c>
       <c r="I76" s="8">
-        <f>I77*I18</f>
+        <f t="shared" si="177"/>
         <v>0</v>
       </c>
       <c r="J76" s="8">
-        <f>J77*J18</f>
+        <f t="shared" si="177"/>
         <v>0</v>
       </c>
       <c r="K76" s="8">
-        <f>K77*K18</f>
+        <f t="shared" si="177"/>
         <v>0</v>
       </c>
       <c r="L76" s="8">
-        <f>L77*L18</f>
+        <f t="shared" si="177"/>
         <v>0</v>
       </c>
       <c r="M76" s="8">
-        <f>M77*M18</f>
+        <f t="shared" si="177"/>
         <v>0</v>
       </c>
       <c r="N76" s="8">
-        <f>N77*N18</f>
+        <f t="shared" si="177"/>
         <v>0</v>
       </c>
       <c r="O76" s="8">
-        <f>O77*O18</f>
+        <f t="shared" si="177"/>
         <v>0</v>
       </c>
       <c r="P76" s="8">
-        <f>P77*P18</f>
-        <v>0</v>
+        <f t="shared" si="177"/>
+        <v>819.49520000000007</v>
       </c>
       <c r="Q76" s="8">
-        <f>Q77*Q18</f>
+        <f t="shared" si="177"/>
         <v>0</v>
       </c>
       <c r="R76" s="8">
-        <f>R77*R18</f>
+        <f t="shared" si="177"/>
         <v>0</v>
       </c>
       <c r="S76" s="8">
-        <f>S77*S18</f>
+        <f t="shared" si="177"/>
         <v>0</v>
       </c>
       <c r="T76" s="8">
-        <f>T77*T18</f>
-        <v>0</v>
+        <f t="shared" si="177"/>
+        <v>684.58200000000011</v>
       </c>
       <c r="U76" s="8">
-        <f>U77*U18</f>
+        <f t="shared" si="177"/>
         <v>1109.7561599999999</v>
       </c>
       <c r="V76" s="8">
-        <f>V77*V18</f>
+        <f t="shared" si="177"/>
         <v>0</v>
       </c>
       <c r="W76" s="8">
-        <f>W77*W18</f>
+        <f t="shared" si="177"/>
         <v>716.78816000000006</v>
       </c>
       <c r="X76" s="8">
-        <f>X77*X18</f>
+        <f t="shared" si="177"/>
         <v>734.04539999999997</v>
       </c>
       <c r="Y76" s="8">
-        <f>Y77*Y18</f>
+        <f t="shared" si="177"/>
         <v>795.92079999999999</v>
       </c>
       <c r="Z76" s="8">
-        <f>Z77*Z18</f>
-        <v>0</v>
+        <f>(0.1*SUM(W18:Z18))-SUM(W76:Y76)</f>
+        <v>1234.0969400000004</v>
       </c>
       <c r="AA76" s="8">
-        <f>AA77*AA18</f>
+        <f t="shared" si="177"/>
         <v>0</v>
       </c>
       <c r="AB76" s="8">
-        <f>AB77*AB18</f>
+        <f t="shared" si="177"/>
         <v>1825.7177200000001</v>
       </c>
     </row>
@@ -7741,9 +7761,16 @@
       <c r="B77" s="9" t="s">
         <v>45</v>
       </c>
+      <c r="P77" s="28">
+        <v>0.16</v>
+      </c>
+      <c r="T77" s="28">
+        <v>0.1</v>
+      </c>
       <c r="U77" s="28">
         <v>0.16</v>
       </c>
+      <c r="V77" s="28"/>
       <c r="W77" s="28">
         <v>0.11</v>
       </c>
@@ -7752,6 +7779,10 @@
       </c>
       <c r="Y77" s="28">
         <v>0.1</v>
+      </c>
+      <c r="Z77" s="11">
+        <f>Z76/Z18</f>
+        <v>9.498463855757841E-2</v>
       </c>
       <c r="AB77" s="28">
         <v>0.17</v>
@@ -7762,107 +7793,107 @@
         <v>48</v>
       </c>
       <c r="C78" s="8">
-        <f>C79*C18</f>
+        <f t="shared" ref="C78:AB78" si="178">C79*C18</f>
         <v>0</v>
       </c>
       <c r="D78" s="8">
-        <f>D79*D18</f>
+        <f t="shared" si="178"/>
         <v>0</v>
       </c>
       <c r="E78" s="8">
-        <f>E79*E18</f>
+        <f t="shared" si="178"/>
         <v>0</v>
       </c>
       <c r="F78" s="8">
-        <f>F79*F18</f>
+        <f t="shared" si="178"/>
         <v>0</v>
       </c>
       <c r="G78" s="8">
-        <f>G79*G18</f>
+        <f t="shared" si="178"/>
         <v>0</v>
       </c>
       <c r="H78" s="8">
-        <f>H79*H18</f>
+        <f t="shared" si="178"/>
         <v>0</v>
       </c>
       <c r="I78" s="8">
-        <f>I79*I18</f>
+        <f t="shared" si="178"/>
         <v>0</v>
       </c>
       <c r="J78" s="8">
-        <f>J79*J18</f>
+        <f t="shared" si="178"/>
         <v>0</v>
       </c>
       <c r="K78" s="8">
-        <f>K79*K18</f>
+        <f t="shared" si="178"/>
         <v>0</v>
       </c>
       <c r="L78" s="8">
-        <f>L79*L18</f>
+        <f t="shared" si="178"/>
         <v>0</v>
       </c>
       <c r="M78" s="8">
-        <f>M79*M18</f>
+        <f t="shared" si="178"/>
         <v>0</v>
       </c>
       <c r="N78" s="8">
-        <f>N79*N18</f>
+        <f t="shared" si="178"/>
         <v>0</v>
       </c>
       <c r="O78" s="8">
-        <f>O79*O18</f>
+        <f t="shared" si="178"/>
         <v>0</v>
       </c>
       <c r="P78" s="8">
-        <f>P79*P18</f>
+        <f t="shared" si="178"/>
         <v>0</v>
       </c>
       <c r="Q78" s="8">
-        <f>Q79*Q18</f>
+        <f t="shared" si="178"/>
         <v>0</v>
       </c>
       <c r="R78" s="8">
-        <f>R79*R18</f>
+        <f t="shared" si="178"/>
         <v>0</v>
       </c>
       <c r="S78" s="8">
-        <f>S79*S18</f>
+        <f t="shared" si="178"/>
         <v>0</v>
       </c>
       <c r="T78" s="8">
-        <f>T79*T18</f>
+        <f t="shared" si="178"/>
         <v>0</v>
       </c>
       <c r="U78" s="8">
-        <f>U79*U18</f>
+        <f t="shared" si="178"/>
         <v>0</v>
       </c>
       <c r="V78" s="8">
-        <f>V79*V18</f>
+        <f t="shared" si="178"/>
         <v>0</v>
       </c>
       <c r="W78" s="8">
-        <f>W79*W18</f>
+        <f t="shared" si="178"/>
         <v>0</v>
       </c>
       <c r="X78" s="8">
-        <f>X79*X18</f>
+        <f t="shared" si="178"/>
         <v>1321.28172</v>
       </c>
       <c r="Y78" s="8">
-        <f>Y79*Y18</f>
+        <f t="shared" si="178"/>
         <v>0</v>
       </c>
       <c r="Z78" s="8">
-        <f>Z79*Z18</f>
+        <f t="shared" si="178"/>
         <v>0</v>
       </c>
       <c r="AA78" s="8">
-        <f>AA79*AA18</f>
+        <f t="shared" si="178"/>
         <v>0</v>
       </c>
       <c r="AB78" s="8">
-        <f>AB79*AB18</f>
+        <f t="shared" si="178"/>
         <v>0</v>
       </c>
     </row>
@@ -7879,107 +7910,107 @@
         <v>49</v>
       </c>
       <c r="C80" s="8">
-        <f>C81*C18</f>
+        <f t="shared" ref="C80:AB80" si="179">C81*C18</f>
         <v>0</v>
       </c>
       <c r="D80" s="8">
-        <f>D81*D18</f>
+        <f t="shared" si="179"/>
         <v>0</v>
       </c>
       <c r="E80" s="8">
-        <f>E81*E18</f>
+        <f t="shared" si="179"/>
         <v>0</v>
       </c>
       <c r="F80" s="8">
-        <f>F81*F18</f>
+        <f t="shared" si="179"/>
         <v>0</v>
       </c>
       <c r="G80" s="8">
-        <f>G81*G18</f>
+        <f t="shared" si="179"/>
         <v>0</v>
       </c>
       <c r="H80" s="8">
-        <f>H81*H18</f>
+        <f t="shared" si="179"/>
         <v>0</v>
       </c>
       <c r="I80" s="8">
-        <f>I81*I18</f>
+        <f t="shared" si="179"/>
         <v>0</v>
       </c>
       <c r="J80" s="8">
-        <f>J81*J18</f>
+        <f t="shared" si="179"/>
         <v>0</v>
       </c>
       <c r="K80" s="8">
-        <f>K81*K18</f>
+        <f t="shared" si="179"/>
         <v>0</v>
       </c>
       <c r="L80" s="8">
-        <f>L81*L18</f>
+        <f t="shared" si="179"/>
         <v>0</v>
       </c>
       <c r="M80" s="8">
-        <f>M81*M18</f>
+        <f t="shared" si="179"/>
         <v>0</v>
       </c>
       <c r="N80" s="8">
-        <f>N81*N18</f>
+        <f t="shared" si="179"/>
         <v>0</v>
       </c>
       <c r="O80" s="8">
-        <f>O81*O18</f>
+        <f t="shared" si="179"/>
         <v>0</v>
       </c>
       <c r="P80" s="8">
-        <f>P81*P18</f>
+        <f t="shared" si="179"/>
         <v>0</v>
       </c>
       <c r="Q80" s="8">
-        <f>Q81*Q18</f>
+        <f t="shared" si="179"/>
         <v>0</v>
       </c>
       <c r="R80" s="8">
-        <f>R81*R18</f>
+        <f t="shared" si="179"/>
         <v>0</v>
       </c>
       <c r="S80" s="8">
-        <f>S81*S18</f>
-        <v>0</v>
+        <f t="shared" si="179"/>
+        <v>1673.9445000000001</v>
       </c>
       <c r="T80" s="8">
-        <f>T81*T18</f>
+        <f t="shared" si="179"/>
         <v>0</v>
       </c>
       <c r="U80" s="8">
-        <f>U81*U18</f>
+        <f t="shared" si="179"/>
         <v>0</v>
       </c>
       <c r="V80" s="8">
-        <f>V81*V18</f>
+        <f t="shared" si="179"/>
         <v>0</v>
       </c>
       <c r="W80" s="8">
-        <f>W81*W18</f>
+        <f t="shared" si="179"/>
         <v>847.11328000000003</v>
       </c>
       <c r="X80" s="8">
-        <f>X81*X18</f>
+        <f t="shared" si="179"/>
         <v>1174.47264</v>
       </c>
       <c r="Y80" s="8">
-        <f>Y81*Y18</f>
+        <f t="shared" si="179"/>
         <v>1910.2099199999998</v>
       </c>
       <c r="Z80" s="8">
-        <f>Z81*Z18</f>
-        <v>0</v>
+        <f>(0.12*SUM(W18:Z18))-SUM(W80:Y80)</f>
+        <v>245.22572000000036</v>
       </c>
       <c r="AA80" s="8">
-        <f>AA81*AA18</f>
+        <f t="shared" si="179"/>
         <v>0</v>
       </c>
       <c r="AB80" s="8">
-        <f>AB81*AB18</f>
+        <f t="shared" si="179"/>
         <v>0</v>
       </c>
     </row>
@@ -7987,6 +8018,9 @@
       <c r="B81" s="9" t="s">
         <v>45</v>
       </c>
+      <c r="S81" s="28">
+        <v>0.25</v>
+      </c>
       <c r="W81" s="28">
         <v>0.13</v>
       </c>
@@ -7995,6 +8029,10 @@
       </c>
       <c r="Y81" s="28">
         <v>0.24</v>
+      </c>
+      <c r="Z81" s="11">
+        <f>Z80/Z18</f>
+        <v>1.8874267996501114E-2</v>
       </c>
     </row>
     <row r="82" spans="2:28" x14ac:dyDescent="0.25">
@@ -8002,107 +8040,107 @@
         <v>50</v>
       </c>
       <c r="C82" s="8">
-        <f>C83*C18</f>
+        <f t="shared" ref="C82:AB82" si="180">C83*C18</f>
         <v>0</v>
       </c>
       <c r="D82" s="8">
-        <f>D83*D18</f>
+        <f t="shared" si="180"/>
         <v>0</v>
       </c>
       <c r="E82" s="8">
-        <f>E83*E18</f>
+        <f t="shared" si="180"/>
         <v>0</v>
       </c>
       <c r="F82" s="8">
-        <f>F83*F18</f>
+        <f t="shared" si="180"/>
         <v>0</v>
       </c>
       <c r="G82" s="8">
-        <f>G83*G18</f>
+        <f t="shared" si="180"/>
         <v>0</v>
       </c>
       <c r="H82" s="8">
-        <f>H83*H18</f>
+        <f t="shared" si="180"/>
         <v>0</v>
       </c>
       <c r="I82" s="8">
-        <f>I83*I18</f>
+        <f t="shared" si="180"/>
         <v>0</v>
       </c>
       <c r="J82" s="8">
-        <f>J83*J18</f>
+        <f t="shared" si="180"/>
         <v>0</v>
       </c>
       <c r="K82" s="8">
-        <f>K83*K18</f>
+        <f t="shared" si="180"/>
         <v>0</v>
       </c>
       <c r="L82" s="8">
-        <f>L83*L18</f>
+        <f t="shared" si="180"/>
         <v>0</v>
       </c>
       <c r="M82" s="8">
-        <f>M83*M18</f>
+        <f t="shared" si="180"/>
         <v>0</v>
       </c>
       <c r="N82" s="8">
-        <f>N83*N18</f>
+        <f t="shared" si="180"/>
         <v>0</v>
       </c>
       <c r="O82" s="8">
-        <f>O83*O18</f>
+        <f t="shared" si="180"/>
         <v>0</v>
       </c>
       <c r="P82" s="8">
-        <f>P83*P18</f>
+        <f t="shared" si="180"/>
         <v>0</v>
       </c>
       <c r="Q82" s="8">
-        <f>Q83*Q18</f>
+        <f t="shared" si="180"/>
         <v>0</v>
       </c>
       <c r="R82" s="8">
-        <f>R83*R18</f>
+        <f t="shared" si="180"/>
         <v>0</v>
       </c>
       <c r="S82" s="8">
-        <f>S83*S18</f>
+        <f t="shared" si="180"/>
         <v>0</v>
       </c>
       <c r="T82" s="8">
-        <f>T83*T18</f>
+        <f t="shared" si="180"/>
         <v>0</v>
       </c>
       <c r="U82" s="8">
-        <f>U83*U18</f>
+        <f t="shared" si="180"/>
         <v>971.03664000000003</v>
       </c>
       <c r="V82" s="8">
-        <f>V83*V18</f>
+        <f t="shared" si="180"/>
         <v>0</v>
       </c>
       <c r="W82" s="8">
-        <f>W83*W18</f>
+        <f t="shared" si="180"/>
         <v>0</v>
       </c>
       <c r="X82" s="8">
-        <f>X83*X18</f>
+        <f t="shared" si="180"/>
         <v>0</v>
       </c>
       <c r="Y82" s="8">
-        <f>Y83*Y18</f>
+        <f t="shared" si="180"/>
         <v>0</v>
       </c>
       <c r="Z82" s="8">
-        <f>Z83*Z18</f>
+        <f t="shared" si="180"/>
         <v>0</v>
       </c>
       <c r="AA82" s="8">
-        <f>AA83*AA18</f>
+        <f t="shared" si="180"/>
         <v>0</v>
       </c>
       <c r="AB82" s="8">
-        <f>AB83*AB18</f>
+        <f t="shared" si="180"/>
         <v>0</v>
       </c>
     </row>
@@ -8113,6 +8151,20 @@
       <c r="U83" s="28">
         <v>0.14000000000000001</v>
       </c>
+    </row>
+    <row r="84" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B84" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="85" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B85" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="T85" s="26">
+        <v>0.11</v>
+      </c>
+      <c r="V85" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ISSC/4. Model/ISSC_Valuation_Model_20240522_v1.xlsx
+++ b/ISSC/4. Model/ISSC_Valuation_Model_20240522_v1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Desktop\ER\ISSC\4. Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC64CA24-C7FC-4ED2-A167-D919733A3491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E080E7-A0C4-4C68-8D8C-719CE8DB8474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{81AE2BAB-5DCF-4ACF-AB76-A5C9ECDD0E8C}"/>
   </bookViews>
@@ -75,7 +75,7 @@
     <author>tc={AD66D7B3-F872-417E-9071-A3E7062C3A1A}</author>
   </authors>
   <commentList>
-    <comment ref="U18" authorId="0" shapeId="0" xr:uid="{AD66D7B3-F872-417E-9071-A3E7062C3A1A}">
+    <comment ref="AB18" authorId="0" shapeId="0" xr:uid="{AD66D7B3-F872-417E-9071-A3E7062C3A1A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
   <si>
     <t>Product</t>
   </si>
@@ -260,6 +260,15 @@
   <si>
     <t>ISSC - Amazon Revenue</t>
   </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
 </sst>
 </file>
 
@@ -376,7 +385,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -424,6 +433,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -766,7 +776,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="U18" dT="2024-05-23T13:42:45.36" personId="{7050C016-20C2-4036-9356-51CF5944C770}" id="{AD66D7B3-F872-417E-9071-A3E7062C3A1A}">
+  <threadedComment ref="AB18" dT="2024-05-23T13:42:45.36" personId="{7050C016-20C2-4036-9356-51CF5944C770}" id="{AD66D7B3-F872-417E-9071-A3E7062C3A1A}">
     <text>Net sales - 6933.976 on IS</text>
   </threadedComment>
 </ThreadedComments>
@@ -777,57 +787,66 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="B2:BJ85"/>
+  <dimension ref="B2:BQ85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="C63" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="K69" sqref="K68:K69"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="7" ySplit="12" topLeftCell="Z60" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomRight" activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" style="1"/>
     <col min="2" max="2" width="36.42578125" style="1" customWidth="1"/>
-    <col min="3" max="25" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.7109375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.7109375" style="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.7109375" style="1"/>
+    <col min="3" max="5" width="9.7109375" style="1" customWidth="1"/>
+    <col min="6" max="9" width="1.7109375" style="1" customWidth="1"/>
+    <col min="10" max="32" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.7109375" style="1" customWidth="1"/>
+    <col min="34" max="34" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.7109375" style="1" customWidth="1"/>
+    <col min="36" max="16384" width="9.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B5" s="7">
         <v>45434</v>
       </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
     </row>
-    <row r="7" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -881,500 +900,500 @@
       <c r="BH7" s="3"/>
       <c r="BI7" s="3"/>
       <c r="BJ7" s="3"/>
+      <c r="BK7" s="3"/>
+      <c r="BL7" s="3"/>
+      <c r="BM7" s="3"/>
+      <c r="BN7" s="3"/>
+      <c r="BO7" s="3"/>
+      <c r="BP7" s="3"/>
+      <c r="BQ7" s="3"/>
     </row>
-    <row r="9" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="5">
+      <c r="J9" s="5">
         <v>1</v>
       </c>
-      <c r="D9" s="5">
-        <f>C9+1</f>
+      <c r="K9" s="5">
+        <f>J9+1</f>
         <v>2</v>
       </c>
-      <c r="E9" s="5">
-        <f>D9+1</f>
+      <c r="L9" s="5">
+        <f>K9+1</f>
         <v>3</v>
       </c>
-      <c r="F9" s="5">
-        <f>E9+1</f>
+      <c r="M9" s="5">
+        <f>L9+1</f>
         <v>4</v>
       </c>
-      <c r="G9" s="5">
-        <f>C9</f>
+      <c r="N9" s="5">
+        <f>J9</f>
         <v>1</v>
       </c>
-      <c r="H9" s="5">
-        <f t="shared" ref="H9:R9" si="0">D9</f>
+      <c r="O9" s="5">
+        <f t="shared" ref="O9:Y9" si="0">K9</f>
         <v>2</v>
       </c>
-      <c r="I9" s="5">
+      <c r="P9" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J9" s="5">
+      <c r="Q9" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K9" s="5">
+      <c r="R9" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L9" s="5">
+      <c r="S9" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M9" s="5">
+      <c r="T9" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="N9" s="5">
+      <c r="U9" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="O9" s="5">
+      <c r="V9" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P9" s="5">
+      <c r="W9" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="X9" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="R9" s="5">
+      <c r="Y9" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="S9" s="5">
-        <f t="shared" ref="S9" si="1">O9</f>
+      <c r="Z9" s="5">
+        <f t="shared" ref="Z9" si="1">V9</f>
         <v>1</v>
       </c>
-      <c r="T9" s="5">
-        <f t="shared" ref="T9" si="2">P9</f>
+      <c r="AA9" s="5">
+        <f t="shared" ref="AA9" si="2">W9</f>
         <v>2</v>
       </c>
-      <c r="U9" s="5">
-        <f t="shared" ref="U9" si="3">Q9</f>
+      <c r="AB9" s="5">
+        <f t="shared" ref="AB9" si="3">X9</f>
         <v>3</v>
       </c>
-      <c r="V9" s="5">
-        <f t="shared" ref="V9" si="4">R9</f>
+      <c r="AC9" s="5">
+        <f t="shared" ref="AC9" si="4">Y9</f>
         <v>4</v>
       </c>
-      <c r="W9" s="5">
-        <f t="shared" ref="W9" si="5">S9</f>
+      <c r="AD9" s="5">
+        <f t="shared" ref="AD9" si="5">Z9</f>
         <v>1</v>
       </c>
-      <c r="X9" s="5">
-        <f t="shared" ref="X9" si="6">T9</f>
+      <c r="AE9" s="5">
+        <f t="shared" ref="AE9" si="6">AA9</f>
         <v>2</v>
       </c>
-      <c r="Y9" s="5">
-        <f t="shared" ref="Y9" si="7">U9</f>
+      <c r="AF9" s="5">
+        <f t="shared" ref="AF9" si="7">AB9</f>
         <v>3</v>
       </c>
-      <c r="Z9" s="5">
-        <f t="shared" ref="Z9" si="8">V9</f>
+      <c r="AG9" s="5">
+        <f t="shared" ref="AG9" si="8">AC9</f>
         <v>4</v>
       </c>
-      <c r="AA9" s="5">
-        <f t="shared" ref="AA9" si="9">W9</f>
+      <c r="AH9" s="5">
+        <f t="shared" ref="AH9" si="9">AD9</f>
         <v>1</v>
       </c>
-      <c r="AB9" s="5">
-        <f t="shared" ref="AB9" si="10">X9</f>
+      <c r="AI9" s="5">
+        <f t="shared" ref="AI9" si="10">AE9</f>
         <v>2</v>
       </c>
-      <c r="AC9" s="5">
-        <f t="shared" ref="AC9" si="11">Y9</f>
+      <c r="AJ9" s="5">
+        <f t="shared" ref="AJ9" si="11">AF9</f>
         <v>3</v>
       </c>
-      <c r="AD9" s="5">
-        <f t="shared" ref="AD9" si="12">Z9</f>
+      <c r="AK9" s="5">
+        <f t="shared" ref="AK9" si="12">AG9</f>
         <v>4</v>
       </c>
-      <c r="AE9" s="5">
-        <f t="shared" ref="AE9" si="13">AA9</f>
+      <c r="AL9" s="5">
+        <f t="shared" ref="AL9" si="13">AH9</f>
         <v>1</v>
       </c>
-      <c r="AF9" s="5">
-        <f t="shared" ref="AF9" si="14">AB9</f>
+      <c r="AM9" s="5">
+        <f t="shared" ref="AM9" si="14">AI9</f>
         <v>2</v>
       </c>
-      <c r="AG9" s="5">
-        <f t="shared" ref="AG9" si="15">AC9</f>
+      <c r="AN9" s="5">
+        <f t="shared" ref="AN9" si="15">AJ9</f>
         <v>3</v>
       </c>
-      <c r="AH9" s="5">
-        <f t="shared" ref="AH9" si="16">AD9</f>
+      <c r="AO9" s="5">
+        <f t="shared" ref="AO9" si="16">AK9</f>
         <v>4</v>
       </c>
-      <c r="AI9" s="5">
-        <f t="shared" ref="AI9" si="17">AE9</f>
+      <c r="AP9" s="5">
+        <f t="shared" ref="AP9" si="17">AL9</f>
         <v>1</v>
       </c>
-      <c r="AJ9" s="5">
-        <f t="shared" ref="AJ9" si="18">AF9</f>
+      <c r="AQ9" s="5">
+        <f t="shared" ref="AQ9" si="18">AM9</f>
         <v>2</v>
       </c>
-      <c r="AK9" s="5">
-        <f t="shared" ref="AK9" si="19">AG9</f>
+      <c r="AR9" s="5">
+        <f t="shared" ref="AR9" si="19">AN9</f>
         <v>3</v>
       </c>
-      <c r="AL9" s="5">
-        <f t="shared" ref="AL9" si="20">AH9</f>
+      <c r="AS9" s="5">
+        <f t="shared" ref="AS9" si="20">AO9</f>
         <v>4</v>
       </c>
-      <c r="AM9" s="5">
-        <f t="shared" ref="AM9" si="21">AI9</f>
+      <c r="AT9" s="5">
+        <f t="shared" ref="AT9" si="21">AP9</f>
         <v>1</v>
       </c>
-      <c r="AN9" s="5">
-        <f t="shared" ref="AN9" si="22">AJ9</f>
+      <c r="AU9" s="5">
+        <f t="shared" ref="AU9" si="22">AQ9</f>
         <v>2</v>
       </c>
-      <c r="AO9" s="5">
-        <f t="shared" ref="AO9" si="23">AK9</f>
+      <c r="AV9" s="5">
+        <f t="shared" ref="AV9" si="23">AR9</f>
         <v>3</v>
       </c>
-      <c r="AP9" s="5">
-        <f t="shared" ref="AP9" si="24">AL9</f>
+      <c r="AW9" s="5">
+        <f t="shared" ref="AW9" si="24">AS9</f>
         <v>4</v>
       </c>
-      <c r="AQ9" s="5">
-        <f t="shared" ref="AQ9" si="25">AM9</f>
+      <c r="AX9" s="5">
+        <f t="shared" ref="AX9" si="25">AT9</f>
         <v>1</v>
       </c>
-      <c r="AR9" s="5">
-        <f t="shared" ref="AR9" si="26">AN9</f>
+      <c r="AY9" s="5">
+        <f t="shared" ref="AY9" si="26">AU9</f>
         <v>2</v>
       </c>
-      <c r="AS9" s="5">
-        <f t="shared" ref="AS9" si="27">AO9</f>
+      <c r="AZ9" s="5">
+        <f t="shared" ref="AZ9" si="27">AV9</f>
         <v>3</v>
       </c>
-      <c r="AT9" s="5">
-        <f t="shared" ref="AT9" si="28">AP9</f>
+      <c r="BA9" s="5">
+        <f t="shared" ref="BA9" si="28">AW9</f>
         <v>4</v>
       </c>
-      <c r="AU9" s="5">
-        <f t="shared" ref="AU9" si="29">AQ9</f>
+      <c r="BB9" s="5">
+        <f t="shared" ref="BB9" si="29">AX9</f>
         <v>1</v>
       </c>
-      <c r="AV9" s="5">
-        <f t="shared" ref="AV9" si="30">AR9</f>
+      <c r="BC9" s="5">
+        <f t="shared" ref="BC9" si="30">AY9</f>
         <v>2</v>
       </c>
-      <c r="AW9" s="5">
-        <f t="shared" ref="AW9" si="31">AS9</f>
+      <c r="BD9" s="5">
+        <f t="shared" ref="BD9" si="31">AZ9</f>
         <v>3</v>
       </c>
-      <c r="AX9" s="5">
-        <f t="shared" ref="AX9" si="32">AT9</f>
+      <c r="BE9" s="5">
+        <f t="shared" ref="BE9" si="32">BA9</f>
         <v>4</v>
       </c>
-      <c r="AY9" s="5">
-        <f t="shared" ref="AY9" si="33">AU9</f>
+      <c r="BF9" s="5">
+        <f t="shared" ref="BF9" si="33">BB9</f>
         <v>1</v>
       </c>
-      <c r="AZ9" s="5">
-        <f t="shared" ref="AZ9" si="34">AV9</f>
+      <c r="BG9" s="5">
+        <f t="shared" ref="BG9" si="34">BC9</f>
         <v>2</v>
       </c>
-      <c r="BA9" s="5">
-        <f t="shared" ref="BA9" si="35">AW9</f>
+      <c r="BH9" s="5">
+        <f t="shared" ref="BH9" si="35">BD9</f>
         <v>3</v>
       </c>
-      <c r="BB9" s="5">
-        <f t="shared" ref="BB9" si="36">AX9</f>
+      <c r="BI9" s="5">
+        <f t="shared" ref="BI9" si="36">BE9</f>
         <v>4</v>
       </c>
-      <c r="BC9" s="5">
-        <f t="shared" ref="BC9" si="37">AY9</f>
+      <c r="BJ9" s="5">
+        <f t="shared" ref="BJ9" si="37">BF9</f>
         <v>1</v>
       </c>
-      <c r="BD9" s="5">
-        <f t="shared" ref="BD9" si="38">AZ9</f>
+      <c r="BK9" s="5">
+        <f t="shared" ref="BK9" si="38">BG9</f>
         <v>2</v>
       </c>
-      <c r="BE9" s="5">
-        <f t="shared" ref="BE9" si="39">BA9</f>
+      <c r="BL9" s="5">
+        <f t="shared" ref="BL9" si="39">BH9</f>
         <v>3</v>
       </c>
-      <c r="BF9" s="5">
-        <f t="shared" ref="BF9" si="40">BB9</f>
+      <c r="BM9" s="5">
+        <f t="shared" ref="BM9" si="40">BI9</f>
         <v>4</v>
       </c>
-      <c r="BG9" s="5">
-        <f t="shared" ref="BG9" si="41">BC9</f>
+      <c r="BN9" s="5">
+        <f t="shared" ref="BN9" si="41">BJ9</f>
         <v>1</v>
       </c>
-      <c r="BH9" s="5">
-        <f t="shared" ref="BH9" si="42">BD9</f>
+      <c r="BO9" s="5">
+        <f t="shared" ref="BO9" si="42">BK9</f>
         <v>2</v>
       </c>
-      <c r="BI9" s="5">
-        <f t="shared" ref="BI9" si="43">BE9</f>
+      <c r="BP9" s="5">
+        <f t="shared" ref="BP9" si="43">BL9</f>
         <v>3</v>
       </c>
-      <c r="BJ9" s="5">
-        <f t="shared" ref="BJ9" si="44">BF9</f>
+      <c r="BQ9" s="5">
+        <f t="shared" ref="BQ9" si="44">BM9</f>
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="6">
+      <c r="J10" s="6">
         <v>2018</v>
       </c>
-      <c r="D10" s="6">
+      <c r="K10" s="6">
         <v>2018</v>
       </c>
-      <c r="E10" s="6">
+      <c r="L10" s="6">
         <v>2018</v>
       </c>
-      <c r="F10" s="6">
+      <c r="M10" s="6">
         <v>2018</v>
       </c>
-      <c r="G10" s="6">
-        <f>C10+1</f>
+      <c r="N10" s="6">
+        <f>J10+1</f>
         <v>2019</v>
       </c>
-      <c r="H10" s="6">
-        <f t="shared" ref="H10:R10" si="45">D10+1</f>
+      <c r="O10" s="6">
+        <f t="shared" ref="O10:Y10" si="45">K10+1</f>
         <v>2019</v>
       </c>
-      <c r="I10" s="6">
+      <c r="P10" s="6">
         <f t="shared" si="45"/>
         <v>2019</v>
       </c>
-      <c r="J10" s="6">
+      <c r="Q10" s="6">
         <f t="shared" si="45"/>
         <v>2019</v>
       </c>
-      <c r="K10" s="6">
+      <c r="R10" s="6">
         <f t="shared" si="45"/>
         <v>2020</v>
       </c>
-      <c r="L10" s="6">
+      <c r="S10" s="6">
         <f t="shared" si="45"/>
         <v>2020</v>
       </c>
-      <c r="M10" s="6">
+      <c r="T10" s="6">
         <f t="shared" si="45"/>
         <v>2020</v>
       </c>
-      <c r="N10" s="6">
+      <c r="U10" s="6">
         <f t="shared" si="45"/>
         <v>2020</v>
       </c>
-      <c r="O10" s="6">
+      <c r="V10" s="6">
         <f t="shared" si="45"/>
         <v>2021</v>
       </c>
-      <c r="P10" s="6">
+      <c r="W10" s="6">
         <f t="shared" si="45"/>
         <v>2021</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="X10" s="6">
         <f t="shared" si="45"/>
         <v>2021</v>
       </c>
-      <c r="R10" s="6">
+      <c r="Y10" s="6">
         <f t="shared" si="45"/>
         <v>2021</v>
       </c>
-      <c r="S10" s="6">
-        <f t="shared" ref="S10" si="46">O10+1</f>
+      <c r="Z10" s="6">
+        <f t="shared" ref="Z10" si="46">V10+1</f>
         <v>2022</v>
       </c>
-      <c r="T10" s="6">
-        <f t="shared" ref="T10" si="47">P10+1</f>
+      <c r="AA10" s="6">
+        <f t="shared" ref="AA10" si="47">W10+1</f>
         <v>2022</v>
       </c>
-      <c r="U10" s="6">
-        <f t="shared" ref="U10" si="48">Q10+1</f>
+      <c r="AB10" s="6">
+        <f t="shared" ref="AB10" si="48">X10+1</f>
         <v>2022</v>
       </c>
-      <c r="V10" s="6">
-        <f t="shared" ref="V10" si="49">R10+1</f>
+      <c r="AC10" s="6">
+        <f t="shared" ref="AC10" si="49">Y10+1</f>
         <v>2022</v>
       </c>
-      <c r="W10" s="6">
-        <f t="shared" ref="W10" si="50">S10+1</f>
+      <c r="AD10" s="6">
+        <f t="shared" ref="AD10" si="50">Z10+1</f>
         <v>2023</v>
       </c>
-      <c r="X10" s="6">
-        <f t="shared" ref="X10" si="51">T10+1</f>
+      <c r="AE10" s="6">
+        <f t="shared" ref="AE10" si="51">AA10+1</f>
         <v>2023</v>
       </c>
-      <c r="Y10" s="6">
-        <f t="shared" ref="Y10" si="52">U10+1</f>
+      <c r="AF10" s="6">
+        <f t="shared" ref="AF10" si="52">AB10+1</f>
         <v>2023</v>
       </c>
-      <c r="Z10" s="6">
-        <f t="shared" ref="Z10" si="53">V10+1</f>
+      <c r="AG10" s="6">
+        <f t="shared" ref="AG10" si="53">AC10+1</f>
         <v>2023</v>
       </c>
-      <c r="AA10" s="6">
-        <f t="shared" ref="AA10" si="54">W10+1</f>
+      <c r="AH10" s="6">
+        <f t="shared" ref="AH10" si="54">AD10+1</f>
         <v>2024</v>
       </c>
-      <c r="AB10" s="6">
-        <f t="shared" ref="AB10" si="55">X10+1</f>
+      <c r="AI10" s="6">
+        <f t="shared" ref="AI10" si="55">AE10+1</f>
         <v>2024</v>
       </c>
-      <c r="AC10" s="6">
-        <f t="shared" ref="AC10" si="56">Y10+1</f>
+      <c r="AJ10" s="6">
+        <f t="shared" ref="AJ10" si="56">AF10+1</f>
         <v>2024</v>
       </c>
-      <c r="AD10" s="6">
-        <f t="shared" ref="AD10" si="57">Z10+1</f>
+      <c r="AK10" s="6">
+        <f t="shared" ref="AK10" si="57">AG10+1</f>
         <v>2024</v>
       </c>
-      <c r="AE10" s="6">
-        <f t="shared" ref="AE10" si="58">AA10+1</f>
+      <c r="AL10" s="6">
+        <f t="shared" ref="AL10" si="58">AH10+1</f>
         <v>2025</v>
       </c>
-      <c r="AF10" s="6">
-        <f t="shared" ref="AF10" si="59">AB10+1</f>
+      <c r="AM10" s="6">
+        <f t="shared" ref="AM10" si="59">AI10+1</f>
         <v>2025</v>
       </c>
-      <c r="AG10" s="6">
-        <f t="shared" ref="AG10" si="60">AC10+1</f>
+      <c r="AN10" s="6">
+        <f t="shared" ref="AN10" si="60">AJ10+1</f>
         <v>2025</v>
       </c>
-      <c r="AH10" s="6">
-        <f t="shared" ref="AH10" si="61">AD10+1</f>
+      <c r="AO10" s="6">
+        <f t="shared" ref="AO10" si="61">AK10+1</f>
         <v>2025</v>
       </c>
-      <c r="AI10" s="6">
-        <f t="shared" ref="AI10" si="62">AE10+1</f>
+      <c r="AP10" s="6">
+        <f t="shared" ref="AP10" si="62">AL10+1</f>
         <v>2026</v>
       </c>
-      <c r="AJ10" s="6">
-        <f t="shared" ref="AJ10" si="63">AF10+1</f>
+      <c r="AQ10" s="6">
+        <f t="shared" ref="AQ10" si="63">AM10+1</f>
         <v>2026</v>
       </c>
-      <c r="AK10" s="6">
-        <f t="shared" ref="AK10" si="64">AG10+1</f>
+      <c r="AR10" s="6">
+        <f t="shared" ref="AR10" si="64">AN10+1</f>
         <v>2026</v>
       </c>
-      <c r="AL10" s="6">
-        <f t="shared" ref="AL10" si="65">AH10+1</f>
+      <c r="AS10" s="6">
+        <f t="shared" ref="AS10" si="65">AO10+1</f>
         <v>2026</v>
       </c>
-      <c r="AM10" s="6">
-        <f t="shared" ref="AM10" si="66">AI10+1</f>
+      <c r="AT10" s="6">
+        <f t="shared" ref="AT10" si="66">AP10+1</f>
         <v>2027</v>
       </c>
-      <c r="AN10" s="6">
-        <f t="shared" ref="AN10" si="67">AJ10+1</f>
+      <c r="AU10" s="6">
+        <f t="shared" ref="AU10" si="67">AQ10+1</f>
         <v>2027</v>
       </c>
-      <c r="AO10" s="6">
-        <f t="shared" ref="AO10" si="68">AK10+1</f>
+      <c r="AV10" s="6">
+        <f t="shared" ref="AV10" si="68">AR10+1</f>
         <v>2027</v>
       </c>
-      <c r="AP10" s="6">
-        <f t="shared" ref="AP10" si="69">AL10+1</f>
+      <c r="AW10" s="6">
+        <f t="shared" ref="AW10" si="69">AS10+1</f>
         <v>2027</v>
       </c>
-      <c r="AQ10" s="6">
-        <f t="shared" ref="AQ10" si="70">AM10+1</f>
+      <c r="AX10" s="6">
+        <f t="shared" ref="AX10" si="70">AT10+1</f>
         <v>2028</v>
       </c>
-      <c r="AR10" s="6">
-        <f t="shared" ref="AR10" si="71">AN10+1</f>
+      <c r="AY10" s="6">
+        <f t="shared" ref="AY10" si="71">AU10+1</f>
         <v>2028</v>
       </c>
-      <c r="AS10" s="6">
-        <f t="shared" ref="AS10" si="72">AO10+1</f>
+      <c r="AZ10" s="6">
+        <f t="shared" ref="AZ10" si="72">AV10+1</f>
         <v>2028</v>
       </c>
-      <c r="AT10" s="6">
-        <f t="shared" ref="AT10" si="73">AP10+1</f>
+      <c r="BA10" s="6">
+        <f t="shared" ref="BA10" si="73">AW10+1</f>
         <v>2028</v>
       </c>
-      <c r="AU10" s="6">
-        <f t="shared" ref="AU10" si="74">AQ10+1</f>
+      <c r="BB10" s="6">
+        <f t="shared" ref="BB10" si="74">AX10+1</f>
         <v>2029</v>
       </c>
-      <c r="AV10" s="6">
-        <f t="shared" ref="AV10" si="75">AR10+1</f>
+      <c r="BC10" s="6">
+        <f t="shared" ref="BC10" si="75">AY10+1</f>
         <v>2029</v>
       </c>
-      <c r="AW10" s="6">
-        <f t="shared" ref="AW10" si="76">AS10+1</f>
+      <c r="BD10" s="6">
+        <f t="shared" ref="BD10" si="76">AZ10+1</f>
         <v>2029</v>
       </c>
-      <c r="AX10" s="6">
-        <f t="shared" ref="AX10" si="77">AT10+1</f>
+      <c r="BE10" s="6">
+        <f t="shared" ref="BE10" si="77">BA10+1</f>
         <v>2029</v>
       </c>
-      <c r="AY10" s="6">
-        <f t="shared" ref="AY10" si="78">AU10+1</f>
+      <c r="BF10" s="6">
+        <f t="shared" ref="BF10" si="78">BB10+1</f>
         <v>2030</v>
       </c>
-      <c r="AZ10" s="6">
-        <f t="shared" ref="AZ10" si="79">AV10+1</f>
+      <c r="BG10" s="6">
+        <f t="shared" ref="BG10" si="79">BC10+1</f>
         <v>2030</v>
       </c>
-      <c r="BA10" s="6">
-        <f t="shared" ref="BA10" si="80">AW10+1</f>
+      <c r="BH10" s="6">
+        <f t="shared" ref="BH10" si="80">BD10+1</f>
         <v>2030</v>
       </c>
-      <c r="BB10" s="6">
-        <f t="shared" ref="BB10" si="81">AX10+1</f>
+      <c r="BI10" s="6">
+        <f t="shared" ref="BI10" si="81">BE10+1</f>
         <v>2030</v>
       </c>
-      <c r="BC10" s="6">
-        <f t="shared" ref="BC10" si="82">AY10+1</f>
+      <c r="BJ10" s="6">
+        <f t="shared" ref="BJ10" si="82">BF10+1</f>
         <v>2031</v>
       </c>
-      <c r="BD10" s="6">
-        <f t="shared" ref="BD10" si="83">AZ10+1</f>
+      <c r="BK10" s="6">
+        <f t="shared" ref="BK10" si="83">BG10+1</f>
         <v>2031</v>
       </c>
-      <c r="BE10" s="6">
-        <f t="shared" ref="BE10" si="84">BA10+1</f>
+      <c r="BL10" s="6">
+        <f t="shared" ref="BL10" si="84">BH10+1</f>
         <v>2031</v>
       </c>
-      <c r="BF10" s="6">
-        <f t="shared" ref="BF10" si="85">BB10+1</f>
+      <c r="BM10" s="6">
+        <f t="shared" ref="BM10" si="85">BI10+1</f>
         <v>2031</v>
       </c>
-      <c r="BG10" s="6">
-        <f t="shared" ref="BG10" si="86">BC10+1</f>
+      <c r="BN10" s="6">
+        <f t="shared" ref="BN10" si="86">BJ10+1</f>
         <v>2032</v>
       </c>
-      <c r="BH10" s="6">
-        <f t="shared" ref="BH10" si="87">BD10+1</f>
+      <c r="BO10" s="6">
+        <f t="shared" ref="BO10" si="87">BK10+1</f>
         <v>2032</v>
       </c>
-      <c r="BI10" s="6">
-        <f t="shared" ref="BI10" si="88">BE10+1</f>
+      <c r="BP10" s="6">
+        <f t="shared" ref="BP10" si="88">BL10+1</f>
         <v>2032</v>
       </c>
-      <c r="BJ10" s="6">
-        <f t="shared" ref="BJ10" si="89">BF10+1</f>
+      <c r="BQ10" s="6">
+        <f t="shared" ref="BQ10" si="89">BM10+1</f>
         <v>2032</v>
       </c>
     </row>
-    <row r="11" spans="2:62" x14ac:dyDescent="0.25">
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+    <row r="11" spans="2:69" x14ac:dyDescent="0.25">
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
@@ -1428,670 +1447,687 @@
       <c r="BH11" s="6"/>
       <c r="BI11" s="6"/>
       <c r="BJ11" s="6"/>
+      <c r="BK11" s="6"/>
+      <c r="BL11" s="6"/>
+      <c r="BM11" s="6"/>
+      <c r="BN11" s="6"/>
+      <c r="BO11" s="6"/>
+      <c r="BP11" s="6"/>
+      <c r="BQ11" s="6"/>
     </row>
-    <row r="12" spans="2:62" x14ac:dyDescent="0.25">
-      <c r="C12" s="13">
+    <row r="12" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="B12" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="J12" s="13">
         <v>43100</v>
       </c>
-      <c r="D12" s="13">
-        <f>EOMONTH(C12, 3)</f>
+      <c r="K12" s="13">
+        <f>EOMONTH(J12, 3)</f>
         <v>43190</v>
       </c>
-      <c r="E12" s="13">
-        <f t="shared" ref="E12:BJ12" si="90">EOMONTH(D12, 3)</f>
+      <c r="L12" s="13">
+        <f t="shared" ref="L12:BQ12" si="90">EOMONTH(K12, 3)</f>
         <v>43281</v>
       </c>
-      <c r="F12" s="13">
+      <c r="M12" s="13">
         <f t="shared" si="90"/>
         <v>43373</v>
       </c>
-      <c r="G12" s="13">
+      <c r="N12" s="13">
         <f t="shared" si="90"/>
         <v>43465</v>
       </c>
-      <c r="H12" s="13">
+      <c r="O12" s="13">
         <f t="shared" si="90"/>
         <v>43555</v>
       </c>
-      <c r="I12" s="13">
+      <c r="P12" s="13">
         <f t="shared" si="90"/>
         <v>43646</v>
       </c>
-      <c r="J12" s="13">
+      <c r="Q12" s="13">
         <f t="shared" si="90"/>
         <v>43738</v>
       </c>
-      <c r="K12" s="13">
+      <c r="R12" s="13">
         <f t="shared" si="90"/>
         <v>43830</v>
       </c>
-      <c r="L12" s="13">
+      <c r="S12" s="13">
         <f t="shared" si="90"/>
         <v>43921</v>
       </c>
-      <c r="M12" s="13">
+      <c r="T12" s="13">
         <f t="shared" si="90"/>
         <v>44012</v>
       </c>
-      <c r="N12" s="13">
+      <c r="U12" s="13">
         <f t="shared" si="90"/>
         <v>44104</v>
       </c>
-      <c r="O12" s="13">
+      <c r="V12" s="13">
         <f t="shared" si="90"/>
         <v>44196</v>
       </c>
-      <c r="P12" s="13">
+      <c r="W12" s="13">
         <f t="shared" si="90"/>
         <v>44286</v>
       </c>
-      <c r="Q12" s="13">
+      <c r="X12" s="13">
         <f t="shared" si="90"/>
         <v>44377</v>
       </c>
-      <c r="R12" s="13">
+      <c r="Y12" s="13">
         <f t="shared" si="90"/>
         <v>44469</v>
       </c>
-      <c r="S12" s="13">
+      <c r="Z12" s="13">
         <f t="shared" si="90"/>
         <v>44561</v>
       </c>
-      <c r="T12" s="13">
+      <c r="AA12" s="13">
         <f t="shared" si="90"/>
         <v>44651</v>
       </c>
-      <c r="U12" s="13">
+      <c r="AB12" s="13">
         <f t="shared" si="90"/>
         <v>44742</v>
       </c>
-      <c r="V12" s="13">
+      <c r="AC12" s="13">
         <f t="shared" si="90"/>
         <v>44834</v>
       </c>
-      <c r="W12" s="13">
+      <c r="AD12" s="13">
         <f t="shared" si="90"/>
         <v>44926</v>
       </c>
-      <c r="X12" s="13">
+      <c r="AE12" s="13">
         <f t="shared" si="90"/>
         <v>45016</v>
       </c>
-      <c r="Y12" s="13">
+      <c r="AF12" s="13">
         <f t="shared" si="90"/>
         <v>45107</v>
       </c>
-      <c r="Z12" s="13">
+      <c r="AG12" s="13">
         <f t="shared" si="90"/>
         <v>45199</v>
       </c>
-      <c r="AA12" s="13">
+      <c r="AH12" s="13">
         <f t="shared" si="90"/>
         <v>45291</v>
       </c>
-      <c r="AB12" s="13">
+      <c r="AI12" s="13">
         <f t="shared" si="90"/>
         <v>45382</v>
       </c>
-      <c r="AC12" s="13">
+      <c r="AJ12" s="13">
         <f t="shared" si="90"/>
         <v>45473</v>
       </c>
-      <c r="AD12" s="13">
+      <c r="AK12" s="13">
         <f t="shared" si="90"/>
         <v>45565</v>
       </c>
-      <c r="AE12" s="13">
+      <c r="AL12" s="13">
         <f t="shared" si="90"/>
         <v>45657</v>
       </c>
-      <c r="AF12" s="13">
+      <c r="AM12" s="13">
         <f t="shared" si="90"/>
         <v>45747</v>
       </c>
-      <c r="AG12" s="13">
+      <c r="AN12" s="13">
         <f t="shared" si="90"/>
         <v>45838</v>
       </c>
-      <c r="AH12" s="13">
+      <c r="AO12" s="13">
         <f t="shared" si="90"/>
         <v>45930</v>
       </c>
-      <c r="AI12" s="13">
+      <c r="AP12" s="13">
         <f t="shared" si="90"/>
         <v>46022</v>
       </c>
-      <c r="AJ12" s="13">
+      <c r="AQ12" s="13">
         <f t="shared" si="90"/>
         <v>46112</v>
       </c>
-      <c r="AK12" s="13">
+      <c r="AR12" s="13">
         <f t="shared" si="90"/>
         <v>46203</v>
       </c>
-      <c r="AL12" s="13">
+      <c r="AS12" s="13">
         <f t="shared" si="90"/>
         <v>46295</v>
       </c>
-      <c r="AM12" s="13">
+      <c r="AT12" s="13">
         <f t="shared" si="90"/>
         <v>46387</v>
       </c>
-      <c r="AN12" s="13">
+      <c r="AU12" s="13">
         <f t="shared" si="90"/>
         <v>46477</v>
       </c>
-      <c r="AO12" s="13">
+      <c r="AV12" s="13">
         <f t="shared" si="90"/>
         <v>46568</v>
       </c>
-      <c r="AP12" s="13">
+      <c r="AW12" s="13">
         <f t="shared" si="90"/>
         <v>46660</v>
       </c>
-      <c r="AQ12" s="13">
+      <c r="AX12" s="13">
         <f t="shared" si="90"/>
         <v>46752</v>
       </c>
-      <c r="AR12" s="13">
+      <c r="AY12" s="13">
         <f t="shared" si="90"/>
         <v>46843</v>
       </c>
-      <c r="AS12" s="13">
+      <c r="AZ12" s="13">
         <f t="shared" si="90"/>
         <v>46934</v>
       </c>
-      <c r="AT12" s="13">
+      <c r="BA12" s="13">
         <f t="shared" si="90"/>
         <v>47026</v>
       </c>
-      <c r="AU12" s="13">
+      <c r="BB12" s="13">
         <f t="shared" si="90"/>
         <v>47118</v>
       </c>
-      <c r="AV12" s="13">
+      <c r="BC12" s="13">
         <f t="shared" si="90"/>
         <v>47208</v>
       </c>
-      <c r="AW12" s="13">
+      <c r="BD12" s="13">
         <f t="shared" si="90"/>
         <v>47299</v>
       </c>
-      <c r="AX12" s="13">
+      <c r="BE12" s="13">
         <f t="shared" si="90"/>
         <v>47391</v>
       </c>
-      <c r="AY12" s="13">
+      <c r="BF12" s="13">
         <f t="shared" si="90"/>
         <v>47483</v>
       </c>
-      <c r="AZ12" s="13">
+      <c r="BG12" s="13">
         <f t="shared" si="90"/>
         <v>47573</v>
       </c>
-      <c r="BA12" s="13">
+      <c r="BH12" s="13">
         <f t="shared" si="90"/>
         <v>47664</v>
       </c>
-      <c r="BB12" s="13">
+      <c r="BI12" s="13">
         <f t="shared" si="90"/>
         <v>47756</v>
       </c>
-      <c r="BC12" s="13">
+      <c r="BJ12" s="13">
         <f t="shared" si="90"/>
         <v>47848</v>
       </c>
-      <c r="BD12" s="13">
+      <c r="BK12" s="13">
         <f t="shared" si="90"/>
         <v>47938</v>
       </c>
-      <c r="BE12" s="13">
+      <c r="BL12" s="13">
         <f t="shared" si="90"/>
         <v>48029</v>
       </c>
-      <c r="BF12" s="13">
+      <c r="BM12" s="13">
         <f t="shared" si="90"/>
         <v>48121</v>
       </c>
-      <c r="BG12" s="13">
+      <c r="BN12" s="13">
         <f t="shared" si="90"/>
         <v>48213</v>
       </c>
-      <c r="BH12" s="13">
+      <c r="BO12" s="13">
         <f t="shared" si="90"/>
         <v>48304</v>
       </c>
-      <c r="BI12" s="13">
+      <c r="BP12" s="13">
         <f t="shared" si="90"/>
         <v>48395</v>
       </c>
-      <c r="BJ12" s="13">
+      <c r="BQ12" s="13">
         <f t="shared" si="90"/>
         <v>48487</v>
       </c>
     </row>
-    <row r="14" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="24">
         <f>3087.984-1038.847</f>
         <v>2049.1369999999997</v>
       </c>
-      <c r="D15" s="24">
+      <c r="K15" s="24">
         <f>3685.702-1185.46</f>
         <v>2500.2420000000002</v>
       </c>
-      <c r="E15" s="24">
+      <c r="L15" s="24">
         <f>3201.325-1000.436</f>
         <v>2200.8889999999997</v>
       </c>
-      <c r="F15" s="24">
-        <f>13450.803-SUM(C15:E15,C16:F16)</f>
+      <c r="M15" s="24">
+        <f>13450.803-SUM(J15:L15,J16:M16)</f>
         <v>2653.2700000000004</v>
       </c>
-      <c r="G15" s="24">
+      <c r="N15" s="24">
         <f>3775.509-662.094</f>
         <v>3113.415</v>
       </c>
-      <c r="H15" s="24">
+      <c r="O15" s="24">
         <f>3706.91-813.955</f>
         <v>2892.9549999999999</v>
       </c>
-      <c r="I15" s="24">
-        <f>4458.446-I16</f>
+      <c r="P15" s="24">
+        <f>4458.446-P16</f>
         <v>3398.9179999999997</v>
       </c>
-      <c r="J15" s="24">
-        <f>16165.333-SUM(G15:I15,G16:J16)</f>
+      <c r="Q15" s="24">
+        <f>16165.333-SUM(N15:P15,N16:Q16)</f>
         <v>3206.1259999999984</v>
       </c>
-      <c r="K15" s="24">
-        <f>4458.694-K16</f>
+      <c r="R15" s="24">
+        <f>4458.694-R16</f>
         <v>3269.6540000000005</v>
       </c>
-      <c r="L15" s="24">
+      <c r="S15" s="24">
         <f>4645.682-1206.644</f>
         <v>3439.0379999999996</v>
       </c>
-      <c r="M15" s="24">
-        <f>5445.748-M16</f>
+      <c r="T15" s="24">
+        <f>5445.748-T16</f>
         <v>4539.0859999999993</v>
       </c>
-      <c r="N15" s="24">
-        <f>20806.121-SUM(K15:M15,K16:N16)</f>
+      <c r="U15" s="24">
+        <f>20806.121-SUM(R15:T15,R16:U16)</f>
         <v>5293.2569999999996</v>
       </c>
-      <c r="O15" s="24">
+      <c r="V15" s="24">
         <f>4802.835-815.503</f>
         <v>3987.3319999999999</v>
       </c>
-      <c r="P15" s="24">
+      <c r="W15" s="24">
         <f>5102.67-1214.372</f>
         <v>3888.2979999999998</v>
       </c>
-      <c r="Q15" s="24">
+      <c r="X15" s="24">
         <f>5981.462-980.845</f>
         <v>5000.6170000000002</v>
       </c>
-      <c r="R15" s="24">
+      <c r="Y15" s="24">
         <f>6873.116-1023.574</f>
         <v>5849.5420000000004</v>
       </c>
-      <c r="S15" s="24">
+      <c r="Z15" s="24">
         <f>6695.778-1085.445</f>
         <v>5610.3330000000005</v>
       </c>
-      <c r="T15" s="24">
+      <c r="AA15" s="24">
         <f>6647.617-1360.155</f>
         <v>5287.4620000000004</v>
       </c>
-      <c r="U15" s="24">
+      <c r="AB15" s="24">
         <f>6935.976-1338.893</f>
         <v>5597.0829999999996</v>
       </c>
-      <c r="V15" s="24">
+      <c r="AC15" s="24">
         <f>7000.379-1095.098</f>
         <v>5905.2809999999999</v>
       </c>
-      <c r="W15" s="24">
+      <c r="AD15" s="24">
         <v>5088.2079999999996</v>
       </c>
-      <c r="X15" s="24">
+      <c r="AE15" s="24">
         <v>5945.1509999999998</v>
       </c>
-      <c r="Y15" s="24">
+      <c r="AF15" s="24">
         <f>7893.625-1318.214</f>
         <v>6575.4110000000001</v>
       </c>
-      <c r="Z15" s="24">
-        <f>22589.657-SUM(W15:Y15)</f>
+      <c r="AG15" s="24">
+        <f>22589.657-SUM(AD15:AF15)</f>
         <v>4980.8869999999988</v>
       </c>
-      <c r="AA15" s="24">
+      <c r="AH15" s="24">
         <v>4424.1080000000002</v>
       </c>
-      <c r="AB15" s="24">
+      <c r="AI15" s="24">
         <v>4895.5889999999999</v>
       </c>
     </row>
-    <row r="16" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="24">
         <v>1038.847</v>
       </c>
-      <c r="D16" s="24">
+      <c r="K16" s="24">
         <v>1185.46</v>
       </c>
-      <c r="E16" s="24">
+      <c r="L16" s="24">
         <v>1000.436</v>
       </c>
-      <c r="F16" s="24">
-        <f>4047.265-SUM(C16:E16)</f>
+      <c r="M16" s="24">
+        <f>4047.265-SUM(J16:L16)</f>
         <v>822.52199999999993</v>
       </c>
-      <c r="G16" s="24">
+      <c r="N16" s="24">
         <v>662.09400000000005</v>
       </c>
-      <c r="H16" s="24">
+      <c r="O16" s="24">
         <v>813.95500000000004</v>
       </c>
-      <c r="I16" s="24">
+      <c r="P16" s="24">
         <v>1059.528</v>
       </c>
-      <c r="J16" s="24">
-        <f>3553.919-SUM(G16:I16)</f>
+      <c r="Q16" s="24">
+        <f>3553.919-SUM(N16:P16)</f>
         <v>1018.3419999999996</v>
       </c>
-      <c r="K16" s="24">
+      <c r="R16" s="24">
         <v>1189.04</v>
       </c>
-      <c r="L16" s="24">
+      <c r="S16" s="24">
         <v>1206.644</v>
       </c>
-      <c r="M16" s="24">
+      <c r="T16" s="24">
         <v>906.66200000000003</v>
       </c>
-      <c r="N16" s="24">
-        <f>4265.086-SUM(K16:M16)</f>
+      <c r="U16" s="24">
+        <f>4265.086-SUM(R16:T16)</f>
         <v>962.73999999999978</v>
       </c>
-      <c r="O16" s="24">
+      <c r="V16" s="24">
         <v>815.50300000000004</v>
       </c>
-      <c r="P16" s="24">
+      <c r="W16" s="24">
         <v>1214.3720000000001</v>
       </c>
-      <c r="Q16" s="24">
+      <c r="X16" s="24">
         <v>980.84500000000003</v>
       </c>
-      <c r="R16" s="24">
-        <f>4034.294-SUM(O16:Q16)</f>
+      <c r="Y16" s="24">
+        <f>4034.294-SUM(V16:X16)</f>
         <v>1023.5739999999996</v>
       </c>
-      <c r="S16" s="24">
+      <c r="Z16" s="24">
         <v>1085.4449999999999</v>
       </c>
-      <c r="T16" s="24">
+      <c r="AA16" s="24">
         <v>1360.155</v>
       </c>
-      <c r="U16" s="24">
+      <c r="AB16" s="24">
         <v>1338.893</v>
       </c>
-      <c r="V16" s="24">
-        <f>4879.591-SUM(S16:U16)</f>
+      <c r="AC16" s="24">
+        <f>4879.591-SUM(Z16:AB16)</f>
         <v>1095.0980000000004</v>
       </c>
-      <c r="W16" s="24">
+      <c r="AD16" s="24">
         <v>1061.1489999999999</v>
       </c>
-      <c r="X16" s="24">
+      <c r="AE16" s="24">
         <v>1395.3030000000001</v>
       </c>
-      <c r="Y16" s="24">
+      <c r="AF16" s="24">
         <v>1318.2139999999999</v>
       </c>
-      <c r="Z16" s="24">
-        <f>11086.062-SUM(W16:Y16)</f>
+      <c r="AG16" s="24">
+        <f>11086.062-SUM(AD16:AF16)</f>
         <v>7311.3959999999997</v>
       </c>
-      <c r="AA16" s="24">
+      <c r="AH16" s="24">
         <v>4227.2470000000003</v>
       </c>
-      <c r="AB16" s="24">
+      <c r="AI16" s="24">
         <v>5098.2219999999998</v>
       </c>
     </row>
-    <row r="17" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="24">
-        <v>0</v>
-      </c>
-      <c r="D17" s="24">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="24">
+        <v>0</v>
+      </c>
+      <c r="K17" s="24">
         <v>41.502000000000002</v>
       </c>
-      <c r="E17" s="24">
+      <c r="L17" s="24">
         <v>188.33799999999999</v>
       </c>
-      <c r="F17" s="24">
-        <f>399.569-SUM(C17:E17)</f>
+      <c r="M17" s="24">
+        <f>399.569-SUM(J17:L17)</f>
         <v>169.72900000000001</v>
       </c>
-      <c r="G17" s="24">
+      <c r="N17" s="24">
         <v>202.14099999999999</v>
       </c>
-      <c r="H17" s="24">
+      <c r="O17" s="24">
         <v>496.21699999999998</v>
       </c>
-      <c r="I17" s="24">
+      <c r="P17" s="24">
         <v>131.37799999999999</v>
       </c>
-      <c r="J17" s="24">
-        <f>1407.256-SUM(G17:I17)</f>
+      <c r="Q17" s="24">
+        <f>1407.256-SUM(N17:P17)</f>
         <v>577.52000000000021</v>
       </c>
-      <c r="K17" s="24">
+      <c r="R17" s="24">
         <v>52.734000000000002</v>
       </c>
-      <c r="L17" s="24">
+      <c r="S17" s="24">
         <v>189.38300000000001</v>
       </c>
-      <c r="M17" s="24">
+      <c r="T17" s="24">
         <v>507.94099999999997</v>
       </c>
-      <c r="N17" s="24">
-        <f>789.078-SUM(K17:M17)</f>
+      <c r="U17" s="24">
+        <f>789.078-SUM(R17:T17)</f>
         <v>39.019999999999982</v>
       </c>
-      <c r="O17" s="24">
+      <c r="V17" s="24">
         <v>66.816999999999993</v>
       </c>
-      <c r="P17" s="24">
+      <c r="W17" s="24">
         <v>19.175000000000001</v>
       </c>
-      <c r="Q17" s="24">
+      <c r="X17" s="24">
         <v>198.721</v>
       </c>
-      <c r="R17" s="24">
-        <v>0</v>
-      </c>
-      <c r="S17" s="24">
-        <v>0</v>
-      </c>
-      <c r="T17" s="24">
+      <c r="Y17" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="24">
         <v>198.203</v>
       </c>
-      <c r="U17" s="24">
-        <v>0</v>
-      </c>
-      <c r="V17" s="24">
+      <c r="AB17" s="24">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="24">
         <v>262.74200000000002</v>
       </c>
-      <c r="W17" s="24">
+      <c r="AD17" s="24">
         <v>366.899</v>
       </c>
-      <c r="X17" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="24">
+      <c r="AE17" s="24">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="24">
         <v>65.582999999999998</v>
       </c>
-      <c r="Z17" s="24">
-        <f>1132.794-SUM(W17:Y17)</f>
+      <c r="AG17" s="24">
+        <f>1132.794-SUM(AD17:AF17)</f>
         <v>700.31200000000013</v>
       </c>
-      <c r="AA17" s="24">
+      <c r="AH17" s="24">
         <v>656.70799999999997</v>
       </c>
-      <c r="AB17" s="24">
+      <c r="AI17" s="24">
         <v>745.70500000000004</v>
       </c>
     </row>
-    <row r="18" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="18">
-        <f>SUM(C15:C17)</f>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="18">
+        <f>SUM(J15:J17)</f>
         <v>3087.9839999999995</v>
       </c>
-      <c r="D18" s="18">
-        <f t="shared" ref="D18:BJ18" si="91">SUM(D15:D17)</f>
+      <c r="K18" s="18">
+        <f t="shared" ref="K18:BQ18" si="91">SUM(K15:K17)</f>
         <v>3727.2040000000002</v>
       </c>
-      <c r="E18" s="18">
+      <c r="L18" s="18">
         <f t="shared" si="91"/>
         <v>3389.663</v>
       </c>
-      <c r="F18" s="18">
+      <c r="M18" s="18">
         <f t="shared" si="91"/>
         <v>3645.5210000000002</v>
       </c>
-      <c r="G18" s="18">
+      <c r="N18" s="18">
         <f t="shared" si="91"/>
         <v>3977.65</v>
       </c>
-      <c r="H18" s="18">
+      <c r="O18" s="18">
         <f t="shared" si="91"/>
         <v>4203.1269999999995</v>
       </c>
-      <c r="I18" s="18">
+      <c r="P18" s="18">
         <f t="shared" si="91"/>
         <v>4589.8239999999996</v>
       </c>
-      <c r="J18" s="18">
+      <c r="Q18" s="18">
         <f t="shared" si="91"/>
         <v>4801.9879999999985</v>
       </c>
-      <c r="K18" s="18">
+      <c r="R18" s="18">
         <f t="shared" si="91"/>
         <v>4511.4280000000008</v>
       </c>
-      <c r="L18" s="18">
+      <c r="S18" s="18">
         <f t="shared" si="91"/>
         <v>4835.0649999999996</v>
       </c>
-      <c r="M18" s="18">
+      <c r="T18" s="18">
         <f t="shared" si="91"/>
         <v>5953.6889999999994</v>
       </c>
-      <c r="N18" s="18">
+      <c r="U18" s="18">
         <f t="shared" si="91"/>
         <v>6295.0169999999998</v>
       </c>
-      <c r="O18" s="18">
+      <c r="V18" s="18">
         <f t="shared" si="91"/>
         <v>4869.652</v>
       </c>
-      <c r="P18" s="18">
+      <c r="W18" s="18">
         <f t="shared" si="91"/>
         <v>5121.8450000000003</v>
       </c>
-      <c r="Q18" s="18">
+      <c r="X18" s="18">
         <f t="shared" si="91"/>
         <v>6180.1830000000009</v>
       </c>
-      <c r="R18" s="18">
+      <c r="Y18" s="18">
         <f t="shared" si="91"/>
         <v>6873.116</v>
       </c>
-      <c r="S18" s="18">
+      <c r="Z18" s="18">
         <f t="shared" si="91"/>
         <v>6695.7780000000002</v>
       </c>
-      <c r="T18" s="18">
+      <c r="AA18" s="18">
         <f t="shared" si="91"/>
         <v>6845.8200000000006</v>
       </c>
-      <c r="U18" s="18">
+      <c r="AB18" s="18">
         <f t="shared" si="91"/>
         <v>6935.9759999999997</v>
       </c>
-      <c r="V18" s="18">
+      <c r="AC18" s="18">
         <f t="shared" si="91"/>
         <v>7263.121000000001</v>
       </c>
-      <c r="W18" s="18">
+      <c r="AD18" s="18">
         <f t="shared" si="91"/>
         <v>6516.2560000000003</v>
       </c>
-      <c r="X18" s="18">
+      <c r="AE18" s="18">
         <f t="shared" si="91"/>
         <v>7340.4539999999997</v>
       </c>
-      <c r="Y18" s="18">
+      <c r="AF18" s="18">
         <f t="shared" si="91"/>
         <v>7959.2079999999996</v>
       </c>
-      <c r="Z18" s="18">
+      <c r="AG18" s="18">
         <f t="shared" si="91"/>
         <v>12992.594999999999</v>
       </c>
-      <c r="AA18" s="18">
+      <c r="AH18" s="18">
         <f t="shared" si="91"/>
         <v>9308.0630000000001</v>
       </c>
-      <c r="AB18" s="18">
+      <c r="AI18" s="18">
         <f t="shared" si="91"/>
         <v>10739.516</v>
       </c>
-      <c r="AC18" s="18">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
-      <c r="AD18" s="18">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
-      <c r="AE18" s="18">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
-      <c r="AF18" s="18">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
-      <c r="AG18" s="18">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
-      <c r="AH18" s="18">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
-      <c r="AI18" s="18">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
       <c r="AJ18" s="18">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -2200,15 +2236,36 @@
         <f t="shared" si="91"/>
         <v>0</v>
       </c>
+      <c r="BK18" s="18">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="BL18" s="18">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="BM18" s="18">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="BN18" s="18">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="BO18" s="18">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="BP18" s="18">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="BQ18" s="18">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="2:62" x14ac:dyDescent="0.25">
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
+    <row r="19" spans="2:69" x14ac:dyDescent="0.25">
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
@@ -2228,18 +2285,18 @@
       <c r="Z19" s="8"/>
       <c r="AA19" s="8"/>
       <c r="AB19" s="8"/>
+      <c r="AC19" s="8"/>
+      <c r="AD19" s="8"/>
+      <c r="AE19" s="8"/>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="8"/>
+      <c r="AH19" s="8"/>
+      <c r="AI19" s="8"/>
     </row>
-    <row r="20" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
@@ -2259,425 +2316,432 @@
       <c r="Z20" s="8"/>
       <c r="AA20" s="8"/>
       <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="8"/>
+      <c r="AI20" s="8"/>
     </row>
-    <row r="21" spans="2:62" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:69" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="24">
         <f>1593.268-513.357</f>
         <v>1079.9110000000001</v>
       </c>
-      <c r="D21" s="24">
+      <c r="K21" s="24">
         <f>2072.124-488.221</f>
         <v>1583.9029999999998</v>
       </c>
-      <c r="E21" s="24">
+      <c r="L21" s="24">
         <f>1714.701-463.513</f>
         <v>1251.1880000000001</v>
       </c>
-      <c r="F21" s="24">
-        <f>7120.731-SUM(C21:E21,C22:F22)</f>
+      <c r="M21" s="24">
+        <f>7120.731-SUM(J21:L21,J22:M22)</f>
         <v>1481.5619999999999</v>
       </c>
-      <c r="G21" s="24">
+      <c r="N21" s="24">
         <f>1723.281-325.152</f>
         <v>1398.1289999999999</v>
       </c>
-      <c r="H21" s="24">
+      <c r="O21" s="24">
         <f>1567.861-303.813</f>
         <v>1264.0480000000002</v>
       </c>
-      <c r="I21" s="24">
+      <c r="P21" s="24">
         <f>2009.799-353.348</f>
         <v>1656.451</v>
       </c>
-      <c r="J21" s="24">
-        <f>7038.717-SUM(G21:I21,G22:J22)</f>
+      <c r="Q21" s="24">
+        <f>7038.717-SUM(N21:P21,N22:Q22)</f>
         <v>1345.8619999999983</v>
       </c>
-      <c r="K21" s="24">
+      <c r="R21" s="24">
         <f>1844.48-349.615</f>
         <v>1494.865</v>
       </c>
-      <c r="L21" s="24">
+      <c r="S21" s="24">
         <f>2464.697-402.354</f>
         <v>2062.3430000000003</v>
       </c>
-      <c r="M21" s="24">
-        <f>2486.353-M22</f>
+      <c r="T21" s="24">
+        <f>2486.353-T22</f>
         <v>2165.9250000000002</v>
       </c>
-      <c r="N21" s="24">
-        <f>9568.553-SUM(K21:M21,K22:N22)</f>
+      <c r="U21" s="24">
+        <f>9568.553-SUM(R21:T21,R22:U22)</f>
         <v>2387.4249999999993</v>
       </c>
-      <c r="O21" s="24">
+      <c r="V21" s="24">
         <f>2294.294-316.637</f>
         <v>1977.6569999999999</v>
       </c>
-      <c r="P21" s="24">
+      <c r="W21" s="24">
         <f>2211.649-354.664</f>
         <v>1856.9849999999999</v>
       </c>
-      <c r="Q21" s="24">
+      <c r="X21" s="24">
         <f>2764.765-408.161</f>
         <v>2356.6039999999998</v>
       </c>
-      <c r="R21" s="24">
+      <c r="Y21" s="24">
         <f>2914.802-423.437</f>
         <v>2491.3650000000002</v>
       </c>
-      <c r="S21" s="24">
+      <c r="Z21" s="24">
         <f>2728.057-343.65</f>
         <v>2384.4069999999997</v>
       </c>
-      <c r="T21" s="24">
+      <c r="AA21" s="24">
         <f>2646.462-399.086</f>
         <v>2247.3760000000002</v>
       </c>
-      <c r="U21" s="24">
+      <c r="AB21" s="24">
         <f>2879.462-369.562</f>
         <v>2509.9</v>
       </c>
-      <c r="V21" s="24">
+      <c r="AC21" s="24">
         <f>2651.817-390.601</f>
         <v>2261.2159999999999</v>
       </c>
-      <c r="W21" s="24">
+      <c r="AD21" s="24">
         <v>2415.944</v>
       </c>
-      <c r="X21" s="24">
+      <c r="AE21" s="24">
         <v>2202.75</v>
       </c>
-      <c r="Y21" s="24">
+      <c r="AF21" s="24">
         <f>3202.87-371.359</f>
         <v>2831.511</v>
       </c>
-      <c r="Z21" s="24">
-        <f>9715.517-SUM(W21:Y21)</f>
+      <c r="AG21" s="24">
+        <f>9715.517-SUM(AD21:AF21)</f>
         <v>2265.3119999999999</v>
       </c>
-      <c r="AA21" s="24">
+      <c r="AH21" s="24">
         <v>1781.345</v>
       </c>
-      <c r="AB21" s="24">
+      <c r="AI21" s="24">
         <v>2347.6950000000002</v>
       </c>
     </row>
-    <row r="22" spans="2:62" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:69" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="24">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="24">
         <v>513.35699999999997</v>
       </c>
-      <c r="D22" s="24">
+      <c r="K22" s="24">
         <v>488.221</v>
       </c>
-      <c r="E22" s="24">
+      <c r="L22" s="24">
         <v>463.51299999999998</v>
       </c>
-      <c r="F22" s="24">
-        <f>1724.167-SUM(C22:E22)</f>
+      <c r="M22" s="24">
+        <f>1724.167-SUM(J22:L22)</f>
         <v>259.07600000000002</v>
       </c>
-      <c r="G22" s="24">
+      <c r="N22" s="24">
         <v>325.15199999999999</v>
       </c>
-      <c r="H22" s="24">
+      <c r="O22" s="24">
         <v>303.81299999999999</v>
       </c>
-      <c r="I22" s="24">
+      <c r="P22" s="24">
         <v>353.34800000000001</v>
       </c>
-      <c r="J22" s="24">
-        <f>1374.227-SUM(G22:I22)</f>
+      <c r="Q22" s="24">
+        <f>1374.227-SUM(N22:P22)</f>
         <v>391.91400000000021</v>
       </c>
-      <c r="K22" s="24">
+      <c r="R22" s="24">
         <v>349.61500000000001</v>
       </c>
-      <c r="L22" s="24">
+      <c r="S22" s="24">
         <v>402.35399999999998</v>
       </c>
-      <c r="M22" s="24">
+      <c r="T22" s="24">
         <v>320.428</v>
       </c>
-      <c r="N22" s="24">
-        <f>1457.995-SUM(K22:M22)</f>
+      <c r="U22" s="24">
+        <f>1457.995-SUM(R22:T22)</f>
         <v>385.59799999999996</v>
       </c>
-      <c r="O22" s="24">
+      <c r="V22" s="24">
         <v>316.637</v>
       </c>
-      <c r="P22" s="24">
+      <c r="W22" s="24">
         <v>354.66399999999999</v>
       </c>
-      <c r="Q22" s="24">
+      <c r="X22" s="24">
         <v>408.161</v>
       </c>
-      <c r="R22" s="24">
-        <f>1502.899-SUM(O22:Q22)</f>
+      <c r="Y22" s="24">
+        <f>1502.899-SUM(V22:X22)</f>
         <v>423.4369999999999</v>
       </c>
-      <c r="S22" s="24">
+      <c r="Z22" s="24">
         <v>343.65</v>
       </c>
-      <c r="T22" s="24">
+      <c r="AA22" s="24">
         <v>399.08600000000001</v>
       </c>
-      <c r="U22" s="24">
+      <c r="AB22" s="24">
         <v>369.56200000000001</v>
       </c>
-      <c r="V22" s="24">
-        <f>1502.899-SUM(S22:U22)</f>
+      <c r="AC22" s="24">
+        <f>1502.899-SUM(Z22:AB22)</f>
         <v>390.60099999999989</v>
       </c>
-      <c r="W22" s="24">
+      <c r="AD22" s="24">
         <v>319.10199999999998</v>
       </c>
-      <c r="X22" s="24">
+      <c r="AE22" s="24">
         <v>397.553</v>
       </c>
-      <c r="Y22" s="24">
+      <c r="AF22" s="24">
         <v>371.35899999999998</v>
       </c>
-      <c r="Z22" s="24">
-        <f>3386.122-SUM(W22:Y22)</f>
+      <c r="AG22" s="24">
+        <f>3386.122-SUM(AD22:AF22)</f>
         <v>2298.1080000000002</v>
       </c>
-      <c r="AA22" s="24">
+      <c r="AH22" s="24">
         <v>1726.961</v>
       </c>
-      <c r="AB22" s="24">
+      <c r="AI22" s="24">
         <v>2462.2600000000002</v>
       </c>
     </row>
-    <row r="23" spans="2:62" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:69" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="24">
-        <v>0</v>
-      </c>
-      <c r="D23" s="24">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="24">
+        <v>0</v>
+      </c>
+      <c r="K23" s="24">
         <v>10.223000000000001</v>
       </c>
-      <c r="E23" s="24">
+      <c r="L23" s="24">
         <v>92.278999999999996</v>
       </c>
-      <c r="F23" s="24">
-        <f>191.192-SUM(C23:E23)</f>
+      <c r="M23" s="24">
+        <f>191.192-SUM(J23:L23)</f>
         <v>88.690000000000012</v>
       </c>
-      <c r="G23" s="24">
+      <c r="N23" s="24">
         <v>88.566000000000003</v>
       </c>
-      <c r="H23" s="24">
+      <c r="O23" s="24">
         <v>289.06</v>
       </c>
-      <c r="I23" s="24">
+      <c r="P23" s="24">
         <v>54.817999999999998</v>
       </c>
-      <c r="J23" s="24">
-        <f>637.402-SUM(G23:I23)</f>
+      <c r="Q23" s="24">
+        <f>637.402-SUM(N23:P23)</f>
         <v>204.95800000000008</v>
       </c>
-      <c r="K23" s="24">
+      <c r="R23" s="24">
         <v>65.301000000000002</v>
       </c>
-      <c r="L23" s="24">
+      <c r="S23" s="24">
         <f>75.197</f>
         <v>75.197000000000003</v>
       </c>
-      <c r="M23" s="24">
+      <c r="T23" s="24">
         <v>72.662999999999997</v>
       </c>
-      <c r="N23" s="24">
-        <f>224.671-SUM(K23:M23)</f>
+      <c r="U23" s="24">
+        <f>224.671-SUM(R23:T23)</f>
         <v>11.509999999999991</v>
       </c>
-      <c r="O23" s="24">
+      <c r="V23" s="24">
         <v>9.5350000000000001</v>
       </c>
-      <c r="P23" s="24">
+      <c r="W23" s="24">
         <v>7.2050000000000001</v>
       </c>
-      <c r="Q23" s="24">
+      <c r="X23" s="24">
         <v>60.915999999999997</v>
       </c>
-      <c r="R23" s="24">
-        <v>0</v>
-      </c>
-      <c r="S23" s="24">
-        <v>0</v>
-      </c>
-      <c r="T23" s="24">
+      <c r="Y23" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="24">
         <v>16.748000000000001</v>
       </c>
-      <c r="U23" s="24">
-        <v>0</v>
-      </c>
-      <c r="V23" s="24">
+      <c r="AB23" s="24">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="24">
         <v>143.768</v>
       </c>
-      <c r="W23" s="24">
+      <c r="AD23" s="24">
         <v>57.405999999999999</v>
       </c>
-      <c r="X23" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="24">
+      <c r="AE23" s="24">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="24">
         <v>21.692</v>
       </c>
-      <c r="Z23" s="24">
-        <f>395.803-SUM(W23:Y23)</f>
+      <c r="AG23" s="24">
+        <f>395.803-SUM(AD23:AF23)</f>
         <v>316.70499999999998</v>
       </c>
-      <c r="AA23" s="24">
+      <c r="AH23" s="24">
         <v>276.59500000000003</v>
       </c>
-      <c r="AB23" s="24">
+      <c r="AI23" s="24">
         <v>347.19900000000001</v>
       </c>
     </row>
-    <row r="24" spans="2:62" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:69" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="19">
-        <f>SUM(C21:C23)</f>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="19">
+        <f>SUM(J21:J23)</f>
         <v>1593.268</v>
       </c>
-      <c r="D24" s="19">
-        <f t="shared" ref="D24:BJ24" si="92">SUM(D21:D23)</f>
+      <c r="K24" s="19">
+        <f t="shared" ref="K24:BQ24" si="92">SUM(K21:K23)</f>
         <v>2082.3469999999998</v>
       </c>
-      <c r="E24" s="19">
+      <c r="L24" s="19">
         <f t="shared" si="92"/>
         <v>1806.98</v>
       </c>
-      <c r="F24" s="19">
+      <c r="M24" s="19">
         <f t="shared" si="92"/>
         <v>1829.328</v>
       </c>
-      <c r="G24" s="19">
+      <c r="N24" s="19">
         <f t="shared" si="92"/>
         <v>1811.847</v>
       </c>
-      <c r="H24" s="19">
+      <c r="O24" s="19">
         <f t="shared" si="92"/>
         <v>1856.9210000000003</v>
       </c>
-      <c r="I24" s="19">
+      <c r="P24" s="19">
         <f t="shared" si="92"/>
         <v>2064.6170000000002</v>
       </c>
-      <c r="J24" s="19">
+      <c r="Q24" s="19">
         <f t="shared" si="92"/>
         <v>1942.7339999999986</v>
       </c>
-      <c r="K24" s="19">
+      <c r="R24" s="19">
         <f t="shared" si="92"/>
         <v>1909.7809999999999</v>
       </c>
-      <c r="L24" s="19">
+      <c r="S24" s="19">
         <f t="shared" si="92"/>
         <v>2539.8940000000002</v>
       </c>
-      <c r="M24" s="19">
+      <c r="T24" s="19">
         <f t="shared" si="92"/>
         <v>2559.0160000000001</v>
       </c>
-      <c r="N24" s="19">
+      <c r="U24" s="19">
         <f t="shared" si="92"/>
         <v>2784.5329999999994</v>
       </c>
-      <c r="O24" s="19">
+      <c r="V24" s="19">
         <f t="shared" si="92"/>
         <v>2303.8289999999997</v>
       </c>
-      <c r="P24" s="19">
+      <c r="W24" s="19">
         <f t="shared" si="92"/>
         <v>2218.8539999999998</v>
       </c>
-      <c r="Q24" s="19">
+      <c r="X24" s="19">
         <f t="shared" si="92"/>
         <v>2825.681</v>
       </c>
-      <c r="R24" s="19">
+      <c r="Y24" s="19">
         <f t="shared" si="92"/>
         <v>2914.8020000000001</v>
       </c>
-      <c r="S24" s="19">
+      <c r="Z24" s="19">
         <f t="shared" si="92"/>
         <v>2728.0569999999998</v>
       </c>
-      <c r="T24" s="19">
+      <c r="AA24" s="19">
         <f t="shared" si="92"/>
         <v>2663.2100000000005</v>
       </c>
-      <c r="U24" s="19">
+      <c r="AB24" s="19">
         <f t="shared" si="92"/>
         <v>2879.462</v>
       </c>
-      <c r="V24" s="19">
+      <c r="AC24" s="19">
         <f t="shared" si="92"/>
         <v>2795.585</v>
       </c>
-      <c r="W24" s="19">
+      <c r="AD24" s="19">
         <f t="shared" si="92"/>
         <v>2792.4519999999998</v>
       </c>
-      <c r="X24" s="19">
+      <c r="AE24" s="19">
         <f t="shared" si="92"/>
         <v>2600.3029999999999</v>
       </c>
-      <c r="Y24" s="19">
+      <c r="AF24" s="19">
         <f t="shared" si="92"/>
         <v>3224.5619999999999</v>
       </c>
-      <c r="Z24" s="19">
+      <c r="AG24" s="19">
         <f t="shared" si="92"/>
         <v>4880.125</v>
       </c>
-      <c r="AA24" s="19">
+      <c r="AH24" s="19">
         <f t="shared" si="92"/>
         <v>3784.9009999999998</v>
       </c>
-      <c r="AB24" s="19">
+      <c r="AI24" s="19">
         <f t="shared" si="92"/>
         <v>5157.1539999999995</v>
       </c>
-      <c r="AC24" s="19">
-        <f t="shared" si="92"/>
-        <v>0</v>
-      </c>
-      <c r="AD24" s="19">
-        <f t="shared" si="92"/>
-        <v>0</v>
-      </c>
-      <c r="AE24" s="19">
-        <f t="shared" si="92"/>
-        <v>0</v>
-      </c>
-      <c r="AF24" s="19">
-        <f t="shared" si="92"/>
-        <v>0</v>
-      </c>
-      <c r="AG24" s="19">
-        <f t="shared" si="92"/>
-        <v>0</v>
-      </c>
-      <c r="AH24" s="19">
-        <f t="shared" si="92"/>
-        <v>0</v>
-      </c>
-      <c r="AI24" s="19">
-        <f t="shared" si="92"/>
-        <v>0</v>
-      </c>
       <c r="AJ24" s="19">
         <f t="shared" si="92"/>
         <v>0</v>
@@ -2786,15 +2850,36 @@
         <f t="shared" si="92"/>
         <v>0</v>
       </c>
+      <c r="BK24" s="19">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="BL24" s="19">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="BM24" s="19">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="BN24" s="19">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="BO24" s="19">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="BP24" s="19">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="BQ24" s="19">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="2:62" x14ac:dyDescent="0.25">
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
+    <row r="25" spans="2:69" x14ac:dyDescent="0.25">
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
@@ -2814,143 +2899,129 @@
       <c r="Z25" s="8"/>
       <c r="AA25" s="8"/>
       <c r="AB25" s="8"/>
+      <c r="AC25" s="8"/>
+      <c r="AD25" s="8"/>
+      <c r="AE25" s="8"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="8"/>
+      <c r="AI25" s="8"/>
     </row>
-    <row r="26" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="20">
-        <f>C18-C24</f>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="20">
+        <f>J18-J24</f>
         <v>1494.7159999999994</v>
       </c>
-      <c r="D26" s="20">
-        <f t="shared" ref="D26:BJ26" si="93">D18-D24</f>
+      <c r="K26" s="20">
+        <f t="shared" ref="K26:BQ26" si="93">K18-K24</f>
         <v>1644.8570000000004</v>
       </c>
-      <c r="E26" s="20">
+      <c r="L26" s="20">
         <f t="shared" si="93"/>
         <v>1582.683</v>
       </c>
-      <c r="F26" s="20">
+      <c r="M26" s="20">
         <f t="shared" si="93"/>
         <v>1816.1930000000002</v>
       </c>
-      <c r="G26" s="20">
+      <c r="N26" s="20">
         <f t="shared" si="93"/>
         <v>2165.8029999999999</v>
       </c>
-      <c r="H26" s="20">
+      <c r="O26" s="20">
         <f t="shared" si="93"/>
         <v>2346.2059999999992</v>
       </c>
-      <c r="I26" s="20">
+      <c r="P26" s="20">
         <f t="shared" si="93"/>
         <v>2525.2069999999994</v>
       </c>
-      <c r="J26" s="20">
+      <c r="Q26" s="20">
         <f t="shared" si="93"/>
         <v>2859.2539999999999</v>
       </c>
-      <c r="K26" s="20">
+      <c r="R26" s="20">
         <f t="shared" si="93"/>
         <v>2601.6470000000008</v>
       </c>
-      <c r="L26" s="20">
+      <c r="S26" s="20">
         <f t="shared" si="93"/>
         <v>2295.1709999999994</v>
       </c>
-      <c r="M26" s="20">
+      <c r="T26" s="20">
         <f t="shared" si="93"/>
         <v>3394.6729999999993</v>
       </c>
-      <c r="N26" s="20">
+      <c r="U26" s="20">
         <f t="shared" si="93"/>
         <v>3510.4840000000004</v>
       </c>
-      <c r="O26" s="20">
+      <c r="V26" s="20">
         <f t="shared" si="93"/>
         <v>2565.8230000000003</v>
       </c>
-      <c r="P26" s="20">
+      <c r="W26" s="20">
         <f t="shared" si="93"/>
         <v>2902.9910000000004</v>
       </c>
-      <c r="Q26" s="20">
+      <c r="X26" s="20">
         <f t="shared" si="93"/>
         <v>3354.5020000000009</v>
       </c>
-      <c r="R26" s="20">
+      <c r="Y26" s="20">
         <f t="shared" si="93"/>
         <v>3958.3139999999999</v>
       </c>
-      <c r="S26" s="20">
+      <c r="Z26" s="20">
         <f t="shared" si="93"/>
         <v>3967.7210000000005</v>
       </c>
-      <c r="T26" s="20">
+      <c r="AA26" s="20">
         <f t="shared" si="93"/>
         <v>4182.6100000000006</v>
       </c>
-      <c r="U26" s="20">
+      <c r="AB26" s="20">
         <f t="shared" si="93"/>
         <v>4056.5139999999997</v>
       </c>
-      <c r="V26" s="20">
+      <c r="AC26" s="20">
         <f t="shared" si="93"/>
         <v>4467.536000000001</v>
       </c>
-      <c r="W26" s="20">
+      <c r="AD26" s="20">
         <f t="shared" si="93"/>
         <v>3723.8040000000005</v>
       </c>
-      <c r="X26" s="20">
+      <c r="AE26" s="20">
         <f t="shared" si="93"/>
         <v>4740.1509999999998</v>
       </c>
-      <c r="Y26" s="20">
+      <c r="AF26" s="20">
         <f t="shared" si="93"/>
         <v>4734.6459999999997</v>
       </c>
-      <c r="Z26" s="20">
+      <c r="AG26" s="20">
         <f t="shared" si="93"/>
         <v>8112.4699999999993</v>
       </c>
-      <c r="AA26" s="20">
+      <c r="AH26" s="20">
         <f t="shared" si="93"/>
         <v>5523.1620000000003</v>
       </c>
-      <c r="AB26" s="20">
+      <c r="AI26" s="20">
         <f t="shared" si="93"/>
         <v>5582.3620000000001</v>
       </c>
-      <c r="AC26" s="20">
-        <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-      <c r="AD26" s="20">
-        <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-      <c r="AE26" s="20">
-        <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-      <c r="AF26" s="20">
-        <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-      <c r="AG26" s="20">
-        <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-      <c r="AH26" s="20">
-        <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-      <c r="AI26" s="20">
-        <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
       <c r="AJ26" s="20">
         <f t="shared" si="93"/>
         <v>0</v>
@@ -3059,143 +3130,150 @@
         <f t="shared" si="93"/>
         <v>0</v>
       </c>
+      <c r="BK26" s="20">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="BL26" s="20">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="BM26" s="20">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="BN26" s="20">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="BO26" s="20">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="BP26" s="20">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="BQ26" s="20">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B27" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="11">
-        <f>C26/C18</f>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="11">
+        <f>J26/J18</f>
         <v>0.48404266343348917</v>
       </c>
-      <c r="D27" s="11">
-        <f t="shared" ref="D27:BJ27" si="94">D26/D18</f>
+      <c r="K27" s="11">
+        <f t="shared" ref="K27:BQ27" si="94">K26/K18</f>
         <v>0.44131123490959989</v>
       </c>
-      <c r="E27" s="11">
+      <c r="L27" s="11">
         <f t="shared" si="94"/>
         <v>0.46691455758286293</v>
       </c>
-      <c r="F27" s="11">
+      <c r="M27" s="11">
         <f t="shared" si="94"/>
         <v>0.49819847423729013</v>
       </c>
-      <c r="G27" s="11">
+      <c r="N27" s="11">
         <f t="shared" si="94"/>
         <v>0.54449310522544714</v>
       </c>
-      <c r="H27" s="11">
+      <c r="O27" s="11">
         <f t="shared" si="94"/>
         <v>0.55820487936719487</v>
       </c>
-      <c r="I27" s="11">
+      <c r="P27" s="11">
         <f t="shared" si="94"/>
         <v>0.5501751265407997</v>
       </c>
-      <c r="J27" s="11">
+      <c r="Q27" s="11">
         <f t="shared" si="94"/>
         <v>0.59543130886624474</v>
       </c>
-      <c r="K27" s="11">
+      <c r="R27" s="11">
         <f t="shared" si="94"/>
         <v>0.57667926873708286</v>
       </c>
-      <c r="L27" s="11">
+      <c r="S27" s="11">
         <f t="shared" si="94"/>
         <v>0.47469289451124225</v>
       </c>
-      <c r="M27" s="11">
+      <c r="T27" s="11">
         <f t="shared" si="94"/>
         <v>0.57017976585609353</v>
       </c>
-      <c r="N27" s="11">
+      <c r="U27" s="11">
         <f t="shared" si="94"/>
         <v>0.55766076565003719</v>
       </c>
-      <c r="O27" s="11">
+      <c r="V27" s="11">
         <f t="shared" si="94"/>
         <v>0.52690069023412767</v>
       </c>
-      <c r="P27" s="11">
+      <c r="W27" s="11">
         <f t="shared" si="94"/>
         <v>0.56678618739926734</v>
       </c>
-      <c r="Q27" s="11">
+      <c r="X27" s="11">
         <f t="shared" si="94"/>
         <v>0.54278360365704392</v>
       </c>
-      <c r="R27" s="11">
+      <c r="Y27" s="11">
         <f t="shared" si="94"/>
         <v>0.57591258462682715</v>
       </c>
-      <c r="S27" s="11">
+      <c r="Z27" s="11">
         <f t="shared" si="94"/>
         <v>0.59257057208288566</v>
       </c>
-      <c r="T27" s="11">
+      <c r="AA27" s="11">
         <f t="shared" si="94"/>
         <v>0.61097282721427093</v>
       </c>
-      <c r="U27" s="11">
+      <c r="AB27" s="11">
         <f t="shared" si="94"/>
         <v>0.58485121632485459</v>
       </c>
-      <c r="V27" s="11">
+      <c r="AC27" s="11">
         <f t="shared" si="94"/>
         <v>0.61509866075479125</v>
       </c>
-      <c r="W27" s="11">
+      <c r="AD27" s="11">
         <f t="shared" si="94"/>
         <v>0.57146373623135749</v>
       </c>
-      <c r="X27" s="11">
+      <c r="AE27" s="11">
         <f t="shared" si="94"/>
         <v>0.64575719703440682</v>
       </c>
-      <c r="Y27" s="11">
+      <c r="AF27" s="11">
         <f t="shared" si="94"/>
         <v>0.59486396133886688</v>
       </c>
-      <c r="Z27" s="11">
+      <c r="AG27" s="11">
         <f t="shared" si="94"/>
         <v>0.62439181703116275</v>
       </c>
-      <c r="AA27" s="11">
+      <c r="AH27" s="11">
         <f t="shared" si="94"/>
         <v>0.59337393827265672</v>
       </c>
-      <c r="AB27" s="11">
+      <c r="AI27" s="11">
         <f t="shared" si="94"/>
         <v>0.51979642285555516</v>
       </c>
-      <c r="AC27" s="11" t="e">
-        <f t="shared" si="94"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD27" s="11" t="e">
-        <f t="shared" si="94"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE27" s="11" t="e">
-        <f t="shared" si="94"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF27" s="11" t="e">
-        <f t="shared" si="94"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG27" s="11" t="e">
-        <f t="shared" si="94"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH27" s="11" t="e">
-        <f t="shared" si="94"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI27" s="11" t="e">
-        <f t="shared" si="94"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AJ27" s="11" t="e">
         <f t="shared" si="94"/>
         <v>#DIV/0!</v>
@@ -3304,143 +3382,150 @@
         <f t="shared" si="94"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="BK27" s="11" t="e">
+        <f t="shared" si="94"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BL27" s="11" t="e">
+        <f t="shared" si="94"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BM27" s="11" t="e">
+        <f t="shared" si="94"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BN27" s="11" t="e">
+        <f t="shared" si="94"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BO27" s="11" t="e">
+        <f t="shared" si="94"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BP27" s="11" t="e">
+        <f t="shared" si="94"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BQ27" s="11" t="e">
+        <f t="shared" si="94"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="28" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="14">
-        <f>(C15-C21)/C15</f>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="14">
+        <f>(J15-J21)/J15</f>
         <v>0.47299228894895745</v>
       </c>
-      <c r="D28" s="14">
-        <f t="shared" ref="D28:BJ30" si="95">(D15-D21)/D15</f>
+      <c r="K28" s="14">
+        <f t="shared" ref="K28:BQ30" si="95">(K15-K21)/K15</f>
         <v>0.36650012278811422</v>
       </c>
-      <c r="E28" s="14">
+      <c r="L28" s="14">
         <f t="shared" si="95"/>
         <v>0.43150790430594171</v>
       </c>
-      <c r="F28" s="14">
+      <c r="M28" s="14">
         <f t="shared" si="95"/>
         <v>0.44160903338145019</v>
       </c>
-      <c r="G28" s="14">
+      <c r="N28" s="14">
         <f t="shared" si="95"/>
         <v>0.55093394231093518</v>
       </c>
-      <c r="H28" s="14">
+      <c r="O28" s="14">
         <f t="shared" si="95"/>
         <v>0.56305991624480844</v>
       </c>
-      <c r="I28" s="14">
+      <c r="P28" s="14">
         <f t="shared" si="95"/>
         <v>0.51265343853543976</v>
       </c>
-      <c r="J28" s="14">
+      <c r="Q28" s="14">
         <f t="shared" si="95"/>
         <v>0.58022173801029686</v>
       </c>
-      <c r="K28" s="14">
+      <c r="R28" s="14">
         <f t="shared" si="95"/>
         <v>0.54280636422080142</v>
       </c>
-      <c r="L28" s="14">
+      <c r="S28" s="14">
         <f t="shared" si="95"/>
         <v>0.40031398315459132</v>
       </c>
-      <c r="M28" s="14">
+      <c r="T28" s="14">
         <f t="shared" si="95"/>
         <v>0.52282794377546482</v>
       </c>
-      <c r="N28" s="14">
+      <c r="U28" s="14">
         <f t="shared" si="95"/>
         <v>0.54896862177672467</v>
       </c>
-      <c r="O28" s="14">
+      <c r="V28" s="14">
         <f t="shared" si="95"/>
         <v>0.50401496539540724</v>
       </c>
-      <c r="P28" s="14">
+      <c r="W28" s="14">
         <f t="shared" si="95"/>
         <v>0.52241700610395603</v>
       </c>
-      <c r="Q28" s="14">
+      <c r="X28" s="14">
         <f t="shared" si="95"/>
         <v>0.52873735381053988</v>
       </c>
-      <c r="R28" s="14">
+      <c r="Y28" s="14">
         <f t="shared" si="95"/>
         <v>0.574092296456714</v>
       </c>
-      <c r="S28" s="14">
+      <c r="Z28" s="14">
         <f t="shared" si="95"/>
         <v>0.57499724169670507</v>
       </c>
-      <c r="T28" s="14">
+      <c r="AA28" s="14">
         <f t="shared" si="95"/>
         <v>0.5749612952301123</v>
       </c>
-      <c r="U28" s="14">
+      <c r="AB28" s="14">
         <f t="shared" si="95"/>
         <v>0.55156998743809937</v>
       </c>
-      <c r="V28" s="14">
+      <c r="AC28" s="14">
         <f t="shared" si="95"/>
         <v>0.6170857915144089</v>
       </c>
-      <c r="W28" s="14">
+      <c r="AD28" s="14">
         <f t="shared" si="95"/>
         <v>0.52518764956149588</v>
       </c>
-      <c r="X28" s="14">
+      <c r="AE28" s="14">
         <f t="shared" si="95"/>
         <v>0.62948796422496245</v>
       </c>
-      <c r="Y28" s="14">
+      <c r="AF28" s="14">
         <f t="shared" si="95"/>
         <v>0.56937885707828761</v>
       </c>
-      <c r="Z28" s="14">
+      <c r="AG28" s="14">
         <f t="shared" si="95"/>
         <v>0.54519907799554568</v>
       </c>
-      <c r="AA28" s="14">
+      <c r="AH28" s="14">
         <f t="shared" si="95"/>
         <v>0.59735499223798327</v>
       </c>
-      <c r="AB28" s="14">
+      <c r="AI28" s="14">
         <f t="shared" si="95"/>
         <v>0.5204468757487607</v>
       </c>
-      <c r="AC28" s="14" t="e">
-        <f t="shared" si="95"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD28" s="14" t="e">
-        <f t="shared" si="95"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE28" s="14" t="e">
-        <f t="shared" si="95"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF28" s="14" t="e">
-        <f t="shared" si="95"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG28" s="14" t="e">
-        <f t="shared" si="95"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH28" s="14" t="e">
-        <f t="shared" si="95"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI28" s="14" t="e">
-        <f t="shared" si="95"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AJ28" s="14" t="e">
         <f t="shared" si="95"/>
         <v>#DIV/0!</v>
@@ -3549,143 +3634,150 @@
         <f t="shared" si="95"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="BK28" s="14" t="e">
+        <f t="shared" si="95"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BL28" s="14" t="e">
+        <f t="shared" si="95"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BM28" s="14" t="e">
+        <f t="shared" si="95"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BN28" s="14" t="e">
+        <f t="shared" si="95"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BO28" s="14" t="e">
+        <f t="shared" si="95"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BP28" s="14" t="e">
+        <f t="shared" si="95"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BQ28" s="14" t="e">
+        <f t="shared" si="95"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="29" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="15">
-        <f t="shared" ref="C29:R30" si="96">(C16-C22)/C16</f>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="15">
+        <f t="shared" ref="J29:Y30" si="96">(J16-J22)/J16</f>
         <v>0.50583964722427843</v>
       </c>
-      <c r="D29" s="15">
+      <c r="K29" s="15">
         <f t="shared" si="96"/>
         <v>0.58815902687564325</v>
       </c>
-      <c r="E29" s="15">
+      <c r="L29" s="15">
         <f t="shared" si="96"/>
         <v>0.53668900359443283</v>
       </c>
-      <c r="F29" s="15">
+      <c r="M29" s="15">
         <f t="shared" si="96"/>
         <v>0.68502240669550474</v>
       </c>
-      <c r="G29" s="15">
+      <c r="N29" s="15">
         <f t="shared" si="96"/>
         <v>0.50890356958377514</v>
       </c>
-      <c r="H29" s="15">
+      <c r="O29" s="15">
         <f t="shared" si="96"/>
         <v>0.62674472175980245</v>
       </c>
-      <c r="I29" s="15">
+      <c r="P29" s="15">
         <f t="shared" si="96"/>
         <v>0.66650433023006472</v>
       </c>
-      <c r="J29" s="15">
+      <c r="Q29" s="15">
         <f t="shared" si="96"/>
         <v>0.61514501022249857</v>
       </c>
-      <c r="K29" s="15">
+      <c r="R29" s="15">
         <f t="shared" si="96"/>
         <v>0.70596868061629547</v>
       </c>
-      <c r="L29" s="15">
+      <c r="S29" s="15">
         <f t="shared" si="96"/>
         <v>0.66655119488432379</v>
       </c>
-      <c r="M29" s="15">
+      <c r="T29" s="15">
         <f t="shared" si="96"/>
         <v>0.64658494565780855</v>
       </c>
-      <c r="N29" s="15">
+      <c r="U29" s="15">
         <f t="shared" si="96"/>
         <v>0.59947857157695739</v>
       </c>
-      <c r="O29" s="15">
+      <c r="V29" s="15">
         <f t="shared" si="96"/>
         <v>0.6117279764758683</v>
       </c>
-      <c r="P29" s="15">
+      <c r="W29" s="15">
         <f t="shared" si="96"/>
         <v>0.70794451782485102</v>
       </c>
-      <c r="Q29" s="15">
+      <c r="X29" s="15">
         <f t="shared" si="96"/>
         <v>0.58386799137478396</v>
       </c>
-      <c r="R29" s="15">
+      <c r="Y29" s="15">
         <f t="shared" si="96"/>
         <v>0.5863152053491002</v>
       </c>
-      <c r="S29" s="15">
+      <c r="Z29" s="15">
         <f t="shared" si="95"/>
         <v>0.68340173845749896</v>
       </c>
-      <c r="T29" s="15">
+      <c r="AA29" s="15">
         <f t="shared" si="95"/>
         <v>0.70658785211979513</v>
       </c>
-      <c r="U29" s="15">
+      <c r="AB29" s="15">
         <f t="shared" si="95"/>
         <v>0.72397943674363818</v>
       </c>
-      <c r="V29" s="15">
+      <c r="AC29" s="15">
         <f t="shared" si="95"/>
         <v>0.6433186801546531</v>
       </c>
-      <c r="W29" s="15">
+      <c r="AD29" s="15">
         <f t="shared" si="95"/>
         <v>0.6992863396186586</v>
       </c>
-      <c r="X29" s="15">
+      <c r="AE29" s="15">
         <f t="shared" si="95"/>
         <v>0.71507765696769809</v>
       </c>
-      <c r="Y29" s="15">
+      <c r="AF29" s="15">
         <f t="shared" si="95"/>
         <v>0.7182862570113806</v>
       </c>
-      <c r="Z29" s="15">
+      <c r="AG29" s="15">
         <f t="shared" si="95"/>
         <v>0.68568136645860789</v>
       </c>
-      <c r="AA29" s="15">
+      <c r="AH29" s="15">
         <f t="shared" si="95"/>
         <v>0.59146910507003725</v>
       </c>
-      <c r="AB29" s="15">
+      <c r="AI29" s="15">
         <f t="shared" si="95"/>
         <v>0.51703554690242981</v>
       </c>
-      <c r="AC29" s="15" t="e">
-        <f t="shared" si="95"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD29" s="15" t="e">
-        <f t="shared" si="95"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE29" s="15" t="e">
-        <f t="shared" si="95"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF29" s="15" t="e">
-        <f t="shared" si="95"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG29" s="15" t="e">
-        <f t="shared" si="95"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH29" s="15" t="e">
-        <f t="shared" si="95"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI29" s="15" t="e">
-        <f t="shared" si="95"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AJ29" s="15" t="e">
         <f t="shared" si="95"/>
         <v>#DIV/0!</v>
@@ -3794,143 +3886,150 @@
         <f t="shared" si="95"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="BK29" s="15" t="e">
+        <f t="shared" si="95"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BL29" s="15" t="e">
+        <f t="shared" si="95"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BM29" s="15" t="e">
+        <f t="shared" si="95"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BN29" s="15" t="e">
+        <f t="shared" si="95"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BO29" s="15" t="e">
+        <f t="shared" si="95"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BP29" s="15" t="e">
+        <f t="shared" si="95"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BQ29" s="15" t="e">
+        <f t="shared" si="95"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="30" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="15" t="e">
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="15" t="e">
         <f t="shared" si="96"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D30" s="15">
+      <c r="K30" s="15">
         <f t="shared" si="95"/>
         <v>0.75367452170979721</v>
       </c>
-      <c r="E30" s="15">
+      <c r="L30" s="15">
         <f t="shared" si="95"/>
         <v>0.51003514957151508</v>
       </c>
-      <c r="F30" s="15">
+      <c r="M30" s="15">
         <f t="shared" si="95"/>
         <v>0.47746112921186123</v>
       </c>
-      <c r="G30" s="15">
+      <c r="N30" s="15">
         <f t="shared" si="95"/>
         <v>0.56186028564220025</v>
       </c>
-      <c r="H30" s="15">
+      <c r="O30" s="15">
         <f t="shared" si="95"/>
         <v>0.41747259767400147</v>
       </c>
-      <c r="I30" s="15">
+      <c r="P30" s="15">
         <f t="shared" si="95"/>
         <v>0.5827459696448416</v>
       </c>
-      <c r="J30" s="15">
+      <c r="Q30" s="15">
         <f t="shared" si="95"/>
         <v>0.64510666297271091</v>
       </c>
-      <c r="K30" s="15">
+      <c r="R30" s="15">
         <f t="shared" si="95"/>
         <v>-0.23830925019911253</v>
       </c>
-      <c r="L30" s="15">
+      <c r="S30" s="15">
         <f t="shared" si="95"/>
         <v>0.60293690563566948</v>
       </c>
-      <c r="M30" s="15">
+      <c r="T30" s="15">
         <f t="shared" si="95"/>
         <v>0.85694598388395504</v>
       </c>
-      <c r="N30" s="15">
+      <c r="U30" s="15">
         <f t="shared" si="95"/>
         <v>0.70502306509482326</v>
       </c>
-      <c r="O30" s="15">
+      <c r="V30" s="15">
         <f t="shared" si="95"/>
         <v>0.85729679572563877</v>
       </c>
-      <c r="P30" s="15">
+      <c r="W30" s="15">
         <f t="shared" si="95"/>
         <v>0.62425032594524121</v>
       </c>
-      <c r="Q30" s="15">
+      <c r="X30" s="15">
         <f t="shared" si="95"/>
         <v>0.69345967461918978</v>
       </c>
-      <c r="R30" s="15" t="e">
-        <f t="shared" si="95"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S30" s="15" t="e">
-        <f t="shared" si="95"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T30" s="15">
+      <c r="Y30" s="15" t="e">
+        <f t="shared" si="95"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z30" s="15" t="e">
+        <f t="shared" si="95"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA30" s="15">
         <f t="shared" si="95"/>
         <v>0.91550077445850975</v>
       </c>
-      <c r="U30" s="15" t="e">
-        <f t="shared" si="95"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V30" s="15">
+      <c r="AB30" s="15" t="e">
+        <f t="shared" si="95"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC30" s="15">
         <f t="shared" si="95"/>
         <v>0.45281683172085169</v>
       </c>
-      <c r="W30" s="15">
+      <c r="AD30" s="15">
         <f t="shared" si="95"/>
         <v>0.84353732226034961</v>
       </c>
-      <c r="X30" s="15" t="e">
-        <f t="shared" si="95"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y30" s="15">
+      <c r="AE30" s="15" t="e">
+        <f t="shared" si="95"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF30" s="15">
         <f t="shared" si="95"/>
         <v>0.66924355396977875</v>
       </c>
-      <c r="Z30" s="15">
+      <c r="AG30" s="15">
         <f t="shared" si="95"/>
         <v>0.54776585293412094</v>
       </c>
-      <c r="AA30" s="15">
+      <c r="AH30" s="15">
         <f t="shared" si="95"/>
         <v>0.57881585118500145</v>
       </c>
-      <c r="AB30" s="15">
+      <c r="AI30" s="15">
         <f t="shared" si="95"/>
         <v>0.5344016735840581</v>
       </c>
-      <c r="AC30" s="15" t="e">
-        <f t="shared" si="95"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD30" s="15" t="e">
-        <f t="shared" si="95"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE30" s="15" t="e">
-        <f t="shared" si="95"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF30" s="15" t="e">
-        <f t="shared" si="95"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG30" s="15" t="e">
-        <f t="shared" si="95"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH30" s="15" t="e">
-        <f t="shared" si="95"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI30" s="15" t="e">
-        <f t="shared" si="95"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AJ30" s="15" t="e">
         <f t="shared" si="95"/>
         <v>#DIV/0!</v>
@@ -4039,314 +4138,335 @@
         <f t="shared" si="95"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="BK30" s="15" t="e">
+        <f t="shared" si="95"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BL30" s="15" t="e">
+        <f t="shared" si="95"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BM30" s="15" t="e">
+        <f t="shared" si="95"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BN30" s="15" t="e">
+        <f t="shared" si="95"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BO30" s="15" t="e">
+        <f t="shared" si="95"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BP30" s="15" t="e">
+        <f t="shared" si="95"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BQ30" s="15" t="e">
+        <f t="shared" si="95"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="32" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="2:62" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:69" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="24">
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="24">
         <v>923.721</v>
       </c>
-      <c r="D33" s="24">
+      <c r="K33" s="24">
         <v>1031.6220000000001</v>
       </c>
-      <c r="E33" s="24">
+      <c r="L33" s="24">
         <v>1028.271</v>
       </c>
-      <c r="F33" s="24">
+      <c r="M33" s="24">
         <v>592.18700000000001</v>
       </c>
-      <c r="G33" s="24">
+      <c r="N33" s="24">
         <v>596.37199999999996</v>
       </c>
-      <c r="H33" s="24">
+      <c r="O33" s="24">
         <v>648.48199999999997</v>
       </c>
-      <c r="I33" s="24">
+      <c r="P33" s="24">
         <v>722.52499999999998</v>
       </c>
-      <c r="J33" s="24">
+      <c r="Q33" s="24">
         <v>522.42700000000002</v>
       </c>
-      <c r="K33" s="24">
+      <c r="R33" s="24">
         <v>666.61500000000001</v>
       </c>
-      <c r="L33" s="24">
+      <c r="S33" s="24">
         <v>712.01900000000001</v>
       </c>
-      <c r="M33" s="24">
+      <c r="T33" s="24">
         <v>870.80499999999995</v>
       </c>
-      <c r="N33" s="24">
+      <c r="U33" s="24">
         <v>706.53700000000003</v>
       </c>
-      <c r="O33" s="24">
+      <c r="V33" s="24">
         <v>600.298</v>
       </c>
-      <c r="P33" s="24">
+      <c r="W33" s="24">
         <v>689.654</v>
       </c>
-      <c r="Q33" s="24">
+      <c r="X33" s="24">
         <v>646.79499999999996</v>
       </c>
-      <c r="R33" s="24">
+      <c r="Y33" s="24">
         <v>686.17200000000003</v>
       </c>
-      <c r="S33" s="24">
+      <c r="Z33" s="24">
         <v>736.52499999999998</v>
       </c>
-      <c r="T33" s="24">
+      <c r="AA33" s="24">
         <v>650.03099999999995</v>
       </c>
-      <c r="U33" s="24">
+      <c r="AB33" s="24">
         <v>676.38099999999997</v>
       </c>
-      <c r="V33" s="24">
+      <c r="AC33" s="24">
         <v>642.20299999999997</v>
       </c>
-      <c r="W33" s="24">
+      <c r="AD33" s="24">
         <v>670.44500000000005</v>
       </c>
-      <c r="X33" s="24">
+      <c r="AE33" s="24">
         <v>866.19799999999998</v>
       </c>
-      <c r="Y33" s="24">
+      <c r="AF33" s="24">
         <v>851.29600000000005</v>
       </c>
-      <c r="Z33" s="24">
+      <c r="AG33" s="24">
         <v>741.57899999999995</v>
       </c>
-      <c r="AA33" s="24">
+      <c r="AH33" s="24">
         <v>901.14400000000001</v>
       </c>
-      <c r="AB33" s="24">
+      <c r="AI33" s="24">
         <v>1031.1189999999999</v>
       </c>
     </row>
-    <row r="34" spans="2:62" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:69" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="24">
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="24">
         <v>1622.5550000000001</v>
       </c>
-      <c r="D34" s="24">
+      <c r="K34" s="24">
         <v>1756.7460000000001</v>
       </c>
-      <c r="E34" s="24">
+      <c r="L34" s="24">
         <v>1626.64</v>
       </c>
-      <c r="F34" s="24">
+      <c r="M34" s="24">
         <v>1668.2449999999999</v>
       </c>
-      <c r="G34" s="24">
+      <c r="N34" s="24">
         <v>1473.4159999999999</v>
       </c>
-      <c r="H34" s="24">
+      <c r="O34" s="24">
         <v>1524.6569999999999</v>
       </c>
-      <c r="I34" s="24">
+      <c r="P34" s="24">
         <v>1416.0530000000001</v>
       </c>
-      <c r="J34" s="24">
+      <c r="Q34" s="24">
         <v>1463.7940000000001</v>
       </c>
-      <c r="K34" s="24">
+      <c r="R34" s="24">
         <v>1703.2739999999999</v>
       </c>
-      <c r="L34" s="24">
+      <c r="S34" s="24">
         <v>1531.3889999999999</v>
       </c>
-      <c r="M34" s="24">
+      <c r="T34" s="24">
         <v>1279.422</v>
       </c>
-      <c r="N34" s="24">
+      <c r="U34" s="24">
         <v>1586.461</v>
       </c>
-      <c r="O34" s="24">
+      <c r="V34" s="24">
         <v>1733.154</v>
       </c>
-      <c r="P34" s="24">
+      <c r="W34" s="24">
         <v>1602.1179999999999</v>
       </c>
-      <c r="Q34" s="24">
+      <c r="X34" s="24">
         <v>1512.1379999999999</v>
       </c>
-      <c r="R34" s="24">
+      <c r="Y34" s="24">
         <v>1410.3219999999999</v>
       </c>
-      <c r="S34" s="24">
+      <c r="Z34" s="24">
         <v>1806.982</v>
       </c>
-      <c r="T34" s="24">
+      <c r="AA34" s="24">
         <v>1724.8</v>
       </c>
-      <c r="U34" s="24">
+      <c r="AB34" s="24">
         <v>1694.2329999999999</v>
       </c>
-      <c r="V34" s="24">
+      <c r="AC34" s="24">
         <v>1527.9</v>
       </c>
-      <c r="W34" s="24">
+      <c r="AD34" s="24">
         <v>2261.8629999999998</v>
       </c>
-      <c r="X34" s="24">
+      <c r="AE34" s="24">
         <v>2446.6350000000002</v>
       </c>
-      <c r="Y34" s="24">
+      <c r="AF34" s="24">
         <v>2395.7139999999999</v>
       </c>
-      <c r="Z34" s="24">
+      <c r="AG34" s="24">
         <v>3718.2930000000001</v>
       </c>
-      <c r="AA34" s="24">
+      <c r="AH34" s="24">
         <v>3006.819</v>
       </c>
-      <c r="AB34" s="24">
+      <c r="AI34" s="24">
         <v>2908.1930000000002</v>
       </c>
     </row>
-    <row r="35" spans="2:62" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:69" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="19">
-        <f>SUM(C33:C34)</f>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="19">
+        <f>SUM(J33:J34)</f>
         <v>2546.2759999999998</v>
       </c>
-      <c r="D35" s="19">
-        <f t="shared" ref="D35:BJ35" si="97">SUM(D33:D34)</f>
+      <c r="K35" s="19">
+        <f t="shared" ref="K35:BQ35" si="97">SUM(K33:K34)</f>
         <v>2788.3680000000004</v>
       </c>
-      <c r="E35" s="19">
+      <c r="L35" s="19">
         <f t="shared" si="97"/>
         <v>2654.9110000000001</v>
       </c>
-      <c r="F35" s="19">
+      <c r="M35" s="19">
         <f t="shared" si="97"/>
         <v>2260.4319999999998</v>
       </c>
-      <c r="G35" s="19">
+      <c r="N35" s="19">
         <f t="shared" si="97"/>
         <v>2069.788</v>
       </c>
-      <c r="H35" s="19">
+      <c r="O35" s="19">
         <f t="shared" si="97"/>
         <v>2173.1390000000001</v>
       </c>
-      <c r="I35" s="19">
+      <c r="P35" s="19">
         <f t="shared" si="97"/>
         <v>2138.578</v>
       </c>
-      <c r="J35" s="19">
+      <c r="Q35" s="19">
         <f t="shared" si="97"/>
         <v>1986.221</v>
       </c>
-      <c r="K35" s="19">
+      <c r="R35" s="19">
         <f t="shared" si="97"/>
         <v>2369.8890000000001</v>
       </c>
-      <c r="L35" s="19">
+      <c r="S35" s="19">
         <f t="shared" si="97"/>
         <v>2243.4079999999999</v>
       </c>
-      <c r="M35" s="19">
+      <c r="T35" s="19">
         <f t="shared" si="97"/>
         <v>2150.2269999999999</v>
       </c>
-      <c r="N35" s="19">
+      <c r="U35" s="19">
         <f t="shared" si="97"/>
         <v>2292.998</v>
       </c>
-      <c r="O35" s="19">
+      <c r="V35" s="19">
         <f t="shared" si="97"/>
         <v>2333.4520000000002</v>
       </c>
-      <c r="P35" s="19">
+      <c r="W35" s="19">
         <f t="shared" si="97"/>
         <v>2291.7719999999999</v>
       </c>
-      <c r="Q35" s="19">
+      <c r="X35" s="19">
         <f t="shared" si="97"/>
         <v>2158.933</v>
       </c>
-      <c r="R35" s="19">
+      <c r="Y35" s="19">
         <f t="shared" si="97"/>
         <v>2096.4939999999997</v>
       </c>
-      <c r="S35" s="19">
+      <c r="Z35" s="19">
         <f t="shared" si="97"/>
         <v>2543.5070000000001</v>
       </c>
-      <c r="T35" s="19">
+      <c r="AA35" s="19">
         <f t="shared" si="97"/>
         <v>2374.8310000000001</v>
       </c>
-      <c r="U35" s="19">
+      <c r="AB35" s="19">
         <f t="shared" si="97"/>
         <v>2370.614</v>
       </c>
-      <c r="V35" s="19">
+      <c r="AC35" s="19">
         <f t="shared" si="97"/>
         <v>2170.1030000000001</v>
       </c>
-      <c r="W35" s="19">
+      <c r="AD35" s="19">
         <f t="shared" si="97"/>
         <v>2932.308</v>
       </c>
-      <c r="X35" s="19">
+      <c r="AE35" s="19">
         <f t="shared" si="97"/>
         <v>3312.8330000000001</v>
       </c>
-      <c r="Y35" s="19">
+      <c r="AF35" s="19">
         <f t="shared" si="97"/>
         <v>3247.01</v>
       </c>
-      <c r="Z35" s="19">
+      <c r="AG35" s="19">
         <f t="shared" si="97"/>
         <v>4459.8720000000003</v>
       </c>
-      <c r="AA35" s="19">
+      <c r="AH35" s="19">
         <f t="shared" si="97"/>
         <v>3907.9629999999997</v>
       </c>
-      <c r="AB35" s="19">
+      <c r="AI35" s="19">
         <f t="shared" si="97"/>
         <v>3939.3119999999999</v>
       </c>
-      <c r="AC35" s="19">
-        <f t="shared" si="97"/>
-        <v>0</v>
-      </c>
-      <c r="AD35" s="19">
-        <f t="shared" si="97"/>
-        <v>0</v>
-      </c>
-      <c r="AE35" s="19">
-        <f t="shared" si="97"/>
-        <v>0</v>
-      </c>
-      <c r="AF35" s="19">
-        <f t="shared" si="97"/>
-        <v>0</v>
-      </c>
-      <c r="AG35" s="19">
-        <f t="shared" si="97"/>
-        <v>0</v>
-      </c>
-      <c r="AH35" s="19">
-        <f t="shared" si="97"/>
-        <v>0</v>
-      </c>
-      <c r="AI35" s="19">
-        <f t="shared" si="97"/>
-        <v>0</v>
-      </c>
       <c r="AJ35" s="19">
         <f t="shared" si="97"/>
         <v>0</v>
@@ -4455,143 +4575,150 @@
         <f t="shared" si="97"/>
         <v>0</v>
       </c>
+      <c r="BK35" s="19">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="BL35" s="19">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="BM35" s="19">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="BN35" s="19">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="BO35" s="19">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="BP35" s="19">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="BQ35" s="19">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="20">
-        <f>C26-C35</f>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="20">
+        <f>J26-J35</f>
         <v>-1051.5600000000004</v>
       </c>
-      <c r="D37" s="20">
-        <f t="shared" ref="D37:BJ37" si="98">D26-D35</f>
+      <c r="K37" s="20">
+        <f t="shared" ref="K37:BQ37" si="98">K26-K35</f>
         <v>-1143.511</v>
       </c>
-      <c r="E37" s="20">
+      <c r="L37" s="20">
         <f t="shared" si="98"/>
         <v>-1072.2280000000001</v>
       </c>
-      <c r="F37" s="20">
+      <c r="M37" s="20">
         <f t="shared" si="98"/>
         <v>-444.23899999999958</v>
       </c>
-      <c r="G37" s="20">
+      <c r="N37" s="20">
         <f t="shared" si="98"/>
         <v>96.014999999999873</v>
       </c>
-      <c r="H37" s="20">
+      <c r="O37" s="20">
         <f t="shared" si="98"/>
         <v>173.0669999999991</v>
       </c>
-      <c r="I37" s="20">
+      <c r="P37" s="20">
         <f t="shared" si="98"/>
         <v>386.62899999999945</v>
       </c>
-      <c r="J37" s="20">
+      <c r="Q37" s="20">
         <f t="shared" si="98"/>
         <v>873.0329999999999</v>
       </c>
-      <c r="K37" s="20">
+      <c r="R37" s="20">
         <f t="shared" si="98"/>
         <v>231.75800000000072</v>
       </c>
-      <c r="L37" s="20">
+      <c r="S37" s="20">
         <f t="shared" si="98"/>
         <v>51.762999999999465</v>
       </c>
-      <c r="M37" s="20">
+      <c r="T37" s="20">
         <f t="shared" si="98"/>
         <v>1244.4459999999995</v>
       </c>
-      <c r="N37" s="20">
+      <c r="U37" s="20">
         <f t="shared" si="98"/>
         <v>1217.4860000000003</v>
       </c>
-      <c r="O37" s="20">
+      <c r="V37" s="20">
         <f t="shared" si="98"/>
         <v>232.37100000000009</v>
       </c>
-      <c r="P37" s="20">
+      <c r="W37" s="20">
         <f t="shared" si="98"/>
         <v>611.21900000000051</v>
       </c>
-      <c r="Q37" s="20">
+      <c r="X37" s="20">
         <f t="shared" si="98"/>
         <v>1195.5690000000009</v>
       </c>
-      <c r="R37" s="20">
+      <c r="Y37" s="20">
         <f t="shared" si="98"/>
         <v>1861.8200000000002</v>
       </c>
-      <c r="S37" s="20">
+      <c r="Z37" s="20">
         <f t="shared" si="98"/>
         <v>1424.2140000000004</v>
       </c>
-      <c r="T37" s="20">
+      <c r="AA37" s="20">
         <f t="shared" si="98"/>
         <v>1807.7790000000005</v>
       </c>
-      <c r="U37" s="20">
+      <c r="AB37" s="20">
         <f t="shared" si="98"/>
         <v>1685.8999999999996</v>
       </c>
-      <c r="V37" s="20">
+      <c r="AC37" s="20">
         <f t="shared" si="98"/>
         <v>2297.4330000000009</v>
       </c>
-      <c r="W37" s="20">
+      <c r="AD37" s="20">
         <f t="shared" si="98"/>
         <v>791.49600000000055</v>
       </c>
-      <c r="X37" s="20">
+      <c r="AE37" s="20">
         <f t="shared" si="98"/>
         <v>1427.3179999999998</v>
       </c>
-      <c r="Y37" s="20">
+      <c r="AF37" s="20">
         <f t="shared" si="98"/>
         <v>1487.6359999999995</v>
       </c>
-      <c r="Z37" s="20">
+      <c r="AG37" s="20">
         <f t="shared" si="98"/>
         <v>3652.597999999999</v>
       </c>
-      <c r="AA37" s="20">
+      <c r="AH37" s="20">
         <f t="shared" si="98"/>
         <v>1615.1990000000005</v>
       </c>
-      <c r="AB37" s="20">
+      <c r="AI37" s="20">
         <f t="shared" si="98"/>
         <v>1643.0500000000002</v>
       </c>
-      <c r="AC37" s="20">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="AD37" s="20">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="AE37" s="20">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="AF37" s="20">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="AG37" s="20">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="AH37" s="20">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="AI37" s="20">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
       <c r="AJ37" s="20">
         <f t="shared" si="98"/>
         <v>0</v>
@@ -4700,143 +4827,150 @@
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
+      <c r="BK37" s="20">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="BL37" s="20">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="BM37" s="20">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="BN37" s="20">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="BO37" s="20">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="BP37" s="20">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="BQ37" s="20">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B38" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C38" s="11">
-        <f>C37/C18</f>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="11">
+        <f>J37/J18</f>
         <v>-0.34053285250182663</v>
       </c>
-      <c r="D38" s="11">
-        <f t="shared" ref="D38:BJ38" si="99">D37/D18</f>
+      <c r="K38" s="11">
+        <f t="shared" ref="K38:BQ38" si="99">K37/K18</f>
         <v>-0.30680129126283401</v>
       </c>
-      <c r="E38" s="11">
+      <c r="L38" s="11">
         <f t="shared" si="99"/>
         <v>-0.31632289109566353</v>
       </c>
-      <c r="F38" s="11">
+      <c r="M38" s="11">
         <f t="shared" si="99"/>
         <v>-0.12185885090224403</v>
       </c>
-      <c r="G38" s="11">
+      <c r="N38" s="11">
         <f t="shared" si="99"/>
         <v>2.4138624564755538E-2</v>
       </c>
-      <c r="H38" s="11">
+      <c r="O38" s="11">
         <f t="shared" si="99"/>
         <v>4.1175772228628615E-2</v>
       </c>
-      <c r="I38" s="11">
+      <c r="P38" s="11">
         <f t="shared" si="99"/>
         <v>8.4236127572647548E-2</v>
       </c>
-      <c r="J38" s="11">
+      <c r="Q38" s="11">
         <f t="shared" si="99"/>
         <v>0.18180657677611858</v>
       </c>
-      <c r="K38" s="11">
+      <c r="R38" s="11">
         <f t="shared" si="99"/>
         <v>5.1371317463118259E-2</v>
       </c>
-      <c r="L38" s="11">
+      <c r="S38" s="11">
         <f t="shared" si="99"/>
         <v>1.0705750594872969E-2</v>
       </c>
-      <c r="M38" s="11">
+      <c r="T38" s="11">
         <f t="shared" si="99"/>
         <v>0.20902099521825873</v>
       </c>
-      <c r="N38" s="11">
+      <c r="U38" s="11">
         <f t="shared" si="99"/>
         <v>0.19340471995548231</v>
       </c>
-      <c r="O38" s="11">
+      <c r="V38" s="11">
         <f t="shared" si="99"/>
         <v>4.7718194236467018E-2</v>
       </c>
-      <c r="P38" s="11">
+      <c r="W38" s="11">
         <f t="shared" si="99"/>
         <v>0.1193357081286139</v>
       </c>
-      <c r="Q38" s="11">
+      <c r="X38" s="11">
         <f t="shared" si="99"/>
         <v>0.19345203855613996</v>
       </c>
-      <c r="R38" s="11">
+      <c r="Y38" s="11">
         <f t="shared" si="99"/>
         <v>0.27088441399795959</v>
       </c>
-      <c r="S38" s="11">
+      <c r="Z38" s="11">
         <f t="shared" si="99"/>
         <v>0.21270328854988926</v>
       </c>
-      <c r="T38" s="11">
+      <c r="AA38" s="11">
         <f t="shared" si="99"/>
         <v>0.26407048388651766</v>
       </c>
-      <c r="U38" s="11">
+      <c r="AB38" s="11">
         <f t="shared" si="99"/>
         <v>0.24306600830222017</v>
       </c>
-      <c r="V38" s="11">
+      <c r="AC38" s="11">
         <f t="shared" si="99"/>
         <v>0.31631484591816666</v>
       </c>
-      <c r="W38" s="11">
+      <c r="AD38" s="11">
         <f t="shared" si="99"/>
         <v>0.12146484116032281</v>
       </c>
-      <c r="X38" s="11">
+      <c r="AE38" s="11">
         <f t="shared" si="99"/>
         <v>0.19444546617961231</v>
       </c>
-      <c r="Y38" s="11">
+      <c r="AF38" s="11">
         <f t="shared" si="99"/>
         <v>0.18690754155438577</v>
       </c>
-      <c r="Z38" s="11">
+      <c r="AG38" s="11">
         <f t="shared" si="99"/>
         <v>0.28112921244755179</v>
       </c>
-      <c r="AA38" s="11">
+      <c r="AH38" s="11">
         <f t="shared" si="99"/>
         <v>0.17352686590110106</v>
       </c>
-      <c r="AB38" s="11">
+      <c r="AI38" s="11">
         <f t="shared" si="99"/>
         <v>0.15299106589161005</v>
       </c>
-      <c r="AC38" s="11" t="e">
-        <f t="shared" si="99"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD38" s="11" t="e">
-        <f t="shared" si="99"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE38" s="11" t="e">
-        <f t="shared" si="99"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF38" s="11" t="e">
-        <f t="shared" si="99"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG38" s="11" t="e">
-        <f t="shared" si="99"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH38" s="11" t="e">
-        <f t="shared" si="99"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI38" s="11" t="e">
-        <f t="shared" si="99"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AJ38" s="11" t="e">
         <f t="shared" si="99"/>
         <v>#DIV/0!</v>
@@ -4945,32 +5079,46 @@
         <f t="shared" si="99"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="BK38" s="11" t="e">
+        <f t="shared" si="99"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BL38" s="11" t="e">
+        <f t="shared" si="99"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BM38" s="11" t="e">
+        <f t="shared" si="99"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BN38" s="11" t="e">
+        <f t="shared" si="99"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BO38" s="11" t="e">
+        <f t="shared" si="99"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BP38" s="11" t="e">
+        <f t="shared" si="99"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BQ38" s="11" t="e">
+        <f t="shared" si="99"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="40" spans="2:62" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:69" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="24">
-        <v>0</v>
-      </c>
-      <c r="D40" s="24">
-        <v>0</v>
-      </c>
-      <c r="E40" s="24">
-        <v>0</v>
-      </c>
-      <c r="F40" s="24">
-        <v>0</v>
-      </c>
-      <c r="G40" s="24">
-        <v>0</v>
-      </c>
-      <c r="H40" s="24">
-        <v>0</v>
-      </c>
-      <c r="I40" s="24">
-        <v>0</v>
-      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
       <c r="J40" s="24">
         <v>0</v>
       </c>
@@ -5020,317 +5168,331 @@
         <v>0</v>
       </c>
       <c r="Z40" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="24">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="24">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="24">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="24">
+        <v>0</v>
+      </c>
+      <c r="AG40" s="24">
         <v>-393.28100000000001</v>
       </c>
-      <c r="AA40" s="24">
+      <c r="AH40" s="24">
         <v>-360.01299999999998</v>
       </c>
-      <c r="AB40" s="24">
+      <c r="AI40" s="24">
         <v>-171.47</v>
       </c>
     </row>
-    <row r="41" spans="2:62" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:69" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="24">
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="24">
         <v>9.6240000000000006</v>
       </c>
-      <c r="D41" s="24">
+      <c r="K41" s="24">
         <v>11.680999999999999</v>
       </c>
-      <c r="E41" s="24">
+      <c r="L41" s="24">
         <v>15.164</v>
       </c>
-      <c r="F41" s="24">
+      <c r="M41" s="24">
         <v>17.091999999999999</v>
       </c>
-      <c r="G41" s="24">
+      <c r="N41" s="24">
         <v>21.552</v>
       </c>
-      <c r="H41" s="24">
+      <c r="O41" s="24">
         <v>26.48</v>
       </c>
-      <c r="I41" s="24">
+      <c r="P41" s="24">
         <v>99.915999999999997</v>
       </c>
-      <c r="J41" s="24">
+      <c r="Q41" s="24">
         <v>101.672</v>
       </c>
-      <c r="K41" s="24">
+      <c r="R41" s="24">
         <v>78.87</v>
       </c>
-      <c r="L41" s="24">
+      <c r="S41" s="24">
         <v>65.721000000000004</v>
       </c>
-      <c r="M41" s="24">
+      <c r="T41" s="24">
         <v>7.7670000000000003</v>
       </c>
-      <c r="N41" s="24">
+      <c r="U41" s="24">
         <v>2.5920000000000001</v>
       </c>
-      <c r="O41" s="24">
+      <c r="V41" s="24">
         <v>0.879</v>
       </c>
-      <c r="P41" s="24">
+      <c r="W41" s="24">
         <v>0.152</v>
       </c>
-      <c r="Q41" s="24">
+      <c r="X41" s="24">
         <v>0.107</v>
       </c>
-      <c r="R41" s="24">
+      <c r="Y41" s="24">
         <v>23.911999999999999</v>
       </c>
-      <c r="S41" s="24">
+      <c r="Z41" s="24">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="T41" s="24">
+      <c r="AA41" s="24">
         <v>0.34599999999999997</v>
       </c>
-      <c r="U41" s="24">
+      <c r="AB41" s="24">
         <v>10.429</v>
       </c>
-      <c r="V41" s="24">
+      <c r="AC41" s="24">
         <v>65.231999999999999</v>
       </c>
-      <c r="W41" s="24">
+      <c r="AD41" s="24">
         <v>115.892</v>
       </c>
-      <c r="X41" s="24">
+      <c r="AE41" s="24">
         <v>130.95099999999999</v>
       </c>
-      <c r="Y41" s="24">
+      <c r="AF41" s="24">
         <v>185.65199999999999</v>
       </c>
-      <c r="Z41" s="24">
+      <c r="AG41" s="24">
         <v>85.692999999999998</v>
       </c>
-      <c r="AA41" s="24">
+      <c r="AH41" s="24">
         <v>79.478999999999999</v>
       </c>
-      <c r="AB41" s="24">
+      <c r="AI41" s="24">
         <v>36.200000000000003</v>
       </c>
     </row>
-    <row r="42" spans="2:62" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:69" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="24">
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="24">
         <v>21.431000000000001</v>
       </c>
-      <c r="D42" s="24">
+      <c r="K42" s="24">
         <v>15.664</v>
       </c>
-      <c r="E42" s="24">
+      <c r="L42" s="24">
         <v>16.128</v>
       </c>
-      <c r="F42" s="24">
+      <c r="M42" s="24">
         <v>14.5</v>
       </c>
-      <c r="G42" s="24">
+      <c r="N42" s="24">
         <v>21.853999999999999</v>
       </c>
-      <c r="H42" s="24">
+      <c r="O42" s="24">
         <v>10.746</v>
       </c>
-      <c r="I42" s="24">
+      <c r="P42" s="24">
         <v>24.713999999999999</v>
       </c>
-      <c r="J42" s="24">
+      <c r="Q42" s="24">
         <v>16.422999999999998</v>
       </c>
-      <c r="K42" s="24">
+      <c r="R42" s="24">
         <v>17.28</v>
       </c>
-      <c r="L42" s="24">
+      <c r="S42" s="24">
         <v>11.218999999999999</v>
       </c>
-      <c r="M42" s="24">
+      <c r="T42" s="24">
         <v>16.260999999999999</v>
       </c>
-      <c r="N42" s="24">
+      <c r="U42" s="24">
         <v>15.737</v>
       </c>
-      <c r="O42" s="24">
+      <c r="V42" s="24">
         <v>16.391999999999999</v>
       </c>
-      <c r="P42" s="24">
+      <c r="W42" s="24">
         <v>17.370999999999999</v>
       </c>
-      <c r="Q42" s="24">
+      <c r="X42" s="24">
         <v>17.231000000000002</v>
       </c>
-      <c r="R42" s="24">
+      <c r="Y42" s="24">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="S42" s="24">
+      <c r="Z42" s="24">
         <v>16.238</v>
       </c>
-      <c r="T42" s="24">
+      <c r="AA42" s="24">
         <v>11.555</v>
       </c>
-      <c r="U42" s="24">
+      <c r="AB42" s="24">
         <v>21.608000000000001</v>
       </c>
-      <c r="V42" s="24">
+      <c r="AC42" s="24">
         <v>50.179000000000002</v>
       </c>
-      <c r="W42" s="24">
+      <c r="AD42" s="24">
         <v>18.196000000000002</v>
       </c>
-      <c r="X42" s="24">
+      <c r="AE42" s="24">
         <v>23.257999999999999</v>
       </c>
-      <c r="Y42" s="24">
+      <c r="AF42" s="24">
         <v>90.049000000000007</v>
       </c>
-      <c r="Z42" s="24">
+      <c r="AG42" s="24">
         <v>19.812999999999999</v>
       </c>
-      <c r="AA42" s="24">
+      <c r="AH42" s="24">
         <v>17.699000000000002</v>
       </c>
-      <c r="AB42" s="24">
+      <c r="AI42" s="24">
         <v>26.472000000000001</v>
       </c>
     </row>
-    <row r="43" spans="2:62" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:69" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="19">
-        <f>C37+SUM(C40:C42)</f>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="19">
+        <f>J37+SUM(J40:J42)</f>
         <v>-1020.5050000000005</v>
       </c>
-      <c r="D43" s="19">
-        <f t="shared" ref="D43:BJ43" si="100">D37+SUM(D40:D42)</f>
+      <c r="K43" s="19">
+        <f t="shared" ref="K43:BQ43" si="100">K37+SUM(K40:K42)</f>
         <v>-1116.1659999999999</v>
       </c>
-      <c r="E43" s="19">
+      <c r="L43" s="19">
         <f t="shared" si="100"/>
         <v>-1040.9360000000001</v>
       </c>
-      <c r="F43" s="19">
+      <c r="M43" s="19">
         <f t="shared" si="100"/>
         <v>-412.64699999999959</v>
       </c>
-      <c r="G43" s="19">
+      <c r="N43" s="19">
         <f t="shared" si="100"/>
         <v>139.42099999999988</v>
       </c>
-      <c r="H43" s="19">
+      <c r="O43" s="19">
         <f t="shared" si="100"/>
         <v>210.2929999999991</v>
       </c>
-      <c r="I43" s="19">
+      <c r="P43" s="19">
         <f t="shared" si="100"/>
         <v>511.25899999999945</v>
       </c>
-      <c r="J43" s="19">
+      <c r="Q43" s="19">
         <f t="shared" si="100"/>
         <v>991.12799999999993</v>
       </c>
-      <c r="K43" s="19">
+      <c r="R43" s="19">
         <f t="shared" si="100"/>
         <v>327.9080000000007</v>
       </c>
-      <c r="L43" s="19">
+      <c r="S43" s="19">
         <f t="shared" si="100"/>
         <v>128.70299999999946</v>
       </c>
-      <c r="M43" s="19">
+      <c r="T43" s="19">
         <f t="shared" si="100"/>
         <v>1268.4739999999995</v>
       </c>
-      <c r="N43" s="19">
+      <c r="U43" s="19">
         <f t="shared" si="100"/>
         <v>1235.8150000000003</v>
       </c>
-      <c r="O43" s="19">
+      <c r="V43" s="19">
         <f t="shared" si="100"/>
         <v>249.64200000000011</v>
       </c>
-      <c r="P43" s="19">
+      <c r="W43" s="19">
         <f t="shared" si="100"/>
         <v>628.74200000000053</v>
       </c>
-      <c r="Q43" s="19">
+      <c r="X43" s="19">
         <f t="shared" si="100"/>
         <v>1212.9070000000008</v>
       </c>
-      <c r="R43" s="19">
+      <c r="Y43" s="19">
         <f t="shared" si="100"/>
         <v>1885.8280000000002</v>
       </c>
-      <c r="S43" s="19">
+      <c r="Z43" s="19">
         <f t="shared" si="100"/>
         <v>1440.5480000000005</v>
       </c>
-      <c r="T43" s="19">
+      <c r="AA43" s="19">
         <f t="shared" si="100"/>
         <v>1819.6800000000005</v>
       </c>
-      <c r="U43" s="19">
+      <c r="AB43" s="19">
         <f t="shared" si="100"/>
         <v>1717.9369999999997</v>
       </c>
-      <c r="V43" s="19">
+      <c r="AC43" s="19">
         <f t="shared" si="100"/>
         <v>2412.844000000001</v>
       </c>
-      <c r="W43" s="19">
+      <c r="AD43" s="19">
         <f t="shared" si="100"/>
         <v>925.58400000000051</v>
       </c>
-      <c r="X43" s="19">
+      <c r="AE43" s="19">
         <f t="shared" si="100"/>
         <v>1581.5269999999998</v>
       </c>
-      <c r="Y43" s="19">
+      <c r="AF43" s="19">
         <f t="shared" si="100"/>
         <v>1763.3369999999995</v>
       </c>
-      <c r="Z43" s="19">
+      <c r="AG43" s="19">
         <f t="shared" si="100"/>
         <v>3364.822999999999</v>
       </c>
-      <c r="AA43" s="19">
+      <c r="AH43" s="19">
         <f t="shared" si="100"/>
         <v>1352.3640000000005</v>
       </c>
-      <c r="AB43" s="19">
+      <c r="AI43" s="19">
         <f t="shared" si="100"/>
         <v>1534.2520000000002</v>
       </c>
-      <c r="AC43" s="19">
-        <f t="shared" si="100"/>
-        <v>0</v>
-      </c>
-      <c r="AD43" s="19">
-        <f t="shared" si="100"/>
-        <v>0</v>
-      </c>
-      <c r="AE43" s="19">
-        <f t="shared" si="100"/>
-        <v>0</v>
-      </c>
-      <c r="AF43" s="19">
-        <f t="shared" si="100"/>
-        <v>0</v>
-      </c>
-      <c r="AG43" s="19">
-        <f t="shared" si="100"/>
-        <v>0</v>
-      </c>
-      <c r="AH43" s="19">
-        <f t="shared" si="100"/>
-        <v>0</v>
-      </c>
-      <c r="AI43" s="19">
-        <f t="shared" si="100"/>
-        <v>0</v>
-      </c>
       <c r="AJ43" s="19">
         <f t="shared" si="100"/>
         <v>0</v>
@@ -5439,227 +5601,241 @@
         <f t="shared" si="100"/>
         <v>0</v>
       </c>
+      <c r="BK43" s="19">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="BL43" s="19">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="BM43" s="19">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="BN43" s="19">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="BO43" s="19">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="BP43" s="19">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="BQ43" s="19">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="2:62" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:69" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C45" s="17">
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="17">
         <v>-138.886</v>
       </c>
-      <c r="D45" s="17">
+      <c r="K45" s="17">
         <v>200.70500000000001</v>
       </c>
-      <c r="E45" s="17">
+      <c r="L45" s="17">
         <v>0.10100000000000001</v>
       </c>
-      <c r="F45" s="17">
+      <c r="M45" s="17">
         <v>1.7310000000000001</v>
       </c>
-      <c r="G45" s="17">
-        <v>0</v>
-      </c>
-      <c r="H45" s="17">
+      <c r="N45" s="17">
+        <v>0</v>
+      </c>
+      <c r="O45" s="17">
         <v>7.7939999999999996</v>
       </c>
-      <c r="I45" s="17">
-        <v>0</v>
-      </c>
-      <c r="J45" s="17">
+      <c r="P45" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="17">
         <v>-5.9889999999999999</v>
       </c>
-      <c r="K45" s="17">
-        <v>0</v>
-      </c>
-      <c r="L45" s="17">
+      <c r="R45" s="17">
+        <v>0</v>
+      </c>
+      <c r="S45" s="17">
         <v>-309.40199999999999</v>
       </c>
-      <c r="M45" s="17">
+      <c r="T45" s="17">
         <v>8.6159999999999997</v>
       </c>
-      <c r="N45" s="17">
+      <c r="U45" s="17">
         <f>-8.096</f>
         <v>-8.0960000000000001</v>
       </c>
-      <c r="O45" s="17">
+      <c r="V45" s="17">
         <v>9.4969999999999999</v>
       </c>
-      <c r="P45" s="17">
+      <c r="W45" s="17">
         <v>20.164999999999999</v>
       </c>
-      <c r="Q45" s="17">
+      <c r="X45" s="17">
         <v>-1473.0139999999999</v>
       </c>
-      <c r="R45" s="17">
+      <c r="Y45" s="17">
         <v>355.56900000000002</v>
       </c>
-      <c r="S45" s="17">
+      <c r="Z45" s="17">
         <v>307.49</v>
       </c>
-      <c r="T45" s="17">
+      <c r="AA45" s="17">
         <v>390.11</v>
       </c>
-      <c r="U45" s="17">
+      <c r="AB45" s="17">
         <v>358.76299999999998</v>
       </c>
-      <c r="V45" s="17">
+      <c r="AC45" s="17">
         <v>761.46799999999996</v>
       </c>
-      <c r="W45" s="17">
+      <c r="AD45" s="17">
         <v>226.93299999999999</v>
       </c>
-      <c r="X45" s="17">
+      <c r="AE45" s="17">
         <v>310.42399999999998</v>
       </c>
-      <c r="Y45" s="17">
+      <c r="AF45" s="17">
         <v>339.95800000000003</v>
       </c>
-      <c r="Z45" s="17">
+      <c r="AG45" s="17">
         <v>730.202</v>
       </c>
-      <c r="AA45" s="17">
+      <c r="AH45" s="17">
         <v>295.01400000000001</v>
       </c>
-      <c r="AB45" s="17">
+      <c r="AI45" s="17">
         <v>325.93599999999998</v>
       </c>
     </row>
-    <row r="46" spans="2:62" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:69" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="18">
-        <f>C43-C45</f>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="18">
+        <f>J43-J45</f>
         <v>-881.61900000000048</v>
       </c>
-      <c r="D46" s="18">
-        <f t="shared" ref="D46:BJ46" si="101">D43-D45</f>
+      <c r="K46" s="18">
+        <f t="shared" ref="K46:BQ46" si="101">K43-K45</f>
         <v>-1316.8709999999999</v>
       </c>
-      <c r="E46" s="18">
+      <c r="L46" s="18">
         <f t="shared" si="101"/>
         <v>-1041.0370000000003</v>
       </c>
-      <c r="F46" s="18">
+      <c r="M46" s="18">
         <f t="shared" si="101"/>
         <v>-414.37799999999959</v>
       </c>
-      <c r="G46" s="18">
+      <c r="N46" s="18">
         <f t="shared" si="101"/>
         <v>139.42099999999988</v>
       </c>
-      <c r="H46" s="18">
+      <c r="O46" s="18">
         <f t="shared" si="101"/>
         <v>202.49899999999909</v>
       </c>
-      <c r="I46" s="18">
+      <c r="P46" s="18">
         <f t="shared" si="101"/>
         <v>511.25899999999945</v>
       </c>
-      <c r="J46" s="18">
+      <c r="Q46" s="18">
         <f t="shared" si="101"/>
         <v>997.11699999999996</v>
       </c>
-      <c r="K46" s="18">
+      <c r="R46" s="18">
         <f t="shared" si="101"/>
         <v>327.9080000000007</v>
       </c>
-      <c r="L46" s="18">
+      <c r="S46" s="18">
         <f t="shared" si="101"/>
         <v>438.10499999999945</v>
       </c>
-      <c r="M46" s="18">
+      <c r="T46" s="18">
         <f t="shared" si="101"/>
         <v>1259.8579999999995</v>
       </c>
-      <c r="N46" s="18">
+      <c r="U46" s="18">
         <f t="shared" si="101"/>
         <v>1243.9110000000003</v>
       </c>
-      <c r="O46" s="18">
+      <c r="V46" s="18">
         <f t="shared" si="101"/>
         <v>240.1450000000001</v>
       </c>
-      <c r="P46" s="18">
+      <c r="W46" s="18">
         <f t="shared" si="101"/>
         <v>608.57700000000057</v>
       </c>
-      <c r="Q46" s="18">
+      <c r="X46" s="18">
         <f t="shared" si="101"/>
         <v>2685.9210000000007</v>
       </c>
-      <c r="R46" s="18">
+      <c r="Y46" s="18">
         <f t="shared" si="101"/>
         <v>1530.2590000000002</v>
       </c>
-      <c r="S46" s="18">
+      <c r="Z46" s="18">
         <f t="shared" si="101"/>
         <v>1133.0580000000004</v>
       </c>
-      <c r="T46" s="18">
+      <c r="AA46" s="18">
         <f t="shared" si="101"/>
         <v>1429.5700000000006</v>
       </c>
-      <c r="U46" s="18">
+      <c r="AB46" s="18">
         <f t="shared" si="101"/>
         <v>1359.1739999999998</v>
       </c>
-      <c r="V46" s="18">
+      <c r="AC46" s="18">
         <f t="shared" si="101"/>
         <v>1651.3760000000011</v>
       </c>
-      <c r="W46" s="18">
+      <c r="AD46" s="18">
         <f t="shared" si="101"/>
         <v>698.65100000000052</v>
       </c>
-      <c r="X46" s="18">
+      <c r="AE46" s="18">
         <f t="shared" si="101"/>
         <v>1271.1029999999998</v>
       </c>
-      <c r="Y46" s="18">
+      <c r="AF46" s="18">
         <f t="shared" si="101"/>
         <v>1423.3789999999995</v>
       </c>
-      <c r="Z46" s="18">
+      <c r="AG46" s="18">
         <f t="shared" si="101"/>
         <v>2634.6209999999992</v>
       </c>
-      <c r="AA46" s="18">
+      <c r="AH46" s="18">
         <f t="shared" si="101"/>
         <v>1057.3500000000004</v>
       </c>
-      <c r="AB46" s="18">
+      <c r="AI46" s="18">
         <f t="shared" si="101"/>
         <v>1208.3160000000003</v>
       </c>
-      <c r="AC46" s="18">
-        <f t="shared" si="101"/>
-        <v>0</v>
-      </c>
-      <c r="AD46" s="18">
-        <f t="shared" si="101"/>
-        <v>0</v>
-      </c>
-      <c r="AE46" s="18">
-        <f t="shared" si="101"/>
-        <v>0</v>
-      </c>
-      <c r="AF46" s="18">
-        <f t="shared" si="101"/>
-        <v>0</v>
-      </c>
-      <c r="AG46" s="18">
-        <f t="shared" si="101"/>
-        <v>0</v>
-      </c>
-      <c r="AH46" s="18">
-        <f t="shared" si="101"/>
-        <v>0</v>
-      </c>
-      <c r="AI46" s="18">
-        <f t="shared" si="101"/>
-        <v>0</v>
-      </c>
       <c r="AJ46" s="18">
         <f t="shared" si="101"/>
         <v>0</v>
@@ -5768,16 +5944,44 @@
         <f t="shared" si="101"/>
         <v>0</v>
       </c>
+      <c r="BK46" s="18">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="BL46" s="18">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="BM46" s="18">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="BN46" s="18">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="BO46" s="18">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="BP46" s="18">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="BQ46" s="18">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="2:62" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:69" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="22"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
       <c r="J47" s="23"/>
       <c r="K47" s="23"/>
       <c r="L47" s="23"/>
@@ -5831,1130 +6035,1168 @@
       <c r="BH47" s="23"/>
       <c r="BI47" s="23"/>
       <c r="BJ47" s="23"/>
+      <c r="BK47" s="23"/>
+      <c r="BL47" s="23"/>
+      <c r="BM47" s="23"/>
+      <c r="BN47" s="23"/>
+      <c r="BO47" s="23"/>
+      <c r="BP47" s="23"/>
+      <c r="BQ47" s="23"/>
     </row>
-    <row r="48" spans="2:62" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:69" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C48" s="17">
-        <f>C40-C41</f>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="17">
+        <f>J40-J41</f>
         <v>-9.6240000000000006</v>
       </c>
-      <c r="D48" s="17">
-        <f t="shared" ref="D48:AB48" si="102">D40-D41</f>
+      <c r="K48" s="17">
+        <f t="shared" ref="K48:AI48" si="102">K40-K41</f>
         <v>-11.680999999999999</v>
       </c>
-      <c r="E48" s="17">
+      <c r="L48" s="17">
         <f t="shared" si="102"/>
         <v>-15.164</v>
       </c>
-      <c r="F48" s="17">
+      <c r="M48" s="17">
         <f t="shared" si="102"/>
         <v>-17.091999999999999</v>
       </c>
-      <c r="G48" s="17">
+      <c r="N48" s="17">
         <f t="shared" si="102"/>
         <v>-21.552</v>
       </c>
-      <c r="H48" s="17">
+      <c r="O48" s="17">
         <f t="shared" si="102"/>
         <v>-26.48</v>
       </c>
-      <c r="I48" s="17">
+      <c r="P48" s="17">
         <f t="shared" si="102"/>
         <v>-99.915999999999997</v>
       </c>
-      <c r="J48" s="17">
+      <c r="Q48" s="17">
         <f t="shared" si="102"/>
         <v>-101.672</v>
       </c>
-      <c r="K48" s="17">
+      <c r="R48" s="17">
         <f t="shared" si="102"/>
         <v>-78.87</v>
       </c>
-      <c r="L48" s="17">
+      <c r="S48" s="17">
         <f t="shared" si="102"/>
         <v>-65.721000000000004</v>
       </c>
-      <c r="M48" s="17">
+      <c r="T48" s="17">
         <f t="shared" si="102"/>
         <v>-7.7670000000000003</v>
       </c>
-      <c r="N48" s="17">
+      <c r="U48" s="17">
         <f t="shared" si="102"/>
         <v>-2.5920000000000001</v>
       </c>
-      <c r="O48" s="17">
+      <c r="V48" s="17">
         <f t="shared" si="102"/>
         <v>-0.879</v>
       </c>
-      <c r="P48" s="17">
+      <c r="W48" s="17">
         <f t="shared" si="102"/>
         <v>-0.152</v>
       </c>
-      <c r="Q48" s="17">
+      <c r="X48" s="17">
         <f t="shared" si="102"/>
         <v>-0.107</v>
       </c>
-      <c r="R48" s="17">
+      <c r="Y48" s="17">
         <f t="shared" si="102"/>
         <v>-23.911999999999999</v>
       </c>
-      <c r="S48" s="17">
+      <c r="Z48" s="17">
         <f t="shared" si="102"/>
         <v>-9.6000000000000002E-2</v>
       </c>
-      <c r="T48" s="17">
+      <c r="AA48" s="17">
         <f t="shared" si="102"/>
         <v>-0.34599999999999997</v>
       </c>
-      <c r="U48" s="17">
+      <c r="AB48" s="17">
         <f t="shared" si="102"/>
         <v>-10.429</v>
       </c>
-      <c r="V48" s="17">
+      <c r="AC48" s="17">
         <f t="shared" si="102"/>
         <v>-65.231999999999999</v>
       </c>
-      <c r="W48" s="17">
+      <c r="AD48" s="17">
         <f t="shared" si="102"/>
         <v>-115.892</v>
       </c>
-      <c r="X48" s="17">
+      <c r="AE48" s="17">
         <f t="shared" si="102"/>
         <v>-130.95099999999999</v>
       </c>
-      <c r="Y48" s="17">
+      <c r="AF48" s="17">
         <f t="shared" si="102"/>
         <v>-185.65199999999999</v>
       </c>
-      <c r="Z48" s="17">
+      <c r="AG48" s="17">
         <f t="shared" si="102"/>
         <v>-478.97399999999999</v>
       </c>
-      <c r="AA48" s="17">
+      <c r="AH48" s="17">
         <f t="shared" si="102"/>
         <v>-439.49199999999996</v>
       </c>
-      <c r="AB48" s="17">
+      <c r="AI48" s="17">
         <f t="shared" si="102"/>
         <v>-207.67000000000002</v>
       </c>
     </row>
-    <row r="49" spans="2:62" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:69" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C49" s="17">
-        <f>C45</f>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="17">
+        <f>J45</f>
         <v>-138.886</v>
       </c>
-      <c r="D49" s="17">
-        <f t="shared" ref="D49:AB49" si="103">D45</f>
+      <c r="K49" s="17">
+        <f t="shared" ref="K49:AI49" si="103">K45</f>
         <v>200.70500000000001</v>
       </c>
-      <c r="E49" s="17">
+      <c r="L49" s="17">
         <f t="shared" si="103"/>
         <v>0.10100000000000001</v>
       </c>
-      <c r="F49" s="17">
+      <c r="M49" s="17">
         <f t="shared" si="103"/>
         <v>1.7310000000000001</v>
       </c>
-      <c r="G49" s="17">
+      <c r="N49" s="17">
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="H49" s="17">
+      <c r="O49" s="17">
         <f t="shared" si="103"/>
         <v>7.7939999999999996</v>
       </c>
-      <c r="I49" s="17">
+      <c r="P49" s="17">
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="J49" s="17">
+      <c r="Q49" s="17">
         <f t="shared" si="103"/>
         <v>-5.9889999999999999</v>
       </c>
-      <c r="K49" s="17">
+      <c r="R49" s="17">
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="L49" s="17">
+      <c r="S49" s="17">
         <f t="shared" si="103"/>
         <v>-309.40199999999999</v>
       </c>
-      <c r="M49" s="17">
+      <c r="T49" s="17">
         <f t="shared" si="103"/>
         <v>8.6159999999999997</v>
       </c>
-      <c r="N49" s="17">
+      <c r="U49" s="17">
         <f t="shared" si="103"/>
         <v>-8.0960000000000001</v>
       </c>
-      <c r="O49" s="17">
+      <c r="V49" s="17">
         <f t="shared" si="103"/>
         <v>9.4969999999999999</v>
       </c>
-      <c r="P49" s="17">
+      <c r="W49" s="17">
         <f t="shared" si="103"/>
         <v>20.164999999999999</v>
       </c>
-      <c r="Q49" s="17">
+      <c r="X49" s="17">
         <f t="shared" si="103"/>
         <v>-1473.0139999999999</v>
       </c>
-      <c r="R49" s="17">
+      <c r="Y49" s="17">
         <f t="shared" si="103"/>
         <v>355.56900000000002</v>
       </c>
-      <c r="S49" s="17">
+      <c r="Z49" s="17">
         <f t="shared" si="103"/>
         <v>307.49</v>
       </c>
-      <c r="T49" s="17">
+      <c r="AA49" s="17">
         <f t="shared" si="103"/>
         <v>390.11</v>
       </c>
-      <c r="U49" s="17">
+      <c r="AB49" s="17">
         <f t="shared" si="103"/>
         <v>358.76299999999998</v>
       </c>
-      <c r="V49" s="17">
+      <c r="AC49" s="17">
         <f t="shared" si="103"/>
         <v>761.46799999999996</v>
       </c>
-      <c r="W49" s="17">
+      <c r="AD49" s="17">
         <f t="shared" si="103"/>
         <v>226.93299999999999</v>
       </c>
-      <c r="X49" s="17">
+      <c r="AE49" s="17">
         <f t="shared" si="103"/>
         <v>310.42399999999998</v>
       </c>
-      <c r="Y49" s="17">
+      <c r="AF49" s="17">
         <f t="shared" si="103"/>
         <v>339.95800000000003</v>
       </c>
-      <c r="Z49" s="17">
+      <c r="AG49" s="17">
         <f t="shared" si="103"/>
         <v>730.202</v>
       </c>
-      <c r="AA49" s="17">
+      <c r="AH49" s="17">
         <f t="shared" si="103"/>
         <v>295.01400000000001</v>
       </c>
-      <c r="AB49" s="17">
+      <c r="AI49" s="17">
         <f t="shared" si="103"/>
         <v>325.93599999999998</v>
       </c>
     </row>
-    <row r="50" spans="2:62" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:69" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C50" s="25">
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="25">
         <v>103.36799999999999</v>
       </c>
-      <c r="D50" s="25">
-        <f>210.549-C50</f>
+      <c r="K50" s="25">
+        <f>210.549-J50</f>
         <v>107.18100000000001</v>
       </c>
-      <c r="E50" s="25">
-        <f>316.855-SUM(C50:D50)</f>
+      <c r="L50" s="25">
+        <f>316.855-SUM(J50:K50)</f>
         <v>106.30600000000001</v>
       </c>
-      <c r="F50" s="25">
-        <f>436.208-SUM(C50:E50)</f>
+      <c r="M50" s="25">
+        <f>436.208-SUM(J50:L50)</f>
         <v>119.35300000000001</v>
       </c>
-      <c r="G50" s="25">
+      <c r="N50" s="25">
         <v>116.078</v>
       </c>
-      <c r="H50" s="25">
-        <f>234.846-G50</f>
+      <c r="O50" s="25">
+        <f>234.846-N50</f>
         <v>118.768</v>
       </c>
-      <c r="I50" s="25">
-        <f>342.359-SUM(G50:H50)</f>
+      <c r="P50" s="25">
+        <f>342.359-SUM(N50:O50)</f>
         <v>107.51299999999998</v>
       </c>
-      <c r="J50" s="25">
-        <f>451.278-SUM(G50:I50)</f>
+      <c r="Q50" s="25">
+        <f>451.278-SUM(N50:P50)</f>
         <v>108.91900000000004</v>
       </c>
-      <c r="K50" s="25">
+      <c r="R50" s="25">
         <f>104.135</f>
         <v>104.13500000000001</v>
       </c>
-      <c r="L50" s="25">
-        <f>205.154-K50</f>
+      <c r="S50" s="25">
+        <f>205.154-R50</f>
         <v>101.01899999999999</v>
       </c>
-      <c r="M50" s="25">
-        <f>301.55-SUM(K50:L50)</f>
+      <c r="T50" s="25">
+        <f>301.55-SUM(R50:S50)</f>
         <v>96.396000000000015</v>
       </c>
-      <c r="N50" s="25">
-        <f>433.51-SUM(K50:M50)</f>
+      <c r="U50" s="25">
+        <f>433.51-SUM(R50:T50)</f>
         <v>131.95999999999998</v>
       </c>
-      <c r="O50" s="25">
+      <c r="V50" s="25">
         <v>113.682</v>
       </c>
-      <c r="P50" s="25">
-        <f>224.478-O50</f>
+      <c r="W50" s="25">
+        <f>224.478-V50</f>
         <v>110.79600000000001</v>
       </c>
-      <c r="Q50" s="25">
-        <f>334.25-SUM(O50:P50)</f>
+      <c r="X50" s="25">
+        <f>334.25-SUM(V50:W50)</f>
         <v>109.77199999999999</v>
       </c>
-      <c r="R50" s="25">
-        <f>432.176-SUM(O50:Q50)</f>
+      <c r="Y50" s="25">
+        <f>432.176-SUM(V50:X50)</f>
         <v>97.925999999999988</v>
       </c>
-      <c r="S50" s="25">
+      <c r="Z50" s="25">
         <v>92.372</v>
       </c>
-      <c r="T50" s="25">
-        <f>188.136-S50</f>
+      <c r="AA50" s="25">
+        <f>188.136-Z50</f>
         <v>95.763999999999996</v>
       </c>
-      <c r="U50" s="25">
-        <f>278.164-SUM(S50:T50)</f>
+      <c r="AB50" s="25">
+        <f>278.164-SUM(Z50:AA50)</f>
         <v>90.027999999999992</v>
       </c>
-      <c r="V50" s="25">
-        <f>368.499-SUM(S50:U50)</f>
+      <c r="AC50" s="25">
+        <f>368.499-SUM(Z50:AB50)</f>
         <v>90.335000000000036</v>
       </c>
-      <c r="W50" s="25">
+      <c r="AD50" s="25">
         <v>85.409000000000006</v>
       </c>
-      <c r="X50" s="25">
-        <f>171.389-W50</f>
+      <c r="AE50" s="25">
+        <f>171.389-AD50</f>
         <v>85.98</v>
       </c>
-      <c r="Y50" s="25">
-        <f>258.892-SUM(W50:X50)</f>
+      <c r="AF50" s="25">
+        <f>258.892-SUM(AD50:AE50)</f>
         <v>87.502999999999986</v>
       </c>
-      <c r="Z50" s="25">
-        <f>697.943-SUM(W50:Y50)</f>
+      <c r="AG50" s="25">
+        <f>697.943-SUM(AD50:AF50)</f>
         <v>439.05099999999999</v>
       </c>
-      <c r="AA50" s="25">
+      <c r="AH50" s="25">
         <v>411.42099999999999</v>
       </c>
-      <c r="AB50" s="25">
-        <f>826.077-AA50</f>
+      <c r="AI50" s="25">
+        <f>826.077-AH50</f>
         <v>414.65600000000001</v>
       </c>
     </row>
-    <row r="51" spans="2:62" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:69" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C51" s="18">
-        <f>C46+SUM(C48:C50)</f>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="18">
+        <f>J46+SUM(J48:J50)</f>
         <v>-926.76100000000042</v>
       </c>
-      <c r="D51" s="18">
-        <f t="shared" ref="D51:AB51" si="104">D46+SUM(D48:D50)</f>
+      <c r="K51" s="18">
+        <f t="shared" ref="K51:AI51" si="104">K46+SUM(K48:K50)</f>
         <v>-1020.6659999999998</v>
       </c>
-      <c r="E51" s="18">
+      <c r="L51" s="18">
         <f t="shared" si="104"/>
         <v>-949.79400000000021</v>
       </c>
-      <c r="F51" s="18">
+      <c r="M51" s="18">
         <f t="shared" si="104"/>
         <v>-310.38599999999957</v>
       </c>
-      <c r="G51" s="18">
+      <c r="N51" s="18">
         <f t="shared" si="104"/>
         <v>233.94699999999989</v>
       </c>
-      <c r="H51" s="18">
+      <c r="O51" s="18">
         <f t="shared" si="104"/>
         <v>302.58099999999911</v>
       </c>
-      <c r="I51" s="18">
+      <c r="P51" s="18">
         <f t="shared" si="104"/>
         <v>518.85599999999943</v>
       </c>
-      <c r="J51" s="18">
+      <c r="Q51" s="18">
         <f t="shared" si="104"/>
         <v>998.375</v>
       </c>
-      <c r="K51" s="18">
+      <c r="R51" s="18">
         <f t="shared" si="104"/>
         <v>353.17300000000068</v>
       </c>
-      <c r="L51" s="18">
+      <c r="S51" s="18">
         <f t="shared" si="104"/>
         <v>164.00099999999946</v>
       </c>
-      <c r="M51" s="18">
+      <c r="T51" s="18">
         <f t="shared" si="104"/>
         <v>1357.1029999999996</v>
       </c>
-      <c r="N51" s="18">
+      <c r="U51" s="18">
         <f t="shared" si="104"/>
         <v>1365.1830000000002</v>
       </c>
-      <c r="O51" s="18">
+      <c r="V51" s="18">
         <f t="shared" si="104"/>
         <v>362.44500000000011</v>
       </c>
-      <c r="P51" s="18">
+      <c r="W51" s="18">
         <f t="shared" si="104"/>
         <v>739.38600000000054</v>
       </c>
-      <c r="Q51" s="18">
+      <c r="X51" s="18">
         <f t="shared" si="104"/>
         <v>1322.5720000000008</v>
       </c>
-      <c r="R51" s="18">
+      <c r="Y51" s="18">
         <f t="shared" si="104"/>
         <v>1959.8420000000003</v>
       </c>
-      <c r="S51" s="18">
+      <c r="Z51" s="18">
         <f t="shared" si="104"/>
         <v>1532.8240000000005</v>
       </c>
-      <c r="T51" s="18">
+      <c r="AA51" s="18">
         <f t="shared" si="104"/>
         <v>1915.0980000000006</v>
       </c>
-      <c r="U51" s="18">
+      <c r="AB51" s="18">
         <f t="shared" si="104"/>
         <v>1797.5359999999996</v>
       </c>
-      <c r="V51" s="18">
+      <c r="AC51" s="18">
         <f t="shared" si="104"/>
         <v>2437.947000000001</v>
       </c>
-      <c r="W51" s="18">
+      <c r="AD51" s="18">
         <f t="shared" si="104"/>
         <v>895.10100000000057</v>
       </c>
-      <c r="X51" s="18">
+      <c r="AE51" s="18">
         <f t="shared" si="104"/>
         <v>1536.5559999999998</v>
       </c>
-      <c r="Y51" s="18">
+      <c r="AF51" s="18">
         <f t="shared" si="104"/>
         <v>1665.1879999999994</v>
       </c>
-      <c r="Z51" s="18">
+      <c r="AG51" s="18">
         <f t="shared" si="104"/>
         <v>3324.8999999999992</v>
       </c>
-      <c r="AA51" s="18">
+      <c r="AH51" s="18">
         <f t="shared" si="104"/>
         <v>1324.2930000000003</v>
       </c>
-      <c r="AB51" s="18">
+      <c r="AI51" s="18">
         <f t="shared" si="104"/>
         <v>1741.2380000000003</v>
       </c>
-      <c r="AC51" s="18">
-        <f t="shared" ref="AC51" si="105">AC46+SUM(AC48:AC50)</f>
-        <v>0</v>
-      </c>
-      <c r="AD51" s="18">
-        <f t="shared" ref="AD51" si="106">AD46+SUM(AD48:AD50)</f>
-        <v>0</v>
-      </c>
-      <c r="AE51" s="18">
-        <f t="shared" ref="AE51" si="107">AE46+SUM(AE48:AE50)</f>
-        <v>0</v>
-      </c>
-      <c r="AF51" s="18">
-        <f t="shared" ref="AF51" si="108">AF46+SUM(AF48:AF50)</f>
-        <v>0</v>
-      </c>
-      <c r="AG51" s="18">
-        <f t="shared" ref="AG51" si="109">AG46+SUM(AG48:AG50)</f>
-        <v>0</v>
-      </c>
-      <c r="AH51" s="18">
-        <f t="shared" ref="AH51" si="110">AH46+SUM(AH48:AH50)</f>
-        <v>0</v>
-      </c>
-      <c r="AI51" s="18">
-        <f t="shared" ref="AI51" si="111">AI46+SUM(AI48:AI50)</f>
-        <v>0</v>
-      </c>
       <c r="AJ51" s="18">
-        <f t="shared" ref="AJ51" si="112">AJ46+SUM(AJ48:AJ50)</f>
+        <f t="shared" ref="AJ51" si="105">AJ46+SUM(AJ48:AJ50)</f>
         <v>0</v>
       </c>
       <c r="AK51" s="18">
-        <f t="shared" ref="AK51" si="113">AK46+SUM(AK48:AK50)</f>
+        <f t="shared" ref="AK51" si="106">AK46+SUM(AK48:AK50)</f>
         <v>0</v>
       </c>
       <c r="AL51" s="18">
-        <f t="shared" ref="AL51" si="114">AL46+SUM(AL48:AL50)</f>
+        <f t="shared" ref="AL51" si="107">AL46+SUM(AL48:AL50)</f>
         <v>0</v>
       </c>
       <c r="AM51" s="18">
-        <f t="shared" ref="AM51" si="115">AM46+SUM(AM48:AM50)</f>
+        <f t="shared" ref="AM51" si="108">AM46+SUM(AM48:AM50)</f>
         <v>0</v>
       </c>
       <c r="AN51" s="18">
-        <f t="shared" ref="AN51" si="116">AN46+SUM(AN48:AN50)</f>
+        <f t="shared" ref="AN51" si="109">AN46+SUM(AN48:AN50)</f>
         <v>0</v>
       </c>
       <c r="AO51" s="18">
-        <f t="shared" ref="AO51" si="117">AO46+SUM(AO48:AO50)</f>
+        <f t="shared" ref="AO51" si="110">AO46+SUM(AO48:AO50)</f>
         <v>0</v>
       </c>
       <c r="AP51" s="18">
-        <f t="shared" ref="AP51" si="118">AP46+SUM(AP48:AP50)</f>
+        <f t="shared" ref="AP51" si="111">AP46+SUM(AP48:AP50)</f>
         <v>0</v>
       </c>
       <c r="AQ51" s="18">
-        <f t="shared" ref="AQ51" si="119">AQ46+SUM(AQ48:AQ50)</f>
+        <f t="shared" ref="AQ51" si="112">AQ46+SUM(AQ48:AQ50)</f>
         <v>0</v>
       </c>
       <c r="AR51" s="18">
-        <f t="shared" ref="AR51" si="120">AR46+SUM(AR48:AR50)</f>
+        <f t="shared" ref="AR51" si="113">AR46+SUM(AR48:AR50)</f>
         <v>0</v>
       </c>
       <c r="AS51" s="18">
-        <f t="shared" ref="AS51" si="121">AS46+SUM(AS48:AS50)</f>
+        <f t="shared" ref="AS51" si="114">AS46+SUM(AS48:AS50)</f>
         <v>0</v>
       </c>
       <c r="AT51" s="18">
-        <f t="shared" ref="AT51" si="122">AT46+SUM(AT48:AT50)</f>
+        <f t="shared" ref="AT51" si="115">AT46+SUM(AT48:AT50)</f>
         <v>0</v>
       </c>
       <c r="AU51" s="18">
-        <f t="shared" ref="AU51" si="123">AU46+SUM(AU48:AU50)</f>
+        <f t="shared" ref="AU51" si="116">AU46+SUM(AU48:AU50)</f>
         <v>0</v>
       </c>
       <c r="AV51" s="18">
-        <f t="shared" ref="AV51" si="124">AV46+SUM(AV48:AV50)</f>
+        <f t="shared" ref="AV51" si="117">AV46+SUM(AV48:AV50)</f>
         <v>0</v>
       </c>
       <c r="AW51" s="18">
-        <f t="shared" ref="AW51" si="125">AW46+SUM(AW48:AW50)</f>
+        <f t="shared" ref="AW51" si="118">AW46+SUM(AW48:AW50)</f>
         <v>0</v>
       </c>
       <c r="AX51" s="18">
-        <f t="shared" ref="AX51" si="126">AX46+SUM(AX48:AX50)</f>
+        <f t="shared" ref="AX51" si="119">AX46+SUM(AX48:AX50)</f>
         <v>0</v>
       </c>
       <c r="AY51" s="18">
-        <f t="shared" ref="AY51" si="127">AY46+SUM(AY48:AY50)</f>
+        <f t="shared" ref="AY51" si="120">AY46+SUM(AY48:AY50)</f>
         <v>0</v>
       </c>
       <c r="AZ51" s="18">
-        <f t="shared" ref="AZ51" si="128">AZ46+SUM(AZ48:AZ50)</f>
+        <f t="shared" ref="AZ51" si="121">AZ46+SUM(AZ48:AZ50)</f>
         <v>0</v>
       </c>
       <c r="BA51" s="18">
-        <f t="shared" ref="BA51" si="129">BA46+SUM(BA48:BA50)</f>
+        <f t="shared" ref="BA51" si="122">BA46+SUM(BA48:BA50)</f>
         <v>0</v>
       </c>
       <c r="BB51" s="18">
-        <f t="shared" ref="BB51" si="130">BB46+SUM(BB48:BB50)</f>
+        <f t="shared" ref="BB51" si="123">BB46+SUM(BB48:BB50)</f>
         <v>0</v>
       </c>
       <c r="BC51" s="18">
-        <f t="shared" ref="BC51" si="131">BC46+SUM(BC48:BC50)</f>
+        <f t="shared" ref="BC51" si="124">BC46+SUM(BC48:BC50)</f>
         <v>0</v>
       </c>
       <c r="BD51" s="18">
-        <f t="shared" ref="BD51" si="132">BD46+SUM(BD48:BD50)</f>
+        <f t="shared" ref="BD51" si="125">BD46+SUM(BD48:BD50)</f>
         <v>0</v>
       </c>
       <c r="BE51" s="18">
-        <f t="shared" ref="BE51" si="133">BE46+SUM(BE48:BE50)</f>
+        <f t="shared" ref="BE51" si="126">BE46+SUM(BE48:BE50)</f>
         <v>0</v>
       </c>
       <c r="BF51" s="18">
-        <f t="shared" ref="BF51" si="134">BF46+SUM(BF48:BF50)</f>
+        <f t="shared" ref="BF51" si="127">BF46+SUM(BF48:BF50)</f>
         <v>0</v>
       </c>
       <c r="BG51" s="18">
-        <f t="shared" ref="BG51" si="135">BG46+SUM(BG48:BG50)</f>
+        <f t="shared" ref="BG51" si="128">BG46+SUM(BG48:BG50)</f>
         <v>0</v>
       </c>
       <c r="BH51" s="18">
-        <f t="shared" ref="BH51" si="136">BH46+SUM(BH48:BH50)</f>
+        <f t="shared" ref="BH51" si="129">BH46+SUM(BH48:BH50)</f>
         <v>0</v>
       </c>
       <c r="BI51" s="18">
-        <f t="shared" ref="BI51" si="137">BI46+SUM(BI48:BI50)</f>
+        <f t="shared" ref="BI51" si="130">BI46+SUM(BI48:BI50)</f>
         <v>0</v>
       </c>
       <c r="BJ51" s="18">
-        <f t="shared" ref="BJ51" si="138">BJ46+SUM(BJ48:BJ50)</f>
+        <f t="shared" ref="BJ51" si="131">BJ46+SUM(BJ48:BJ50)</f>
+        <v>0</v>
+      </c>
+      <c r="BK51" s="18">
+        <f t="shared" ref="BK51" si="132">BK46+SUM(BK48:BK50)</f>
+        <v>0</v>
+      </c>
+      <c r="BL51" s="18">
+        <f t="shared" ref="BL51" si="133">BL46+SUM(BL48:BL50)</f>
+        <v>0</v>
+      </c>
+      <c r="BM51" s="18">
+        <f t="shared" ref="BM51" si="134">BM46+SUM(BM48:BM50)</f>
+        <v>0</v>
+      </c>
+      <c r="BN51" s="18">
+        <f t="shared" ref="BN51" si="135">BN46+SUM(BN48:BN50)</f>
+        <v>0</v>
+      </c>
+      <c r="BO51" s="18">
+        <f t="shared" ref="BO51" si="136">BO46+SUM(BO48:BO50)</f>
+        <v>0</v>
+      </c>
+      <c r="BP51" s="18">
+        <f t="shared" ref="BP51" si="137">BP46+SUM(BP48:BP50)</f>
+        <v>0</v>
+      </c>
+      <c r="BQ51" s="18">
+        <f t="shared" ref="BQ51" si="138">BQ46+SUM(BQ48:BQ50)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:62" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:69" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C52" s="11">
-        <f>C51/C18</f>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="11">
+        <f>J51/J18</f>
         <v>-0.30011845916300101</v>
       </c>
-      <c r="D52" s="11">
-        <f t="shared" ref="D52:AB52" si="139">D51/D18</f>
+      <c r="K52" s="11">
+        <f t="shared" ref="K52:AI52" si="139">K51/K18</f>
         <v>-0.27384226889647034</v>
       </c>
-      <c r="E52" s="11">
+      <c r="L52" s="11">
         <f t="shared" si="139"/>
         <v>-0.28020307623501223</v>
       </c>
-      <c r="F52" s="11">
+      <c r="M52" s="11">
         <f t="shared" si="139"/>
         <v>-8.5141739685493392E-2</v>
       </c>
-      <c r="G52" s="11">
+      <c r="N52" s="11">
         <f t="shared" si="139"/>
         <v>5.8815380941007855E-2</v>
       </c>
-      <c r="H52" s="11">
+      <c r="O52" s="11">
         <f t="shared" si="139"/>
         <v>7.1989497343287301E-2</v>
       </c>
-      <c r="I52" s="11">
+      <c r="P52" s="11">
         <f t="shared" si="139"/>
         <v>0.11304485749344625</v>
       </c>
-      <c r="J52" s="11">
+      <c r="Q52" s="11">
         <f t="shared" si="139"/>
         <v>0.2079086828205319</v>
       </c>
-      <c r="K52" s="11">
+      <c r="R52" s="11">
         <f t="shared" si="139"/>
         <v>7.8284082113246764E-2</v>
       </c>
-      <c r="L52" s="11">
+      <c r="S52" s="11">
         <f t="shared" si="139"/>
         <v>3.3919088988462298E-2</v>
       </c>
-      <c r="M52" s="11">
+      <c r="T52" s="11">
         <f t="shared" si="139"/>
         <v>0.22794321302305171</v>
       </c>
-      <c r="N52" s="11">
+      <c r="U52" s="11">
         <f t="shared" si="139"/>
         <v>0.21686724595024925</v>
       </c>
-      <c r="O52" s="11">
+      <c r="V52" s="11">
         <f t="shared" si="139"/>
         <v>7.4429343205633602E-2</v>
       </c>
-      <c r="P52" s="11">
+      <c r="W52" s="11">
         <f t="shared" si="139"/>
         <v>0.14435930802279268</v>
       </c>
-      <c r="Q52" s="11">
+      <c r="X52" s="11">
         <f t="shared" si="139"/>
         <v>0.21400207728476658</v>
       </c>
-      <c r="R52" s="11">
+      <c r="Y52" s="11">
         <f t="shared" si="139"/>
         <v>0.28514606766421524</v>
       </c>
-      <c r="S52" s="11">
+      <c r="Z52" s="11">
         <f t="shared" si="139"/>
         <v>0.22892395775367708</v>
       </c>
-      <c r="T52" s="11">
+      <c r="AA52" s="11">
         <f t="shared" si="139"/>
         <v>0.2797470573284136</v>
       </c>
-      <c r="U52" s="11">
+      <c r="AB52" s="11">
         <f t="shared" si="139"/>
         <v>0.2591612197043357</v>
       </c>
-      <c r="V52" s="11">
+      <c r="AC52" s="11">
         <f t="shared" si="139"/>
         <v>0.3356610746261835</v>
       </c>
-      <c r="W52" s="11">
+      <c r="AD52" s="11">
         <f t="shared" si="139"/>
         <v>0.13736430858456153</v>
       </c>
-      <c r="X52" s="11">
+      <c r="AE52" s="11">
         <f t="shared" si="139"/>
         <v>0.20932710701545162</v>
       </c>
-      <c r="Y52" s="11">
+      <c r="AF52" s="11">
         <f t="shared" si="139"/>
         <v>0.20921528875737377</v>
       </c>
-      <c r="Z52" s="11">
+      <c r="AG52" s="11">
         <f t="shared" si="139"/>
         <v>0.25590730720075544</v>
       </c>
-      <c r="AA52" s="11">
+      <c r="AH52" s="11">
         <f t="shared" si="139"/>
         <v>0.14227374696539982</v>
       </c>
-      <c r="AB52" s="11">
+      <c r="AI52" s="11">
         <f t="shared" si="139"/>
         <v>0.16213374978909667</v>
       </c>
-      <c r="AC52" s="11" t="e">
-        <f t="shared" ref="AC52" si="140">AC51/AC18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD52" s="11" t="e">
-        <f t="shared" ref="AD52" si="141">AD51/AD18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE52" s="11" t="e">
-        <f t="shared" ref="AE52" si="142">AE51/AE18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF52" s="11" t="e">
-        <f t="shared" ref="AF52" si="143">AF51/AF18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG52" s="11" t="e">
-        <f t="shared" ref="AG52" si="144">AG51/AG18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH52" s="11" t="e">
-        <f t="shared" ref="AH52" si="145">AH51/AH18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI52" s="11" t="e">
-        <f t="shared" ref="AI52" si="146">AI51/AI18</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AJ52" s="11" t="e">
-        <f t="shared" ref="AJ52" si="147">AJ51/AJ18</f>
+        <f t="shared" ref="AJ52" si="140">AJ51/AJ18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AK52" s="11" t="e">
-        <f t="shared" ref="AK52" si="148">AK51/AK18</f>
+        <f t="shared" ref="AK52" si="141">AK51/AK18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AL52" s="11" t="e">
-        <f t="shared" ref="AL52" si="149">AL51/AL18</f>
+        <f t="shared" ref="AL52" si="142">AL51/AL18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AM52" s="11" t="e">
-        <f t="shared" ref="AM52" si="150">AM51/AM18</f>
+        <f t="shared" ref="AM52" si="143">AM51/AM18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AN52" s="11" t="e">
-        <f t="shared" ref="AN52" si="151">AN51/AN18</f>
+        <f t="shared" ref="AN52" si="144">AN51/AN18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AO52" s="11" t="e">
-        <f t="shared" ref="AO52" si="152">AO51/AO18</f>
+        <f t="shared" ref="AO52" si="145">AO51/AO18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AP52" s="11" t="e">
-        <f t="shared" ref="AP52" si="153">AP51/AP18</f>
+        <f t="shared" ref="AP52" si="146">AP51/AP18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ52" s="11" t="e">
-        <f t="shared" ref="AQ52" si="154">AQ51/AQ18</f>
+        <f t="shared" ref="AQ52" si="147">AQ51/AQ18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AR52" s="11" t="e">
-        <f t="shared" ref="AR52" si="155">AR51/AR18</f>
+        <f t="shared" ref="AR52" si="148">AR51/AR18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AS52" s="11" t="e">
-        <f t="shared" ref="AS52" si="156">AS51/AS18</f>
+        <f t="shared" ref="AS52" si="149">AS51/AS18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AT52" s="11" t="e">
-        <f t="shared" ref="AT52" si="157">AT51/AT18</f>
+        <f t="shared" ref="AT52" si="150">AT51/AT18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AU52" s="11" t="e">
-        <f t="shared" ref="AU52" si="158">AU51/AU18</f>
+        <f t="shared" ref="AU52" si="151">AU51/AU18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AV52" s="11" t="e">
-        <f t="shared" ref="AV52" si="159">AV51/AV18</f>
+        <f t="shared" ref="AV52" si="152">AV51/AV18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AW52" s="11" t="e">
-        <f t="shared" ref="AW52" si="160">AW51/AW18</f>
+        <f t="shared" ref="AW52" si="153">AW51/AW18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AX52" s="11" t="e">
-        <f t="shared" ref="AX52" si="161">AX51/AX18</f>
+        <f t="shared" ref="AX52" si="154">AX51/AX18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AY52" s="11" t="e">
-        <f t="shared" ref="AY52" si="162">AY51/AY18</f>
+        <f t="shared" ref="AY52" si="155">AY51/AY18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ52" s="11" t="e">
-        <f t="shared" ref="AZ52" si="163">AZ51/AZ18</f>
+        <f t="shared" ref="AZ52" si="156">AZ51/AZ18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BA52" s="11" t="e">
-        <f t="shared" ref="BA52" si="164">BA51/BA18</f>
+        <f t="shared" ref="BA52" si="157">BA51/BA18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BB52" s="11" t="e">
-        <f t="shared" ref="BB52" si="165">BB51/BB18</f>
+        <f t="shared" ref="BB52" si="158">BB51/BB18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BC52" s="11" t="e">
-        <f t="shared" ref="BC52" si="166">BC51/BC18</f>
+        <f t="shared" ref="BC52" si="159">BC51/BC18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BD52" s="11" t="e">
-        <f t="shared" ref="BD52" si="167">BD51/BD18</f>
+        <f t="shared" ref="BD52" si="160">BD51/BD18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BE52" s="11" t="e">
-        <f t="shared" ref="BE52" si="168">BE51/BE18</f>
+        <f t="shared" ref="BE52" si="161">BE51/BE18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BF52" s="11" t="e">
-        <f t="shared" ref="BF52" si="169">BF51/BF18</f>
+        <f t="shared" ref="BF52" si="162">BF51/BF18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BG52" s="11" t="e">
-        <f t="shared" ref="BG52" si="170">BG51/BG18</f>
+        <f t="shared" ref="BG52" si="163">BG51/BG18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BH52" s="11" t="e">
-        <f t="shared" ref="BH52" si="171">BH51/BH18</f>
+        <f t="shared" ref="BH52" si="164">BH51/BH18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BI52" s="11" t="e">
-        <f t="shared" ref="BI52" si="172">BI51/BI18</f>
+        <f t="shared" ref="BI52" si="165">BI51/BI18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BJ52" s="11" t="e">
-        <f t="shared" ref="BJ52" si="173">BJ51/BJ18</f>
+        <f t="shared" ref="BJ52" si="166">BJ51/BJ18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BK52" s="11" t="e">
+        <f t="shared" ref="BK52" si="167">BK51/BK18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BL52" s="11" t="e">
+        <f t="shared" ref="BL52" si="168">BL51/BL18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BM52" s="11" t="e">
+        <f t="shared" ref="BM52" si="169">BM51/BM18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BN52" s="11" t="e">
+        <f t="shared" ref="BN52" si="170">BN51/BN18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BO52" s="11" t="e">
+        <f t="shared" ref="BO52" si="171">BO51/BO18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BP52" s="11" t="e">
+        <f t="shared" ref="BP52" si="172">BP51/BP18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BQ52" s="11" t="e">
+        <f t="shared" ref="BQ52" si="173">BQ51/BQ18</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="54" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="2:62" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:69" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C55" s="29">
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="29">
         <v>16783.129000000001</v>
       </c>
-      <c r="D55" s="29">
+      <c r="K55" s="29">
         <v>16800.243999999999</v>
       </c>
-      <c r="E55" s="29">
+      <c r="L55" s="29">
         <v>16816.838</v>
       </c>
-      <c r="F55" s="29">
+      <c r="M55" s="29">
         <v>16823.754000000001</v>
       </c>
-      <c r="G55" s="29">
+      <c r="N55" s="29">
         <v>16840.598999999998</v>
       </c>
-      <c r="H55" s="29">
+      <c r="O55" s="29">
         <v>16860.567999999999</v>
       </c>
-      <c r="I55" s="29">
+      <c r="P55" s="29">
         <v>16880.341</v>
       </c>
-      <c r="J55" s="29">
+      <c r="Q55" s="29">
         <v>16888.691999999999</v>
       </c>
-      <c r="K55" s="29">
+      <c r="R55" s="29">
         <v>16909.036</v>
       </c>
-      <c r="L55" s="29">
+      <c r="S55" s="29">
         <v>16931.137999999999</v>
       </c>
-      <c r="M55" s="29">
+      <c r="T55" s="29">
         <v>16952.973000000002</v>
       </c>
-      <c r="N55" s="29">
+      <c r="U55" s="29">
         <v>16964.059000000001</v>
       </c>
-      <c r="O55" s="29">
+      <c r="V55" s="29">
         <v>17214.383999999998</v>
       </c>
-      <c r="P55" s="29">
+      <c r="W55" s="29">
         <v>17222.165000000001</v>
       </c>
-      <c r="Q55" s="29">
+      <c r="X55" s="29">
         <v>17230.386999999999</v>
       </c>
-      <c r="R55" s="29">
+      <c r="Y55" s="29">
         <v>17225.422999999999</v>
       </c>
-      <c r="S55" s="29">
+      <c r="Z55" s="29">
         <v>17246.371999999999</v>
       </c>
-      <c r="T55" s="29">
+      <c r="AA55" s="29">
         <v>17253.745999999999</v>
       </c>
-      <c r="U55" s="29">
+      <c r="AB55" s="29">
         <v>17261.348999999998</v>
       </c>
-      <c r="V55" s="29">
+      <c r="AC55" s="29">
         <v>17256.75</v>
       </c>
-      <c r="W55" s="29">
+      <c r="AD55" s="29">
         <v>17316.766</v>
       </c>
-      <c r="X55" s="29">
+      <c r="AE55" s="29">
         <v>17352.34</v>
       </c>
-      <c r="Y55" s="29">
+      <c r="AF55" s="29">
         <v>17576.969000000001</v>
       </c>
-      <c r="Z55" s="29">
+      <c r="AG55" s="29">
         <v>17400.659</v>
       </c>
-      <c r="AA55" s="29">
+      <c r="AH55" s="29">
         <v>17451.362000000001</v>
       </c>
-      <c r="AB55" s="29">
+      <c r="AI55" s="29">
         <v>17456.12</v>
       </c>
     </row>
-    <row r="56" spans="2:62" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:69" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C56" s="29">
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="29">
         <v>16783.129000000001</v>
       </c>
-      <c r="D56" s="29">
+      <c r="K56" s="29">
         <v>16800.243999999999</v>
       </c>
-      <c r="E56" s="29">
+      <c r="L56" s="29">
         <v>16816.838</v>
       </c>
-      <c r="F56" s="29">
+      <c r="M56" s="29">
         <v>16823.754000000001</v>
       </c>
-      <c r="G56" s="29">
+      <c r="N56" s="29">
         <v>16840.598999999998</v>
       </c>
-      <c r="H56" s="29">
+      <c r="O56" s="29">
         <v>16875.72</v>
       </c>
-      <c r="I56" s="29">
+      <c r="P56" s="29">
         <v>16978.643</v>
       </c>
-      <c r="J56" s="29">
+      <c r="Q56" s="29">
         <v>17074.825000000001</v>
       </c>
-      <c r="K56" s="29">
+      <c r="R56" s="29">
         <v>17081.578000000001</v>
       </c>
-      <c r="L56" s="29">
+      <c r="S56" s="29">
         <v>17123.387999999999</v>
       </c>
-      <c r="M56" s="29">
+      <c r="T56" s="29">
         <v>17087.275000000001</v>
       </c>
-      <c r="N56" s="29">
+      <c r="U56" s="29">
         <v>17164.525000000001</v>
       </c>
-      <c r="O56" s="29">
+      <c r="V56" s="29">
         <v>17216.287</v>
       </c>
-      <c r="P56" s="29">
+      <c r="W56" s="29">
         <v>17223.998</v>
       </c>
-      <c r="Q56" s="29">
+      <c r="X56" s="29">
         <v>17231.437999999998</v>
       </c>
-      <c r="R56" s="29">
+      <c r="Y56" s="29">
         <v>17226.62</v>
       </c>
-      <c r="S56" s="29">
+      <c r="Z56" s="29">
         <v>17246.371999999999</v>
       </c>
-      <c r="T56" s="29">
+      <c r="AA56" s="29">
         <v>17253.745999999999</v>
       </c>
-      <c r="U56" s="29">
+      <c r="AB56" s="29">
         <v>17265.797999999999</v>
       </c>
-      <c r="V56" s="29">
+      <c r="AC56" s="29">
         <v>17257.870999999999</v>
       </c>
-      <c r="W56" s="29">
+      <c r="AD56" s="29">
         <v>17326.177</v>
       </c>
-      <c r="X56" s="29">
+      <c r="AE56" s="29">
         <v>17354.03</v>
       </c>
-      <c r="Y56" s="29">
+      <c r="AF56" s="29">
         <v>17577.588</v>
       </c>
-      <c r="Z56" s="29">
+      <c r="AG56" s="29">
         <v>17451.313999999998</v>
       </c>
-      <c r="AA56" s="29">
+      <c r="AH56" s="29">
         <v>17474.905999999999</v>
       </c>
-      <c r="AB56" s="29">
+      <c r="AI56" s="29">
         <v>17487.526999999998</v>
       </c>
     </row>
-    <row r="58" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:69" x14ac:dyDescent="0.25">
+      <c r="M57" s="29"/>
+    </row>
+    <row r="58" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="59" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B59" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C59" s="20">
-        <f>C$46/C55</f>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="20">
+        <f>J$46/J55</f>
         <v>-5.2530073504171985E-2</v>
       </c>
-      <c r="D59" s="20">
-        <f t="shared" ref="D59:BJ59" si="174">D$46/D55</f>
+      <c r="K59" s="20">
+        <f t="shared" ref="K59:BQ59" si="174">K$46/K55</f>
         <v>-7.8384040136559918E-2</v>
       </c>
-      <c r="E59" s="20">
+      <c r="L59" s="20">
         <f t="shared" si="174"/>
         <v>-6.1904443629652632E-2</v>
       </c>
-      <c r="F59" s="20">
+      <c r="M59" s="20">
         <f t="shared" si="174"/>
         <v>-2.4630531330878922E-2</v>
       </c>
-      <c r="G59" s="20">
+      <c r="N59" s="20">
         <f t="shared" si="174"/>
         <v>8.2788622898745997E-3</v>
       </c>
-      <c r="H59" s="20">
+      <c r="O59" s="20">
         <f t="shared" si="174"/>
         <v>1.2010212230098008E-2</v>
       </c>
-      <c r="I59" s="20">
+      <c r="P59" s="20">
         <f t="shared" si="174"/>
         <v>3.0287243604853683E-2</v>
       </c>
-      <c r="J59" s="20">
+      <c r="Q59" s="20">
         <f t="shared" si="174"/>
         <v>5.9040510656479493E-2</v>
       </c>
-      <c r="K59" s="20">
+      <c r="R59" s="20">
         <f t="shared" si="174"/>
         <v>1.9392471575552898E-2</v>
       </c>
-      <c r="L59" s="20">
+      <c r="S59" s="20">
         <f t="shared" si="174"/>
         <v>2.5875697191765815E-2</v>
       </c>
-      <c r="M59" s="20">
+      <c r="T59" s="20">
         <f t="shared" si="174"/>
         <v>7.4314870907893224E-2</v>
       </c>
-      <c r="N59" s="20">
+      <c r="U59" s="20">
         <f t="shared" si="174"/>
         <v>7.3326259947575065E-2</v>
       </c>
-      <c r="O59" s="20">
+      <c r="V59" s="20">
         <f t="shared" si="174"/>
         <v>1.3950252300634174E-2</v>
       </c>
-      <c r="P59" s="20">
+      <c r="W59" s="20">
         <f t="shared" si="174"/>
         <v>3.5336846441780145E-2</v>
       </c>
-      <c r="Q59" s="20">
+      <c r="X59" s="20">
         <f t="shared" si="174"/>
         <v>0.15588280170375748</v>
       </c>
-      <c r="R59" s="20">
+      <c r="Y59" s="20">
         <f t="shared" si="174"/>
         <v>8.8837237843157779E-2</v>
       </c>
-      <c r="S59" s="20">
+      <c r="Z59" s="20">
         <f t="shared" si="174"/>
         <v>6.5698339337687983E-2</v>
       </c>
-      <c r="T59" s="20">
+      <c r="AA59" s="20">
         <f t="shared" si="174"/>
         <v>8.2855630307760456E-2</v>
       </c>
-      <c r="U59" s="20">
+      <c r="AB59" s="20">
         <f t="shared" si="174"/>
         <v>7.8740890992934548E-2</v>
       </c>
-      <c r="V59" s="20">
+      <c r="AC59" s="20">
         <f t="shared" si="174"/>
         <v>9.5694496356498251E-2</v>
       </c>
-      <c r="W59" s="20">
+      <c r="AD59" s="20">
         <f t="shared" si="174"/>
         <v>4.034535085823765E-2</v>
       </c>
-      <c r="X59" s="20">
+      <c r="AE59" s="20">
         <f t="shared" si="174"/>
         <v>7.3252541155832573E-2</v>
       </c>
-      <c r="Y59" s="20">
+      <c r="AF59" s="20">
         <f t="shared" si="174"/>
         <v>8.0979775295729278E-2</v>
       </c>
-      <c r="Z59" s="20">
+      <c r="AG59" s="20">
         <f t="shared" si="174"/>
         <v>0.15140926559160772</v>
       </c>
-      <c r="AA59" s="20">
+      <c r="AH59" s="20">
         <f t="shared" si="174"/>
         <v>6.0588394189519439E-2</v>
       </c>
-      <c r="AB59" s="20">
+      <c r="AI59" s="20">
         <f t="shared" si="174"/>
         <v>6.9220193261732871E-2</v>
       </c>
-      <c r="AC59" s="20" t="e">
-        <f t="shared" si="174"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD59" s="20" t="e">
-        <f t="shared" si="174"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE59" s="20" t="e">
-        <f t="shared" si="174"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF59" s="20" t="e">
-        <f t="shared" si="174"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG59" s="20" t="e">
-        <f t="shared" si="174"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH59" s="20" t="e">
-        <f t="shared" si="174"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI59" s="20" t="e">
-        <f t="shared" si="174"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AJ59" s="20" t="e">
         <f t="shared" si="174"/>
         <v>#DIV/0!</v>
@@ -7063,143 +7305,150 @@
         <f t="shared" si="174"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="BK59" s="20" t="e">
+        <f t="shared" si="174"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BL59" s="20" t="e">
+        <f t="shared" si="174"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BM59" s="20" t="e">
+        <f t="shared" si="174"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BN59" s="20" t="e">
+        <f t="shared" si="174"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BO59" s="20" t="e">
+        <f t="shared" si="174"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BP59" s="20" t="e">
+        <f t="shared" si="174"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BQ59" s="20" t="e">
+        <f t="shared" si="174"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="60" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B60" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C60" s="20">
-        <f>C$46/C56</f>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="20">
+        <f>J$46/J56</f>
         <v>-5.2530073504171985E-2</v>
       </c>
-      <c r="D60" s="20">
-        <f t="shared" ref="D60:BJ60" si="175">D$46/D56</f>
+      <c r="K60" s="20">
+        <f t="shared" ref="K60:BQ60" si="175">K$46/K56</f>
         <v>-7.8384040136559918E-2</v>
       </c>
-      <c r="E60" s="20">
+      <c r="L60" s="20">
         <f t="shared" si="175"/>
         <v>-6.1904443629652632E-2</v>
       </c>
-      <c r="F60" s="20">
+      <c r="M60" s="20">
         <f t="shared" si="175"/>
         <v>-2.4630531330878922E-2</v>
       </c>
-      <c r="G60" s="20">
+      <c r="N60" s="20">
         <f t="shared" si="175"/>
         <v>8.2788622898745997E-3</v>
       </c>
-      <c r="H60" s="20">
+      <c r="O60" s="20">
         <f t="shared" si="175"/>
         <v>1.1999428765113375E-2</v>
       </c>
-      <c r="I60" s="20">
+      <c r="P60" s="20">
         <f t="shared" si="175"/>
         <v>3.011188821156081E-2</v>
       </c>
-      <c r="J60" s="20">
+      <c r="Q60" s="20">
         <f t="shared" si="175"/>
         <v>5.8396908899505551E-2</v>
       </c>
-      <c r="K60" s="20">
+      <c r="R60" s="20">
         <f t="shared" si="175"/>
         <v>1.9196587106882084E-2</v>
       </c>
-      <c r="L60" s="20">
+      <c r="S60" s="20">
         <f t="shared" si="175"/>
         <v>2.5585182091301058E-2</v>
       </c>
-      <c r="M60" s="20">
+      <c r="T60" s="20">
         <f t="shared" si="175"/>
         <v>7.3730773338639394E-2</v>
       </c>
-      <c r="N60" s="20">
+      <c r="U60" s="20">
         <f t="shared" si="175"/>
         <v>7.2469876096192598E-2</v>
       </c>
-      <c r="O60" s="20">
+      <c r="V60" s="20">
         <f t="shared" si="175"/>
         <v>1.3948710311346464E-2</v>
       </c>
-      <c r="P60" s="20">
+      <c r="W60" s="20">
         <f t="shared" si="175"/>
         <v>3.5333085849173961E-2</v>
       </c>
-      <c r="Q60" s="20">
+      <c r="X60" s="20">
         <f t="shared" si="175"/>
         <v>0.15587329391777988</v>
       </c>
-      <c r="R60" s="20">
+      <c r="Y60" s="20">
         <f t="shared" si="175"/>
         <v>8.8831064944835392E-2</v>
       </c>
-      <c r="S60" s="20">
+      <c r="Z60" s="20">
         <f t="shared" si="175"/>
         <v>6.5698339337687983E-2</v>
       </c>
-      <c r="T60" s="20">
+      <c r="AA60" s="20">
         <f t="shared" si="175"/>
         <v>8.2855630307760456E-2</v>
       </c>
-      <c r="U60" s="20">
+      <c r="AB60" s="20">
         <f t="shared" si="175"/>
         <v>7.8720601271948146E-2</v>
       </c>
-      <c r="V60" s="20">
+      <c r="AC60" s="20">
         <f t="shared" si="175"/>
         <v>9.568828043737268E-2</v>
       </c>
-      <c r="W60" s="20">
+      <c r="AD60" s="20">
         <f t="shared" si="175"/>
         <v>4.0323436612704613E-2</v>
       </c>
-      <c r="X60" s="20">
+      <c r="AE60" s="20">
         <f t="shared" si="175"/>
         <v>7.3245407550868585E-2</v>
       </c>
-      <c r="Y60" s="20">
+      <c r="AF60" s="20">
         <f t="shared" si="175"/>
         <v>8.097692356880816E-2</v>
       </c>
-      <c r="Z60" s="20">
+      <c r="AG60" s="20">
         <f t="shared" si="175"/>
         <v>0.15096977797774996</v>
       </c>
-      <c r="AA60" s="20">
+      <c r="AH60" s="20">
         <f t="shared" si="175"/>
         <v>6.0506763240958231E-2</v>
       </c>
-      <c r="AB60" s="20">
+      <c r="AI60" s="20">
         <f t="shared" si="175"/>
         <v>6.9095876163622241E-2</v>
       </c>
-      <c r="AC60" s="20" t="e">
-        <f t="shared" si="175"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD60" s="20" t="e">
-        <f t="shared" si="175"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE60" s="20" t="e">
-        <f t="shared" si="175"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF60" s="20" t="e">
-        <f t="shared" si="175"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG60" s="20" t="e">
-        <f t="shared" si="175"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH60" s="20" t="e">
-        <f t="shared" si="175"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI60" s="20" t="e">
-        <f t="shared" si="175"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AJ60" s="20" t="e">
         <f t="shared" si="175"/>
         <v>#DIV/0!</v>
@@ -7308,18 +7557,46 @@
         <f t="shared" si="175"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="BK60" s="20" t="e">
+        <f t="shared" si="175"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BL60" s="20" t="e">
+        <f t="shared" si="175"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BM60" s="20" t="e">
+        <f t="shared" si="175"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BN60" s="20" t="e">
+        <f t="shared" si="175"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BO60" s="20" t="e">
+        <f t="shared" si="175"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BP60" s="20" t="e">
+        <f t="shared" si="175"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BQ60" s="20" t="e">
+        <f t="shared" si="175"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="63" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B63" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
@@ -7373,8 +7650,15 @@
       <c r="BH63" s="3"/>
       <c r="BI63" s="3"/>
       <c r="BJ63" s="3"/>
+      <c r="BK63" s="3"/>
+      <c r="BL63" s="3"/>
+      <c r="BM63" s="3"/>
+      <c r="BN63" s="3"/>
+      <c r="BO63" s="3"/>
+      <c r="BP63" s="3"/>
+      <c r="BQ63" s="3"/>
     </row>
-    <row r="64" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B64" s="12" t="s">
         <v>39</v>
       </c>
@@ -7438,250 +7722,277 @@
       <c r="BH64" s="12"/>
       <c r="BI64" s="12"/>
       <c r="BJ64" s="12"/>
+      <c r="BK64" s="12"/>
+      <c r="BL64" s="12"/>
+      <c r="BM64" s="12"/>
+      <c r="BN64" s="12"/>
+      <c r="BO64" s="12"/>
+      <c r="BP64" s="12"/>
+      <c r="BQ64" s="12"/>
     </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="X65" s="26"/>
-      <c r="AA65" s="26"/>
-      <c r="AB65" s="26"/>
+      <c r="AE65" s="26"/>
+      <c r="AH65" s="26"/>
+      <c r="AI65" s="26"/>
     </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="X66" s="26"/>
-      <c r="AA66" s="26"/>
-      <c r="AB66" s="26"/>
+    <row r="66" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AE66" s="26"/>
+      <c r="AH66" s="26"/>
+      <c r="AI66" s="26"/>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="X67" s="26"/>
-      <c r="AB67" s="30">
-        <v>66000</v>
-      </c>
-      <c r="AE67" s="1" t="s">
+      <c r="AE67" s="26"/>
+      <c r="AI67" s="30"/>
+      <c r="AL67" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="X68" s="26"/>
-      <c r="AB68" s="26"/>
+    <row r="68" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AE68" s="26"/>
+      <c r="AI68" s="26"/>
     </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="X69" s="26"/>
-      <c r="AA69" s="26"/>
-      <c r="AE69" s="1" t="s">
+      <c r="AE69" s="26"/>
+      <c r="AH69" s="26"/>
+      <c r="AL69" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="X70" s="26"/>
-      <c r="AA70" s="26"/>
+    <row r="70" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AE70" s="26"/>
+      <c r="AH70" s="26"/>
     </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="X71" s="26"/>
-      <c r="AE71" s="1" t="s">
+      <c r="AE71" s="26"/>
+      <c r="AL71" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="AE72" s="1" t="s">
+    <row r="72" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AL72" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C74" s="8">
-        <f t="shared" ref="C74:AB74" si="176">C75*C18</f>
-        <v>0</v>
-      </c>
-      <c r="D74" s="8">
-        <f t="shared" si="176"/>
-        <v>0</v>
-      </c>
-      <c r="E74" s="8">
-        <f t="shared" si="176"/>
-        <v>0</v>
-      </c>
-      <c r="F74" s="8">
-        <f t="shared" si="176"/>
-        <v>0</v>
-      </c>
-      <c r="G74" s="8">
-        <f t="shared" si="176"/>
-        <v>0</v>
-      </c>
-      <c r="H74" s="8">
-        <f t="shared" si="176"/>
-        <v>0</v>
-      </c>
-      <c r="I74" s="8">
-        <f t="shared" si="176"/>
-        <v>0</v>
-      </c>
       <c r="J74" s="8">
-        <f t="shared" si="176"/>
-        <v>0</v>
+        <f>+(0.12*SUM(J18:K18))-K74</f>
+        <v>184.19787999999983</v>
       </c>
       <c r="K74" s="8">
-        <f t="shared" si="176"/>
-        <v>0</v>
+        <f t="shared" ref="K74:AI74" si="176">K75*K18</f>
+        <v>633.62468000000013</v>
       </c>
       <c r="L74" s="8">
         <f t="shared" si="176"/>
-        <v>0</v>
+        <v>881.31238000000008</v>
       </c>
       <c r="M74" s="8">
-        <f t="shared" si="176"/>
-        <v>0</v>
+        <f>+(0.2*SUM(J18:M18))-SUM(J74:L74)</f>
+        <v>1070.9394600000005</v>
       </c>
       <c r="N74" s="8">
         <f t="shared" si="176"/>
-        <v>0</v>
+        <v>835.30650000000003</v>
       </c>
       <c r="O74" s="8">
         <f t="shared" si="176"/>
-        <v>0</v>
+        <v>1345.00064</v>
       </c>
       <c r="P74" s="8">
         <f t="shared" si="176"/>
-        <v>1280.4612500000001</v>
+        <v>1331.0489599999999</v>
       </c>
       <c r="Q74" s="8">
-        <f t="shared" si="176"/>
-        <v>0</v>
+        <f>(0.25*(SUM(N18:Q18))-SUM(N74:P74))</f>
+        <v>881.79114999999911</v>
       </c>
       <c r="R74" s="8">
         <f t="shared" si="176"/>
-        <v>0</v>
+        <v>1443.6569600000003</v>
       </c>
       <c r="S74" s="8">
         <f t="shared" si="176"/>
-        <v>1606.9867200000001</v>
+        <v>1837.3246999999999</v>
       </c>
       <c r="T74" s="8">
         <f t="shared" si="176"/>
+        <v>2179.0501739999995</v>
+      </c>
+      <c r="U74" s="8">
+        <f>+(0.33*SUM(R18:U18))-SUM(R74:T74)</f>
+        <v>1666.3838360000009</v>
+      </c>
+      <c r="V74" s="8">
+        <f t="shared" si="176"/>
+        <v>0</v>
+      </c>
+      <c r="W74" s="8">
+        <f t="shared" si="176"/>
+        <v>1280.4612500000001</v>
+      </c>
+      <c r="X74" s="8">
+        <f t="shared" si="176"/>
+        <v>1545.0457500000002</v>
+      </c>
+      <c r="Y74" s="8">
+        <f t="shared" si="176"/>
+        <v>0</v>
+      </c>
+      <c r="Z74" s="8">
+        <f t="shared" si="176"/>
+        <v>1606.9867200000001</v>
+      </c>
+      <c r="AA74" s="8">
+        <f t="shared" si="176"/>
         <v>1985.2878000000001</v>
       </c>
-      <c r="U74" s="8">
+      <c r="AB74" s="8">
         <f t="shared" si="176"/>
         <v>1872.71352</v>
       </c>
-      <c r="V74" s="8">
-        <f>(0.22*(SUM(S18:V18))-SUM(S74:U74))</f>
+      <c r="AC74" s="8">
+        <f>(0.22*(SUM(Z18:AC18))-SUM(Z74:AB74))</f>
         <v>637.96486000000004</v>
       </c>
-      <c r="W74" s="8">
+      <c r="AD74" s="8">
         <f t="shared" si="176"/>
         <v>2476.1772800000003</v>
       </c>
-      <c r="X74" s="8">
+      <c r="AE74" s="8">
         <f t="shared" si="176"/>
         <v>1541.4953399999999</v>
       </c>
-      <c r="Y74" s="8">
+      <c r="AF74" s="8">
         <f t="shared" si="176"/>
         <v>1989.8019999999999</v>
       </c>
-      <c r="Z74" s="8">
-        <f>(0.23*SUM(W18:Z18))-SUM(W74:Y74)</f>
+      <c r="AG74" s="8">
+        <f>(0.23*SUM(AD18:AG18))-SUM(AD74:AF74)</f>
         <v>1998.4833699999999</v>
       </c>
-      <c r="AA74" s="8">
+      <c r="AH74" s="8">
         <f t="shared" si="176"/>
         <v>2699.3382699999997</v>
       </c>
-      <c r="AB74" s="8">
+      <c r="AI74" s="8">
         <f t="shared" si="176"/>
         <v>3007.06448</v>
       </c>
-      <c r="AE74" s="1" t="s">
+      <c r="AL74" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="75" spans="2:31" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:38" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="9" t="s">
         <v>45</v>
       </c>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="11">
+        <f>+J74/J18</f>
+        <v>5.9649881605604131E-2</v>
+      </c>
+      <c r="K75" s="28">
+        <v>0.17</v>
+      </c>
+      <c r="L75" s="28">
+        <v>0.26</v>
+      </c>
+      <c r="M75" s="11">
+        <f>+M74/M18</f>
+        <v>0.29376856147584951</v>
+      </c>
+      <c r="N75" s="28">
+        <v>0.21</v>
+      </c>
+      <c r="O75" s="28">
+        <v>0.32</v>
+      </c>
       <c r="P75" s="28">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="Q75" s="11">
+        <f>+Q74/Q18</f>
+        <v>0.18363043597776574</v>
+      </c>
+      <c r="R75" s="28">
+        <v>0.32</v>
+      </c>
+      <c r="S75" s="28">
+        <v>0.38</v>
+      </c>
+      <c r="T75" s="28">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="U75" s="11">
+        <f>+U74/U18</f>
+        <v>0.26471474755350161</v>
+      </c>
+      <c r="W75" s="28">
         <v>0.25</v>
       </c>
-      <c r="S75" s="28">
+      <c r="X75" s="28">
+        <v>0.25</v>
+      </c>
+      <c r="Z75" s="28">
         <v>0.24</v>
-      </c>
-      <c r="T75" s="28">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="U75" s="28">
-        <v>0.27</v>
-      </c>
-      <c r="V75" s="28">
-        <f>V74/V18</f>
-        <v>8.7836187776577035E-2</v>
-      </c>
-      <c r="W75" s="28">
-        <v>0.38</v>
-      </c>
-      <c r="X75" s="28">
-        <v>0.21</v>
-      </c>
-      <c r="Y75" s="28">
-        <v>0.25</v>
-      </c>
-      <c r="Z75" s="11">
-        <f>Z74/Z18</f>
-        <v>0.15381710659033088</v>
       </c>
       <c r="AA75" s="28">
         <v>0.28999999999999998</v>
       </c>
       <c r="AB75" s="28">
+        <v>0.27</v>
+      </c>
+      <c r="AC75" s="28">
+        <f>AC74/AC18</f>
+        <v>8.7836187776577035E-2</v>
+      </c>
+      <c r="AD75" s="28">
+        <v>0.38</v>
+      </c>
+      <c r="AE75" s="28">
+        <v>0.21</v>
+      </c>
+      <c r="AF75" s="28">
+        <v>0.25</v>
+      </c>
+      <c r="AG75" s="11">
+        <f>AG74/AG18</f>
+        <v>0.15381710659033088</v>
+      </c>
+      <c r="AH75" s="28">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AI75" s="28">
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C76" s="8">
-        <f t="shared" ref="C76:AB76" si="177">C77*C18</f>
-        <v>0</v>
-      </c>
-      <c r="D76" s="8">
-        <f t="shared" si="177"/>
-        <v>0</v>
-      </c>
-      <c r="E76" s="8">
-        <f t="shared" si="177"/>
-        <v>0</v>
-      </c>
-      <c r="F76" s="8">
-        <f t="shared" si="177"/>
-        <v>0</v>
-      </c>
-      <c r="G76" s="8">
-        <f t="shared" si="177"/>
-        <v>0</v>
-      </c>
-      <c r="H76" s="8">
-        <f t="shared" si="177"/>
-        <v>0</v>
-      </c>
-      <c r="I76" s="8">
-        <f t="shared" si="177"/>
-        <v>0</v>
-      </c>
       <c r="J76" s="8">
-        <f t="shared" si="177"/>
+        <f t="shared" ref="J76:AI76" si="177">J77*J18</f>
         <v>0</v>
       </c>
       <c r="K76" s="8">
@@ -7706,7 +8017,7 @@
       </c>
       <c r="P76" s="8">
         <f t="shared" si="177"/>
-        <v>819.49520000000007</v>
+        <v>0</v>
       </c>
       <c r="Q76" s="8">
         <f t="shared" si="177"/>
@@ -7722,106 +8033,123 @@
       </c>
       <c r="T76" s="8">
         <f t="shared" si="177"/>
-        <v>684.58200000000011</v>
+        <v>0</v>
       </c>
       <c r="U76" s="8">
         <f t="shared" si="177"/>
-        <v>1109.7561599999999</v>
+        <v>0</v>
       </c>
       <c r="V76" s="8">
         <f t="shared" si="177"/>
-        <v>0</v>
+        <v>535.66172000000006</v>
       </c>
       <c r="W76" s="8">
         <f t="shared" si="177"/>
-        <v>716.78816000000006</v>
+        <v>819.49520000000007</v>
       </c>
       <c r="X76" s="8">
         <f t="shared" si="177"/>
+        <v>1297.8384300000002</v>
+      </c>
+      <c r="Y76" s="8">
+        <f>+(0.17*SUM(V18:Y18)-SUM(V76:X76))</f>
+        <v>1264.6199700000006</v>
+      </c>
+      <c r="Z76" s="8">
+        <f t="shared" si="177"/>
+        <v>0</v>
+      </c>
+      <c r="AA76" s="8">
+        <f t="shared" si="177"/>
+        <v>684.58200000000011</v>
+      </c>
+      <c r="AB76" s="8">
+        <f t="shared" si="177"/>
+        <v>1109.7561599999999</v>
+      </c>
+      <c r="AC76" s="8">
+        <f t="shared" si="177"/>
+        <v>0</v>
+      </c>
+      <c r="AD76" s="8">
+        <f t="shared" si="177"/>
+        <v>716.78816000000006</v>
+      </c>
+      <c r="AE76" s="8">
+        <f t="shared" si="177"/>
         <v>734.04539999999997</v>
       </c>
-      <c r="Y76" s="8">
+      <c r="AF76" s="8">
         <f t="shared" si="177"/>
         <v>795.92079999999999</v>
       </c>
-      <c r="Z76" s="8">
-        <f>(0.1*SUM(W18:Z18))-SUM(W76:Y76)</f>
+      <c r="AG76" s="8">
+        <f>(0.1*SUM(AD18:AG18))-SUM(AD76:AF76)</f>
         <v>1234.0969400000004</v>
       </c>
-      <c r="AA76" s="8">
+      <c r="AH76" s="8">
         <f t="shared" si="177"/>
         <v>0</v>
       </c>
-      <c r="AB76" s="8">
+      <c r="AI76" s="8">
         <f t="shared" si="177"/>
         <v>1825.7177200000001</v>
       </c>
     </row>
-    <row r="77" spans="2:31" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:38" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B77" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="P77" s="28">
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+      <c r="V77" s="28">
+        <v>0.11</v>
+      </c>
+      <c r="W77" s="28">
         <v>0.16</v>
       </c>
-      <c r="T77" s="28">
+      <c r="X77" s="28">
+        <v>0.21</v>
+      </c>
+      <c r="Y77" s="11">
+        <f>Y76/Y18</f>
+        <v>0.18399514426935332</v>
+      </c>
+      <c r="AA77" s="28">
         <v>0.1</v>
       </c>
-      <c r="U77" s="28">
+      <c r="AB77" s="28">
         <v>0.16</v>
       </c>
-      <c r="V77" s="28"/>
-      <c r="W77" s="28">
+      <c r="AC77" s="28"/>
+      <c r="AD77" s="28">
         <v>0.11</v>
       </c>
-      <c r="X77" s="28">
+      <c r="AE77" s="28">
         <v>0.1</v>
       </c>
-      <c r="Y77" s="28">
+      <c r="AF77" s="28">
         <v>0.1</v>
       </c>
-      <c r="Z77" s="11">
-        <f>Z76/Z18</f>
+      <c r="AG77" s="11">
+        <f>AG76/AG18</f>
         <v>9.498463855757841E-2</v>
       </c>
-      <c r="AB77" s="28">
+      <c r="AI77" s="28">
         <v>0.17</v>
       </c>
     </row>
-    <row r="78" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C78" s="8">
-        <f t="shared" ref="C78:AB78" si="178">C79*C18</f>
-        <v>0</v>
-      </c>
-      <c r="D78" s="8">
-        <f t="shared" si="178"/>
-        <v>0</v>
-      </c>
-      <c r="E78" s="8">
-        <f t="shared" si="178"/>
-        <v>0</v>
-      </c>
-      <c r="F78" s="8">
-        <f t="shared" si="178"/>
-        <v>0</v>
-      </c>
-      <c r="G78" s="8">
-        <f t="shared" si="178"/>
-        <v>0</v>
-      </c>
-      <c r="H78" s="8">
-        <f t="shared" si="178"/>
-        <v>0</v>
-      </c>
-      <c r="I78" s="8">
-        <f t="shared" si="178"/>
-        <v>0</v>
-      </c>
       <c r="J78" s="8">
-        <f t="shared" si="178"/>
+        <f t="shared" ref="J78:AI78" si="178">J79*J18</f>
         <v>0</v>
       </c>
       <c r="K78" s="8">
@@ -7878,7 +8206,7 @@
       </c>
       <c r="X78" s="8">
         <f t="shared" si="178"/>
-        <v>1321.28172</v>
+        <v>0</v>
       </c>
       <c r="Y78" s="8">
         <f t="shared" si="178"/>
@@ -7896,49 +8224,57 @@
         <f t="shared" si="178"/>
         <v>0</v>
       </c>
+      <c r="AC78" s="8">
+        <f t="shared" si="178"/>
+        <v>0</v>
+      </c>
+      <c r="AD78" s="8">
+        <f t="shared" si="178"/>
+        <v>0</v>
+      </c>
+      <c r="AE78" s="8">
+        <f t="shared" si="178"/>
+        <v>1321.28172</v>
+      </c>
+      <c r="AF78" s="8">
+        <f t="shared" si="178"/>
+        <v>0</v>
+      </c>
+      <c r="AG78" s="8">
+        <f t="shared" si="178"/>
+        <v>0</v>
+      </c>
+      <c r="AH78" s="8">
+        <f t="shared" si="178"/>
+        <v>0</v>
+      </c>
+      <c r="AI78" s="8">
+        <f t="shared" si="178"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="79" spans="2:31" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:38" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="X79" s="28">
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="Q79" s="31"/>
+      <c r="AE79" s="28">
         <v>0.18</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C80" s="8">
-        <f t="shared" ref="C80:AB80" si="179">C81*C18</f>
-        <v>0</v>
-      </c>
-      <c r="D80" s="8">
-        <f t="shared" si="179"/>
-        <v>0</v>
-      </c>
-      <c r="E80" s="8">
-        <f t="shared" si="179"/>
-        <v>0</v>
-      </c>
-      <c r="F80" s="8">
-        <f t="shared" si="179"/>
-        <v>0</v>
-      </c>
-      <c r="G80" s="8">
-        <f t="shared" si="179"/>
-        <v>0</v>
-      </c>
-      <c r="H80" s="8">
-        <f t="shared" si="179"/>
-        <v>0</v>
-      </c>
-      <c r="I80" s="8">
-        <f t="shared" si="179"/>
-        <v>0</v>
-      </c>
       <c r="J80" s="8">
-        <f t="shared" si="179"/>
+        <f t="shared" ref="J80:AI80" si="179">J81*J18</f>
         <v>0</v>
       </c>
       <c r="K80" s="8">
@@ -7955,19 +8291,19 @@
       </c>
       <c r="N80" s="8">
         <f t="shared" si="179"/>
-        <v>0</v>
+        <v>1193.2950000000001</v>
       </c>
       <c r="O80" s="8">
         <f t="shared" si="179"/>
-        <v>0</v>
+        <v>630.46904999999992</v>
       </c>
       <c r="P80" s="8">
         <f t="shared" si="179"/>
-        <v>0</v>
+        <v>688.47359999999992</v>
       </c>
       <c r="Q80" s="8">
-        <f t="shared" si="179"/>
-        <v>0</v>
+        <f>+(0.14*SUM(N18:Q18))-SUM(N80:P80)</f>
+        <v>-52.075190000000475</v>
       </c>
       <c r="R80" s="8">
         <f t="shared" si="179"/>
@@ -7975,7 +8311,7 @@
       </c>
       <c r="S80" s="8">
         <f t="shared" si="179"/>
-        <v>1673.9445000000001</v>
+        <v>0</v>
       </c>
       <c r="T80" s="8">
         <f t="shared" si="179"/>
@@ -7991,19 +8327,19 @@
       </c>
       <c r="W80" s="8">
         <f t="shared" si="179"/>
-        <v>847.11328000000003</v>
+        <v>0</v>
       </c>
       <c r="X80" s="8">
         <f t="shared" si="179"/>
-        <v>1174.47264</v>
+        <v>0</v>
       </c>
       <c r="Y80" s="8">
         <f t="shared" si="179"/>
-        <v>1910.2099199999998</v>
+        <v>0</v>
       </c>
       <c r="Z80" s="8">
-        <f>(0.12*SUM(W18:Z18))-SUM(W80:Y80)</f>
-        <v>245.22572000000036</v>
+        <f t="shared" si="179"/>
+        <v>1673.9445000000001</v>
       </c>
       <c r="AA80" s="8">
         <f t="shared" si="179"/>
@@ -8013,62 +8349,82 @@
         <f t="shared" si="179"/>
         <v>0</v>
       </c>
+      <c r="AC80" s="8">
+        <f t="shared" si="179"/>
+        <v>0</v>
+      </c>
+      <c r="AD80" s="8">
+        <f t="shared" si="179"/>
+        <v>847.11328000000003</v>
+      </c>
+      <c r="AE80" s="8">
+        <f t="shared" si="179"/>
+        <v>1174.47264</v>
+      </c>
+      <c r="AF80" s="8">
+        <f t="shared" si="179"/>
+        <v>1910.2099199999998</v>
+      </c>
+      <c r="AG80" s="8">
+        <f>(0.12*SUM(AD18:AG18))-SUM(AD80:AF80)</f>
+        <v>245.22572000000036</v>
+      </c>
+      <c r="AH80" s="8">
+        <f t="shared" si="179"/>
+        <v>0</v>
+      </c>
+      <c r="AI80" s="8">
+        <f t="shared" si="179"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="81" spans="2:28" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:35" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B81" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="S81" s="28">
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
+      <c r="N81" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="O81" s="28">
+        <v>0.15</v>
+      </c>
+      <c r="P81" s="28">
+        <v>0.15</v>
+      </c>
+      <c r="Q81" s="28">
+        <f>+Q80/Q18</f>
+        <v>-1.0844506483564826E-2</v>
+      </c>
+      <c r="Z81" s="28">
         <v>0.25</v>
       </c>
-      <c r="W81" s="28">
+      <c r="AD81" s="28">
         <v>0.13</v>
       </c>
-      <c r="X81" s="28">
+      <c r="AE81" s="28">
         <v>0.16</v>
       </c>
-      <c r="Y81" s="28">
+      <c r="AF81" s="28">
         <v>0.24</v>
       </c>
-      <c r="Z81" s="11">
-        <f>Z80/Z18</f>
+      <c r="AG81" s="11">
+        <f>AG80/AG18</f>
         <v>1.8874267996501114E-2</v>
       </c>
     </row>
-    <row r="82" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C82" s="8">
-        <f t="shared" ref="C82:AB82" si="180">C83*C18</f>
-        <v>0</v>
-      </c>
-      <c r="D82" s="8">
-        <f t="shared" si="180"/>
-        <v>0</v>
-      </c>
-      <c r="E82" s="8">
-        <f t="shared" si="180"/>
-        <v>0</v>
-      </c>
-      <c r="F82" s="8">
-        <f t="shared" si="180"/>
-        <v>0</v>
-      </c>
-      <c r="G82" s="8">
-        <f t="shared" si="180"/>
-        <v>0</v>
-      </c>
-      <c r="H82" s="8">
-        <f t="shared" si="180"/>
-        <v>0</v>
-      </c>
-      <c r="I82" s="8">
-        <f t="shared" si="180"/>
-        <v>0</v>
-      </c>
       <c r="J82" s="8">
-        <f t="shared" si="180"/>
+        <f t="shared" ref="J82:AI82" si="180">J83*J18</f>
         <v>0</v>
       </c>
       <c r="K82" s="8">
@@ -8089,7 +8445,7 @@
       </c>
       <c r="O82" s="8">
         <f t="shared" si="180"/>
-        <v>0</v>
+        <v>504.37523999999991</v>
       </c>
       <c r="P82" s="8">
         <f t="shared" si="180"/>
@@ -8113,7 +8469,7 @@
       </c>
       <c r="U82" s="8">
         <f t="shared" si="180"/>
-        <v>971.03664000000003</v>
+        <v>0</v>
       </c>
       <c r="V82" s="8">
         <f t="shared" si="180"/>
@@ -8141,30 +8497,205 @@
       </c>
       <c r="AB82" s="8">
         <f t="shared" si="180"/>
+        <v>971.03664000000003</v>
+      </c>
+      <c r="AC82" s="8">
+        <f t="shared" si="180"/>
+        <v>0</v>
+      </c>
+      <c r="AD82" s="8">
+        <f t="shared" si="180"/>
+        <v>0</v>
+      </c>
+      <c r="AE82" s="8">
+        <f t="shared" si="180"/>
+        <v>0</v>
+      </c>
+      <c r="AF82" s="8">
+        <f t="shared" si="180"/>
+        <v>0</v>
+      </c>
+      <c r="AG82" s="8">
+        <f t="shared" si="180"/>
+        <v>0</v>
+      </c>
+      <c r="AH82" s="8">
+        <f t="shared" si="180"/>
+        <v>0</v>
+      </c>
+      <c r="AI82" s="8">
+        <f t="shared" si="180"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:28" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:35" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B83" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="U83" s="28">
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
+      <c r="O83" s="28">
+        <v>0.12</v>
+      </c>
+      <c r="AB83" s="28">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="84" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="J84" s="8">
+        <f>J85*J18</f>
+        <v>0</v>
+      </c>
+      <c r="K84" s="8">
+        <f t="shared" ref="K84:AI84" si="181">K85*K18</f>
+        <v>0</v>
+      </c>
+      <c r="L84" s="8">
+        <f t="shared" si="181"/>
+        <v>0</v>
+      </c>
+      <c r="M84" s="8">
+        <f t="shared" si="181"/>
+        <v>0</v>
+      </c>
+      <c r="N84" s="8">
+        <f t="shared" si="181"/>
+        <v>0</v>
+      </c>
+      <c r="O84" s="8">
+        <f t="shared" si="181"/>
+        <v>0</v>
+      </c>
+      <c r="P84" s="8">
+        <f t="shared" si="181"/>
+        <v>0</v>
+      </c>
+      <c r="Q84" s="8">
+        <f t="shared" si="181"/>
+        <v>0</v>
+      </c>
+      <c r="R84" s="8">
+        <f t="shared" si="181"/>
+        <v>0</v>
+      </c>
+      <c r="S84" s="8">
+        <f t="shared" si="181"/>
+        <v>0</v>
+      </c>
+      <c r="T84" s="8">
+        <f t="shared" si="181"/>
+        <v>0</v>
+      </c>
+      <c r="U84" s="8">
+        <f t="shared" si="181"/>
+        <v>0</v>
+      </c>
+      <c r="V84" s="8">
+        <f t="shared" si="181"/>
+        <v>584.35824000000002</v>
+      </c>
+      <c r="W84" s="8">
+        <f t="shared" si="181"/>
+        <v>0</v>
+      </c>
+      <c r="X84" s="8">
+        <f t="shared" si="181"/>
+        <v>0</v>
+      </c>
+      <c r="Y84" s="8">
+        <f t="shared" si="181"/>
+        <v>0</v>
+      </c>
+      <c r="Z84" s="8">
+        <f t="shared" si="181"/>
+        <v>0</v>
+      </c>
+      <c r="AA84" s="8">
+        <f t="shared" si="181"/>
+        <v>753.04020000000003</v>
+      </c>
+      <c r="AB84" s="8">
+        <f t="shared" si="181"/>
+        <v>0</v>
+      </c>
+      <c r="AC84" s="8">
+        <f t="shared" si="181"/>
+        <v>0</v>
+      </c>
+      <c r="AD84" s="8">
+        <f t="shared" si="181"/>
+        <v>0</v>
+      </c>
+      <c r="AE84" s="8">
+        <f t="shared" si="181"/>
+        <v>0</v>
+      </c>
+      <c r="AF84" s="8">
+        <f t="shared" si="181"/>
+        <v>0</v>
+      </c>
+      <c r="AG84" s="8">
+        <f t="shared" si="181"/>
+        <v>0</v>
+      </c>
+      <c r="AH84" s="8">
+        <f t="shared" si="181"/>
+        <v>0</v>
+      </c>
+      <c r="AI84" s="8">
+        <f t="shared" si="181"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="85" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B85" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="T85" s="26">
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="27"/>
+      <c r="K85" s="27"/>
+      <c r="L85" s="27"/>
+      <c r="M85" s="27"/>
+      <c r="N85" s="27"/>
+      <c r="O85" s="27"/>
+      <c r="P85" s="27"/>
+      <c r="Q85" s="27"/>
+      <c r="R85" s="27"/>
+      <c r="S85" s="27"/>
+      <c r="T85" s="27"/>
+      <c r="U85" s="27"/>
+      <c r="V85" s="28">
+        <v>0.12</v>
+      </c>
+      <c r="W85" s="27"/>
+      <c r="X85" s="27"/>
+      <c r="Y85" s="27"/>
+      <c r="Z85" s="27"/>
+      <c r="AA85" s="28">
         <v>0.11</v>
       </c>
-      <c r="V85" s="26"/>
+      <c r="AB85" s="27"/>
+      <c r="AC85" s="28"/>
+      <c r="AD85" s="27"/>
+      <c r="AE85" s="27"/>
+      <c r="AF85" s="27"/>
+      <c r="AG85" s="27"/>
+      <c r="AH85" s="27"/>
+      <c r="AI85" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
